--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD575E-B524-41FA-BC8B-9CAA1B4A886E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF612FE5-7068-40B1-9B96-4C71D696B812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="2" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="194">
   <si>
     <t>Questions</t>
   </si>
@@ -73,10 +73,6 @@
     <t>Qu'est-ce que la CNIL ?</t>
   </si>
   <si>
-    <t>La CNIL, ou Commission Nationale de l’Informatique et des Libertés, est l’autorité administrative indépendante française chargée de veiller à la protection des données personnelles et au respect de la vie privée dans le cadre des traitements informatiques et papiers.
-Créée par la loi « Informatique et Libertés » de 1978, la CNIL s’assure que l’usage de l’informatique serve le citoyen sans porter atteinte aux libertés individuelles, à la vie privée ou aux droits fondamentaux. Elle joue un rôle central dans l’application du RGPD en France.</t>
-  </si>
-  <si>
     <t>Qu'est-ce que le RGPD ?</t>
   </si>
   <si>
@@ -85,9 +81,6 @@
   </si>
   <si>
     <t>Qu'est-ce qu'un DPO ?</t>
-  </si>
-  <si>
-    <t>Un DPO (Data Protection Officer, ou Délégué à la Protection des Données en français) est le professionnel chargé de veiller à la conformité d’un organisme avec le RGPD et les lois relatives à la protection des données personnelles.</t>
   </si>
   <si>
     <t>Qu'est-ce qu'un Marché Public ?</t>
@@ -148,26 +141,12 @@
 Le marché public vise à garantir un usage efficace et transparent des fonds publics, en assurant la meilleure réponse au besoin de la collectivité.</t>
   </si>
   <si>
-    <t>Principes essentiels de la commande publique :
-Liberté d’accès à la commande publique : toute entreprise ou opérateur économique doit pouvoir présenter une offre sur un marché public, sans discrimination injustifiée.​
-Égalité de traitement des candidats : toutes les candidatures et offres doivent être examinées selon les mêmes règles et critères, sans favoritisme ou discrimination.​
-Transparence des procédures : les conditions d’attribution du marché ainsi que l’ensemble des modalités procédurales doivent être claires, objectives, et connues à l’avance des candidats.</t>
-  </si>
-  <si>
-    <t>Un système d’information est un ensemble organisé de ressources et de moyens (logiciels, matériel informatique, données, procédures, personnels) destinés à collecter, traiter, stocker et diffuser des informations afin de soutenir les activités et la prise de décision au sein d’une organisation.</t>
-  </si>
-  <si>
     <t>Qu'est-ce qu'un SI ?</t>
   </si>
   <si>
     <t>Quelles sont les grandes catégories de SI, selon le type d'application ?</t>
   </si>
   <si>
-    <t>SI de conception
-SI industriel
-SI d'information et de gestion</t>
-  </si>
-  <si>
     <t>Pourquoi souhaitez-vous rejoindre la fonction publique territoriale ?</t>
   </si>
   <si>
@@ -177,123 +156,48 @@
     <t>Qu’est-ce qu’un "bon" manager ?</t>
   </si>
   <si>
-    <t>Adaptation aux spécificités territoriales : Il comprend les enjeux propres à la collectivité : développement du territoire, satisfaction des usagers, gestion des ressources publiques et respect des réglementations spécifiques. Il sait intégrer ces contraintes dans l’organisation et la planification des activités.
-Management participatif et communication Il favorise un management participatif, tenant compte des avis des agents et des partenaires, et communique de façon transparente sur les décisions et projets de la collectivité. Cela contribue à un climat de confiance et à l’adhésion collective aux objectifs.
-Développement des compétences et accompagnement Le bon manager territorial valorise les compétences des agents, favorise leur formation continue et leur évolution professionnelle, ce qui est essentiel dans un contexte où les métiers et les outils évoluent rapidement.
-Gestion des ressources publiques et éthique Il gère les ressources humaines, financières et matérielles avec rigueur et responsabilité, en veillant à l’utilisation optimale des fonds publics. Il incarne une posture d’éthique irréprochable, respectant les principes de neutralité et d’équité.
-Résolution des conflits et prise de décision Il sait gérer les conflits internes avec diplomatie, préserver la cohésion des équipes et prendre des décisions éclairées en s’appuyant sur une connaissance fine du contexte local et des réglementations.</t>
-  </si>
-  <si>
     <t>Qu’est-ce que le management selon vous ?</t>
   </si>
   <si>
-    <t>Le management est la capacité à piloter une équipe pour atteindre des objectifs collectifs en mobilisant les compétences, la motivation et les moyens à disposition.
-Il combine stratégie, organisation, communication et exemplarité.</t>
-  </si>
-  <si>
     <t>Quelles sont les qualités d’un bon manager dans la fonction publique territoriale ?</t>
   </si>
   <si>
-    <t>Un bon manager territorial doit être à l’écoute, équitable, pédagogue et exemplaire.
-Il sait décider dans le respect du cadre réglementaire, valoriser ses agents, fixer des priorités claires et porter les valeurs du service public.</t>
-  </si>
-  <si>
     <t>Quel type de management pratiquez-vous ou souhaitez-vous pratiquer ?</t>
   </si>
   <si>
-    <t>Un management situationnel, adapté aux contextes et aux profils. Participatif quand les agents sont autonomes, plus directif en situation de crise, toujours respectueux et orienté résultats et bien-être collectif.</t>
-  </si>
-  <si>
     <t>Quelle est la différence entre management et leadership ?</t>
   </si>
   <si>
-    <t>Le management repose sur l’organisation et la coordination hiérarchique d’une équipe, tandis que le leadership relève de l’influence personnelle et de la capacité à mobiliser autour d’une vision partagée et inspirante.</t>
-  </si>
-  <si>
     <t>Comment instaurer la confiance au sein d’une équipe ?</t>
   </si>
   <si>
-    <t>Par :
-La transparence,
-La parole tenue,
-La reconnaissance du travail accompli et
-Un climat d’écoute réciproque. 
-La confiance s’alimente dans la cohérence entre les paroles et les actes du manager.</t>
-  </si>
-  <si>
     <t>Comment motiver vos collaborateurs ?</t>
   </si>
   <si>
     <t>Que faites-vous face à un agent démotivé ou en conflit avec un collègue ?</t>
   </si>
   <si>
-    <t>J’écoute les causes, 
-Je favorise le dialogue et la médiation avec impartialité. 
-Si nécessaire, je propose un accompagnement (formation, repositionnement, clarification du rôle) pour restaurer la coopération.</t>
-  </si>
-  <si>
     <t>Un agent refuse d’appliquer une consigne : comment réagissez-vous ?</t>
   </si>
   <si>
-    <t>Je rappelle calmement le cadre hiérarchique et la finalité de la consigne.
-J’écoute les objections, puis réaffirme l’obligation de l’exécution. 
-Si le refus persiste, je formalise par écrit et engage la chaîne RH si besoin.</t>
-  </si>
-  <si>
     <t>Comment gérez-vous une équipe pluridisciplinaire avec des profils hétérogènes ?</t>
   </si>
   <si>
     <t>Vous héritez d’une équipe en difficulté de cohésion : quelles actions engagez-vous ?</t>
   </si>
   <si>
-    <t>J’analyse le contexte, 
-J’apprends à connaître chacun, 
-J’organise un cadre collectif d’échange pour redéfinir les règles de fonctionnement, les objectifs partagés et restaurer la confiance en valorisant les réussites communes.</t>
-  </si>
-  <si>
     <t>Quels sont les grands types de management ?</t>
   </si>
   <si>
-    <t>Missions de conception (projets, études techniques, propositions innovantes)
-Encadrement des équipes et coordination des services techniques
-Missions d’expertise et de conseil auprès des autorités territoriales
-Gestion de services techniques, laboratoires ou groupes de services
-Conduite de projets et réalisation de chantiers pour la collectivité
-Organisation des travaux courants et maintenance des infrastructures territoriales</t>
-  </si>
-  <si>
-    <t>Directif (situations d’urgence, équipes peu autonomes)
-Persuasif (Utilisé pour instaurer la confiance ou lors de changements)
-Participatif (équipes expérimentées et innovantes)
-Délégatif (Convient aux équipes très autonomes)</t>
-  </si>
-  <si>
     <t>Comment accompagnez-vous vos agents dans un projet de modernisation ou de réorganisation ?</t>
   </si>
   <si>
-    <t>En expliquant les raisons et les bénéfices attendus du changement, 
-En impliquant les agents dans la démarche, et 
-En offrant un accompagnement adapté. 
-L’écoute et la formation sont essentielles pour l’adhésion.</t>
-  </si>
-  <si>
     <t>Comment gérer la résistance au changement ?</t>
   </si>
   <si>
-    <t>En comprenant les craintes,
-En communiquant de façon claire,
-En démontrant les avantages et 
-En accompagnant progressivement la transition. 
-L’objectif est de transformer la résistance en participation.</t>
-  </si>
-  <si>
     <t>Quelle est, selon vous, la place du dialogue social dans la réussite d’un changement interne ?</t>
   </si>
   <si>
-    <t>Le dialogue social garantit la légitimité et l’acceptation du changement. 
-Il permet de co-construire les solutions avec les représentants du personnel et d’anticiper les tensions liées à la transformation.</t>
-  </si>
-  <si>
     <t>Quelle importance accordez-vous à la communication interne ?</t>
   </si>
   <si>
@@ -330,167 +234,33 @@
     <t>Un maire vous demande de prioriser un projet personnel au détriment d’un projet d’intérêt général : comment réagissez-vous ?</t>
   </si>
   <si>
-    <t>Elle est essentielle à la performance d’un service.
-Une communication claire et régulière évite les rumeurs, renforce la cohésion et aligne les agents sur les objectifs territoriaux.</t>
-  </si>
-  <si>
-    <t>En maintenant un climat serein, 
-En reformulant pour apaiser les émotions et recentrer sur les faits.
-Les divergences sont considérées comme des sources d’amélioration plutôt que des oppositions personnelles.</t>
-  </si>
-  <si>
-    <t>En sachant alterner empathie et fermeté selon la situation.
-Être à l’écoute sans renoncer à ses responsabilités permet d’incarner une autorité bienveillante et crédible.</t>
-  </si>
-  <si>
-    <t>Il a un devoir d’encadrement, de sécurité et d’exemplarité.
-Il garantit le respect du droit, des règles d’hygiène et de sécurité, du code de déontologie et de la qualité du service public rendu</t>
-  </si>
-  <si>
-    <t>Le management territorial repose sur des valeurs de continuité, d’égalité et d’intérêt général. 
-Il s’exerce sous contrôle démocratique, avec des agents de statuts variés et dans un cadre réglementaire strict.</t>
-  </si>
-  <si>
-    <t>En précisant la finalité,
-En expliquant le pourquoi et le comment,
-En reconnaissant les contraintes de l’agent. 
-Le ton doit être respectueux et engageant pour assurer compréhension et implication.</t>
-  </si>
-  <si>
-    <t>Par :
-une gestion orientée usager, 
-une démarche qualité continue 
-un pilotage par les objectifs. 
-L’innovation, la formation et l’évaluation permettent de concilier efficacité et humanité.</t>
-  </si>
-  <si>
-    <t>Je rappelle objectivement les critères d’intérêt général et de légalité.
-Si la pression persiste, je sollicite un arbitrage formel par écrit et je m’appuie sur le code de déontologie pour protéger ma responsabilité professionnelle.</t>
-  </si>
-  <si>
-    <t>J'identifiant les blocages,
-J'expliquant les enjeux, 
-J'implique les agents dans certaines décisions
-En rendant le projet collectif, j’obtiens la participation progressive par le dialogue et les résultats concrets.</t>
-  </si>
-  <si>
-    <t>Je garde mon calme, 
-J'écoute publiquement puis
-Je déplace la discussion en entretien individuel. 
-L’objectif est de restaurer la confiance et de rappeler les règles de fonctionnement hiérarchique.</t>
-  </si>
-  <si>
-    <t>Il place l’intérêt collectif avant ses intérêts personnels, 
-Il respecte la neutralité, la probité (intégrité, honnêteté, rectitude) et l’exemplarité dans la gestion des projets
-Il veille à la qualité du service rendu à l’usager.</t>
-  </si>
-  <si>
     <t>Comment agir si un agent adopte un comportement inadapté ?</t>
   </si>
   <si>
-    <t>J'intervient immédiatement,
-J'écoute les faits, 
-Je rappelle les règles et 
-Je formalise un avertissement si nécessaire. 
-En cas de gravité, je mobilise la procédure disciplinaire et accompagne la prévention à long terme.</t>
-  </si>
-  <si>
-    <t>J'explique calmement l’illégalité ou l’incompatibilité de la demande avec les règles publiques. 
-En cas d’insistance, je consigne les échanges et j'alerte ma hiérarchie pour protéger l’intérêt de la collectivité.</t>
-  </si>
-  <si>
-    <t>Je valorise la complémentarité des compétences, 
-Je favorise la coopération plutôt que la compétition, 
-J'adapte ma communication selon les profils pour fédérer sur des objectifs communs.</t>
-  </si>
-  <si>
-    <t>Je fixe des objectifs clairs et atteignables, 
-Je reconnais les efforts, 
-Je favorise l’autonomie
-Je donne du sens au travail. 
-La motivation repose sur la reconnaissance et la participation.</t>
-  </si>
-  <si>
     <t>Comment garantir la sécurité et la résilience des SI ?</t>
   </si>
   <si>
-    <t>En appliquant une politique de sécurité complète : 
-contrôle des accès, 
-sauvegardes régulières, 
-mises à jour des systèmes, 
-protection des réseaux (firewall, antivirus), 
-formation des agents. 
-La résilience repose aussi sur des plans de continuité d’activité et de reprise après sinistre adaptés.</t>
-  </si>
-  <si>
     <t>Qu'est-ce que la résilience d'un SI ?</t>
   </si>
   <si>
-    <t>La résilience d'un système d'information (SI) est la capacité de ce dernier à maintenir ou à restaurer rapidement ses fonctions et services essentiels face à des perturbations, incidents ou attaques (pannes matérielles, cyberattaques, catastrophes)</t>
-  </si>
-  <si>
     <t>Citez un exemple de projet SI/SIG à enjeu transversal</t>
   </si>
   <si>
-    <t>La mise en place d’un SIG territorial intégré pour la gestion de l’urbanisme, combinant données cadastrales, infrastructures, risques naturels et services techniques.
-Ce projet mobilise plusieurs directions et facilite la décision et la communication vers les élus et citoyens.</t>
-  </si>
-  <si>
     <t>Quels avantages et risques du logiciel libre en collectivité ?</t>
   </si>
   <si>
-    <t>Les avantages sont :
-la maîtrise des coûts, 
-l’adaptabilité, 
-la transparence du code et 
-l’indépendance vis-à-vis des fournisseurs. 
-Les risques incluent :
-un support moins formel, 
-des nécessités de compétences internes accrues, et
-des questions de compatibilité ou de sécurité.</t>
-  </si>
-  <si>
     <t>Comment faites-vous adhérer un public non technique à un nouvel outil ?</t>
   </si>
   <si>
-    <t>Je vulgarise les bénéfices concrets, 
-Je propose des formations pratiques et accompagnées, 
-J'instaure une écoute active pour collecter et intégrer les retours.
-L’adhésion passe par la simplicité d’usage et la valorisation des gains de temps ou de qualité.</t>
-  </si>
-  <si>
     <t>Quels sont les principes clés de la résilience d'un SI ?</t>
   </si>
   <si>
-    <t>Continuité de service : maintenir les opérations malgré les événements perturbateurs.
-Adaptabilité : s'ajuster rapidement à des situations ciblées telles que des pics d’activité ou des changements imprévus.
-Récupération rapide : capacité à restaurer les données et systèmes rapidement après une panne ou un incident.
-Prévention et anticipation : mise en place de plans de continuité, sauvegardes régulières, sécurité, monitoring et procédures d'intervention</t>
-  </si>
-  <si>
     <t>Ingénieur Territorial au sein d'une collectivité, vous subissez une cyberattaque que faites-vous ?</t>
   </si>
   <si>
-    <t>Les actions immédiates et coordonnées doivent suivre une démarche structurée de gestion de crise et de continuité :
-Détecter et isoler l’attaque : Identifier rapidement les systèmes touchés, isoler les réseaux compromis pour éviter la propagation, et couper les accès suspectés de faciliter l’attaque.​
-Activer la cellule de crise cyber : Informer la direction, les responsables sécurité et la cellule de gestion de crise afin d’orchestrer la réponse dans un cadre structuré.​
-Informer les autorités compétentes : Contacter l’ANSSI, les CSIRT régionaux et nationaux pour signaler l’incident, bénéficier d’un accompagnement et coordonner la réponse technique et juridique.​
-Mettre en œuvre les procédures de réponse : Appliquer les plans de continuité et de reprise d’activité (PCA/ PRA), restituer les sauvegardes, remédier aux vulnérabilités exploitées, renforcer les défenses.​
-Communiquer avec les utilisateurs et parties prenantes : Informer de la situation, rassurer mais aussi sensibiliser aux mesures de sécurité renforcées et aux éventuelles restrictions temporaires.​
-Audit et analyse post-incident : Examiner les causes, évaluer les dommages, rédiger un retour d’expérience pour améliorer la résilience et prévenir les risques futurs.</t>
-  </si>
-  <si>
     <t>Quelles sont les compétences des départements ?</t>
   </si>
   <si>
-    <t>Action sociale (RSA, aide handicap, personnes âgées)
-Collèges et transports scolaires
-Routes départementales
-Sapeurs-pompiers (SDIS)
-Protection de l’enfance (ASE)
-Bibliothèques départementales</t>
-  </si>
-  <si>
     <t>Comment se déroulent les élections départementales ?</t>
   </si>
   <si>
@@ -500,202 +270,536 @@
     <t>Quelles sont les compétences des régions ?</t>
   </si>
   <si>
-    <t>Développement économique régional
-Gestion et financement des lycées
-Transports régionaux (trains, cars)
-Orientation et formation professionnelle
-Aménagement du territoire
-Cultures et patrimoine régional</t>
-  </si>
-  <si>
     <t>Comment se déroulent les élections municipales ?</t>
   </si>
   <si>
     <t>Quelles sont les compétences des communes ?</t>
   </si>
   <si>
-    <t>État civil (naissances, mariages, décès)
-Écoles maternelles et primaires
-Urbanisme (PLU)
-Voirie communale
-Action sociale locale
-Police municipale
-Eau potable, assainissement</t>
-  </si>
-  <si>
-    <t>Les élections régionales en France permettent d'élire les conseillers régionaux pour un mandat de 6 ans. 
-Elles se déroulent selon un scrutin de liste proportionnel à deux tours avec une prime majoritaire.
-Le scrutin a lieu dans chacune des régions françaises (métropolitaines et certaines d’outre-mer).
-Les candidats se présentent sur des listes complètes et paritaires (homme/femme).
-L’élection du président du conseil régional se fait en séance, à la majorité absolue par les conseillers régionaux élus à la première réunion.
-Les prochaines élections régionales sont normalement prévues en Mars 2028</t>
-  </si>
-  <si>
-    <t>Les élections départementales en France, qui permettent d'élire les membres du conseil départemental, se déroulent selon un scrutin binominal majoritaire à deux tours au sein des cantons.
-La durée du mandat est de 6 ans.
-Chaque binôme élu représente un canton selon une carte cantonale redessinée pour équilibrer la population représentée
+    <t>Quand est-ce que l'on peut "user" du droit de retrait ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les différentes sanctions disciplinaires ?</t>
+  </si>
+  <si>
+    <t>En cas de danger grave et imminent.</t>
+  </si>
+  <si>
+    <t>Comment se déroule la procédure disciplinaire ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les instances du dialogue sociale ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le Tribunal Administratif ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les obligations d'un agent de la FPT ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les droits d'un agent de la FPT ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les protections statutaires d'un agent de la FPT ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les positions statutaires d'un agent de la FPT ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les différentes fonctions publiques ?</t>
+  </si>
+  <si>
+    <t>Les Catégories, Cadres d'emploi, Grades…</t>
+  </si>
+  <si>
+    <t>Un agent territorial arrive et il semble être sous l'emprise de l'alcool (sans certitude). Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Qui suis-je ? (présentation professionnelle)</t>
+  </si>
+  <si>
+    <t>État civil, poste actuel, cursus scolaire et professionnel
+Parcours scolaire
+Technicien assistance (2 ans) : Poste de proximité, technicien de déploiement, hotline, écoute, gestion incidents, priorités
+GAI : incidents niveau 2, gestion projets, cyberattaque 2021
+DBA : gestion en mode projet des migrations, scripting, partie technique et gestionnaire d'infra ++</t>
+  </si>
+  <si>
+    <t>Qui est le ministre délégué chargé de la Fonction publique et de la Réforme de l'État ?</t>
+  </si>
+  <si>
+    <t>David Amiel</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le budget communal ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les grandes étapes de l'élaboration et de la gestion du budget communal ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la règle d'or en terme de budget ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que sont les recettes et les dépenses d'un budget ?</t>
+  </si>
+  <si>
+    <t>A combien correspond la dépense de fonctionnement pour les salaires du personnel dans une CT ?</t>
+  </si>
+  <si>
+    <t>Quel est le premier poste de dépense des CT ?</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre Droit de réserve et discrétion dans la FPT ?</t>
+  </si>
+  <si>
+    <t>Quels sont les principes généraux liés au MP et à la commande publique ?</t>
+  </si>
+  <si>
+    <t>Comment vous voyez-vous dans 5 ans ?</t>
+  </si>
+  <si>
+    <t>Un élu ne veut pas te nommer Ingénieur Territorial alors que le poste est fléché pour. Est-il obligé ? Si oui, quelle réglementation?</t>
+  </si>
+  <si>
+    <t>Comment se déroulent les élections dans un EPCI ?</t>
+  </si>
+  <si>
+    <t>Qu'est ce que l'accessibilité pour une CT ?</t>
+  </si>
+  <si>
+    <t>Comment gèreriez-vous un agent qui arrive en retard régulièrement ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Les élections départementales en France, qui permettent d'élire les membres du conseil départemental, se déroulent selon un scrutin binominal majoritaire à deux tours au sein des cantons.
+- La durée du mandat est de 6 ans.
+- Chaque binôme élu représente un canton selon une carte cantonale redessinée pour équilibrer la population représentée
 Les prochaines élections départementales sont normalement prévues en Mars 2028</t>
   </si>
   <si>
-    <t>Les élections municipales en France permettent d’élire les membres du conseil municipal dans chaque commune pour un mandat de 6 ans. Le déroulement et le mode de scrutin différent selon la taille de la commune.
+    <t xml:space="preserve">
+- Action sociale (RSA, aide handicap, personnes âgées)
+- Collèges et transports scolaires
+- Routes départementales
+- Sapeurs-pompiers (SDIS)
+- Protection de l’enfance (ASE)
+- Bibliothèques départementales
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Les élections régionales en France permettent d'élire les conseillers régionaux pour un mandat de 6 ans. 
+- Elles se déroulent selon un scrutin de liste proportionnel à deux tours avec une prime majoritaire.
+- Le scrutin a lieu dans chacune des régions françaises (métropolitaines et certaines d’outre-mer).
+- Les candidats se présentent sur des listes complètes et paritaires (homme/femme).
+- L’élection du président du conseil régional se fait en séance, à la majorité absolue par les conseillers régionaux élus à la première réunion.
+Les prochaines élections régionales sont normalement prévues en Mars 2028
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Développement économique régional
+- Gestion et financement des lycées
+- Transports régionaux (trains, cars)
+- Orientation et formation professionnelle
+- Aménagement du territoire
+- Cultures et patrimoine régional
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les élections municipales en France permettent d’élire les membres du conseil municipal dans chaque commune pour un mandat de 6 ans. Le déroulement et le mode de scrutin différent selon la taille de la commune.
 Dans les communes de moins de 1 000 habitants :
-Scrutin majoritaire plurinominal à deux tours.
-Les électeurs votent pour des candidats individuellement, pas pour une liste complète.
+- Scrutin majoritaire plurinominal à deux tours.
+- Les électeurs votent pour des candidats individuellement, pas pour une liste complète.
 Dans les communes de 1 000 habitants et plus :
-Mode de scrutin de liste à deux tours avec prime majoritaire.
-Les électeurs votent pour une liste complète et paritaire (hommes/femmes).
-Les prochaines élections régionales sont normalement prévues en Mars 2026</t>
-  </si>
-  <si>
-    <t>Quand est-ce que l'on peut "user" du droit de retrait ?</t>
-  </si>
-  <si>
-    <t>Quelles sont les différentes sanctions disciplinaires ?</t>
-  </si>
-  <si>
-    <t>Les différentes santions sont :
-Avertissement, blâme, exclusion 1-3 jours
-Radiation, abaissement d’échelon, exclusion 4-15 jours
-Rétrogradation, exclusion 16 jours à 2 ans
-Mise à la retraite, révocation
-Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
-Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation</t>
-  </si>
-  <si>
-    <t>En cas de danger grave et imminent.</t>
-  </si>
-  <si>
-    <t>Comment se déroule la procédure disciplinaire ?</t>
-  </si>
-  <si>
-    <t>L’enquête préalable : menée par l’autorité hiérarchique ou un organisme désigné, pour rassembler les preuves.
-Notification à l’agent : il doit être informé par écrit des faits qui lui sont reprochés et de la sanction envisagée.
-Entretien préalable : l’agent peut s’exprimer avant toute décision.
-Décision : l’autorité compétente (maire, président de l’EPCI) statue après examen du dossier. La décision doit être motivée et notifiée par écrit.
-Recours : l’agent peut saisir la commission administrative paritaire ou saisir le tribunal administratif si la sanction lui paraît injustifiée ou abusive.</t>
-  </si>
-  <si>
-    <t>Quelles sont les instances du dialogue sociale ?</t>
-  </si>
-  <si>
-    <t>Comité Social Territorial (CST) :
+- Mode de scrutin de liste à deux tours avec prime majoritaire.
+- Les électeurs votent pour une liste complète et paritaire (hommes/femmes).
+Les prochaines élections régionales sont normalement prévues en Mars 2026
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- État civil (naissances, mariages, décès)
+- Écoles maternelles et primaires
+- Urbanisme (PLU)
+- Voirie communale
+- Action sociale locale
+- Police municipale
+- Eau potable, assainissement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Comité Social Territorial (CST) :
 Instance unique issue de la fusion des comités techniques (CT) et comités d’hygiène, de sécurité et des conditions de travail (CHSCT). Elle traite des questions collectives relatives aux conditions de travail, à l’organisation générale des services et à la santé/sécurité des agents.
 Composée de représentants du personnel élus et de représentants de l’employeur territorial.​
-Commission Administrative Paritaire (CAP) :
+- Commission Administrative Paritaire (CAP) :
 Instance paritaire chargée d’examiner les questions individuelles relatives à la carrière des fonctionnaires territoriaux (avancements, sanctions disciplinaires, mutations). Elle est catégorisée par grade (A, B, C) ou unifiée selon les réformes récentes.​
-Commission Consultative Paritaire (CCP) :
+- Commission Consultative Paritaire (CCP) :
 Instance paritaire similaire à la CAP mais compétente pour les agents contractuels de droit public. Elle rend des avis sur les décisions individuelles concernant ces agents.​
-Conseil Commun de la Fonction Publique (CCFP)
+- Conseil Commun de la Fonction Publique (CCFP)
 Instance nationale centrale de dialogue social réunissant représentants des fonctionnaires et employeurs. Elle intervient au niveau national pour discuter des grandes orientations et accords cadres.​
-Conseil Supérieur de la Fonction Publique Territoriale (CSFPT)
-Conseil national qui traite des questions statutaires, réglementaires et des politiques publiques relatives à la fonction publique territoriale</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le Tribunal Administratif ?</t>
-  </si>
-  <si>
-    <t>Le Tribunal Administratif (TA) est une juridiction de première instance de l'ordre administratif en France. 
+- Conseil Supérieur de la Fonction Publique Territoriale (CSFPT)
+Conseil national qui traite des questions statutaires, réglementaires et des politiques publiques relatives à la fonction publique territoriale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les différentes santions sont :
+- Avertissement, blâme, exclusion 1-3 jours
+- Radiation, abaissement d’échelon, exclusion 4-15 jours
+- Rétrogradation, exclusion 16 jours à 2 ans
+- Mise à la retraite, révocation
+Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
+Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- L’enquête préalable : menée par l’autorité hiérarchique ou un organisme désigné, pour rassembler les preuves.
+- Notification à l’agent : il doit être informé par écrit des faits qui lui sont reprochés et de la sanction envisagée.
+- Entretien préalable : l’agent peut s’exprimer avant toute décision.
+- Décision : l’autorité compétente (maire, président de l’EPCI) statue après examen du dossier. La décision doit être motivée et notifiée par écrit.
+- Recours : l’agent peut saisir la commission administrative paritaire ou saisir le tribunal administratif si la sanction lui paraît injustifiée ou abusive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le Tribunal Administratif (TA) est une juridiction de première instance de l'ordre administratif en France. 
 Il juge les litiges qui opposent les particuliers, les agents publics, ou les collectivités territoriales à l'administration ou à toute autre personne publique.
 Il est compétent pour examiner les recours contre les décisions administratives (décisions individuelles, règlements, contrats administratifs, etc.).​
 Il traite les litiges relatifs aux fonctions publiques, notamment les conflits entre agents publics (État, territoriale, hospitalière) et leur employeur, comme les contestations de sanctions disciplinaires, les litiges sur les conditions d’emploi, etc..​
-Il statue en premier ressort, ce qui signifie que c’est la première instance saisie. Les décisions peuvent faire l’objet d’un appel devant une cour administrative d’appel.</t>
-  </si>
-  <si>
-    <t>Activité
-Détachement
-Disponibilité
-Congé parental</t>
-  </si>
-  <si>
-    <t>Stabilité de l’emploi
-Mobilité au sein des fonctions publiques
-Droits de réintégration</t>
-  </si>
-  <si>
-    <t>Droit à la protection fonctionnelle
-Droit à la formation continue
-Droit à la rémunération (traitement, primes, congés payés)
-Droit à un avancement et à la mobilité
-Droit de grève (sauf restrictions dans certains services)
-Droit syndical, liberté d’opinion
-Droit à la retraite et pension</t>
-  </si>
-  <si>
-    <t>Obligation de neutralité et de réserve
-Obligation d’exercer ses fonctions avec dignité et loyauté
-Obligation de discrétion professionnelle
-Respect du secret professionnel et de l’impartialité
-Obligation de servir l’intérêt général
-Obligation d’obéissance hiérarchique (sauf ordre manifestement illégal)
-Participation aux formations obligatoires</t>
-  </si>
-  <si>
-    <t>Quelles sont les obligations d'un agent de la FPT ?</t>
-  </si>
-  <si>
-    <t>Quelles sont les droits d'un agent de la FPT ?</t>
-  </si>
-  <si>
-    <t>Quelles sont les protections statutaires d'un agent de la FPT ?</t>
-  </si>
-  <si>
-    <t>Quelles sont les positions statutaires d'un agent de la FPT ?</t>
-  </si>
-  <si>
-    <t>Quelles sont les différentes fonctions publiques ?</t>
-  </si>
-  <si>
-    <t>Fonction publique d’État (FPE) : concerne les agents civils et militaires employés par l’État. Elle comprend plusieurs corps et cadres d’emploi avec un statut spécifique.
-Fonction publique territoriale (FPT) : concerne les agents employés par les CT (communes, départements, régions). Elle est organisée en corps ou cadres d’emplois avec leur propre statut.
-Fonction publique hospitalière (FPH) : concerne le personnel des établissements de santé publics (hôpitaux, cliniques, centres de lutte contre le cancer, etc.) qui disposent aussi de leur propre cadre réglementaire.</t>
-  </si>
-  <si>
-    <t>Les Catégories, Cadres d'emploi, Grades…</t>
-  </si>
-  <si>
-    <t>Catégorie A : 
-Cadre d’emplois : Ingénieurs Territoriaux / Grades : Ingénieur territorial principal, Ingénieur territorial hors classe
-Cadre d’emplois  : Attachés Territoriaux / Grades : Attaché principal, Attaché hors classe
+Il statue en premier ressort, ce qui signifie que c’est la première instance saisie. Les décisions peuvent faire l’objet d’un appel devant une cour administrative d’appel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Activité
+- Détachement
+- Disponibilité
+- Congé parental
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Stabilité de l’emploi
+- Mobilité au sein des fonctions publiques
+- Droits de réintégration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Droit à la protection fonctionnelle
+- Droit à la formation continue
+- Droit à la rémunération (traitement, primes, congés payés)
+- Droit à un avancement et à la mobilité
+- Droit de grève (sauf restrictions dans certains services)
+- Droit syndical, liberté d’opinion
+- Droit à la retraite et pension
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Obligation de neutralité et de réserve
+- Obligation d’exercer ses fonctions avec dignité et loyauté
+- Obligation de discrétion professionnelle
+- Respect du secret professionnel et de l’impartialité
+- Obligation de servir l’intérêt général
+- Obligation d’obéissance hiérarchique (sauf ordre manifestement illégal)
+- Participation aux formations obligatoires
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Fonction publique d’État (FPE) : concerne les agents civils et militaires employés par l’État. Elle comprend plusieurs corps et cadres d’emploi avec un statut spécifique.
+- Fonction publique territoriale (FPT) : concerne les agents employés par les CT (communes, départements, régions). Elle est organisée en corps ou cadres d’emplois avec leur propre statut.
+- Fonction publique hospitalière (FPH) : concerne le personnel des établissements de santé publics (hôpitaux, cliniques, centres de lutte contre le cancer, etc.) qui disposent aussi de leur propre cadre réglementaire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Catégorie A : 
+- Cadre d’emplois : Ingénieurs Territoriaux / Grades : Ingénieur territorial principal, Ingénieur territorial hors classe
+- Cadre d’emplois  : Attachés Territoriaux / Grades : Attaché principal, Attaché hors classe
 Catégorie B :
-Cadre d’emplois : Techniciens Territoriaux / Grades : Technicien principal, Technicien territorial supérieur
-Cadre d’emplois :  Rédacteurs Territoriaux / Grades : Rédacteur principal, Rédacteur territorial
+- Cadre d’emplois : Techniciens Territoriaux / Grades : Technicien principal, Technicien territorial supérieur
+- Cadre d’emplois :  Rédacteurs Territoriaux / Grades : Rédacteur principal, Rédacteur territorial
 Catégorie C :
-Cadre d’emplois : Agents Administratifs / Grades : Agent territorial principal, Agent territorial
-Cadre d’emplois  : Adjoints Techniques / Grades : Adjoint technique territorial principal, Adjoint technique territorial</t>
-  </si>
-  <si>
-    <t>Un agent territorial arrive et il semble être sous l'emprise de l'alcool (sans certitude). Que faites-vous ?</t>
-  </si>
-  <si>
-    <t>Assurer la sécurité immédiate :
+- Cadre d’emplois : Agents Administratifs / Grades : Agent territorial principal, Agent territorial
+- Cadre d’emplois  : Adjoints Techniques / Grades : Adjoint technique territorial principal, Adjoint technique territorial
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le droit de réserve et la discrétion professionnelle sont deux notions distinctes mais complémentaires dans la fonction publique territoriale
+Le droit de réserve porte sur l’expression publique des opinions personnelles.
+La discrétion professionnelle concerne la non-divulgation des informations confidentielles ou sensibles relatives à la collectivité ou à son fonctionnement.
+Les deux visent à protéger la crédibilité, la neutralité, et le bon fonctionnement du service public territorial, en encadrant la conduite des agents.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les élections dans un Établissement Public de Coopération Intercommunale (EPCI) se déroulent par élection indirecte des conseillers communautaires issus des conseils municipaux des communes membres. 
+Voici les grandes étapes et règles principales :
+- Les membres du conseil communautaire de l’EPCI sont désignés parmi les conseillers municipaux élus lors des élections municipales dans chaque commune membre.​
+- La répartition des sièges entre communes se fait proportionnellement à la population, selon des règles fixées par le Code Général des Collectivités Territoriales (CGCT).​
+- La liste des candidats au conseil communautaire est établie en respectant des règles précises de composition :
+- Le nombre de candidats doit correspondre au nombre de sièges attribués plus un ou deux supplémentaires selon la taille de la délégation ;
+- Les candidats doivent être choisis parmi les premiers noms de la liste municipale avec respect de la parité homme/femme.
+Le renouvellement des conseils communautaires des EPCI est lié directement au calendrier des élections municipales, garantissant une cohérence institutionnelle locale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L'accessibilité pour une collectivité territoriale (CT) désigne l'ensemble des mesures et aménagements permettant à toutes les personnes, notamment celles en situation de handicap ou à mobilité réduite, d'accéder facilement et de façon autonome aux bâtiments publics, aux équipements, aux transports, à la voirie et aux services proposés par la commune ou l'intercommunalité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le poste fléché oblige la nomination du fonctionnaire inscrit sur la liste d’aptitude.
+Cette nomination est une obligation légale découlant du cadre d’emplois et de la loi sur la fonction publique territoriale.
+Le refus arbitraire par un élu d’une nomination ne respectant pas la réglementation pourrait être contesté juridiquement.
+Décret n° 2016-201 du 26 février 2016 portant statut du cadre d’emplois des ingénieurs territoriaux + loi n° 84-53 du 26 janvier 1984 relative à la fonction publique territoriale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Mettre mes compétences au service de l’intérêt général et du développement local
+- La FPT offre des opportunités d’évolution et de mobilité, tant au sein d’une même collectivité qu’entre différentes collectivités territoriales
+- Cette dynamique permet d’acquérir des expériences variées et d’enrichir mes compétences tout en contribuant concrètement à la qualité de vie des citoyens
+- Être agent territorial représente pour moi un engagement fort au service de la collectivité, du bien commun et de la cohésion territoriale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Missions de conception (projets, études techniques, propositions innovantes)
+- Encadrement des équipes et coordination des services techniques
+- Missions d’expertise et de conseil auprès des autorités territoriales
+- Gestion de services techniques, laboratoires ou groupes de services
+- Conduite de projets et réalisation de chantiers pour la collectivité
+- Organisation des travaux courants et maintenance des infrastructures territoriales
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Directif (situations d’urgence, équipes peu autonomes)
+- Persuasif (Utilisé pour instaurer la confiance ou lors de changements)
+- Participatif (équipes expérimentées et innovantes)
+- Délégatif (Convient aux équipes très autonomes)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Adaptation aux spécificités territoriales : Il comprend les enjeux propres à la collectivité : développement du territoire, satisfaction des usagers, gestion des ressources publiques et respect des réglementations spécifiques. Il sait intégrer ces contraintes dans l’organisation et la planification des activités.
+- Management participatif et communication Il favorise un management participatif, tenant compte des avis des agents et des partenaires, et communique de façon transparente sur les décisions et projets de la collectivité. Cela contribue à un climat de confiance et à l’adhésion collective aux objectifs.
+- Développement des compétences et accompagnement Le bon manager territorial valorise les compétences des agents, favorise leur formation continue et leur évolution professionnelle, ce qui est essentiel dans un contexte où les métiers et les outils évoluent rapidement.
+- Gestion des ressources publiques et éthique Il gère les ressources humaines, financières et matérielles avec rigueur et responsabilité, en veillant à l’utilisation optimale des fonds publics. Il incarne une posture d’éthique irréprochable, respectant les principes de neutralité et d’équité.
+- Résolution des conflits et prise de décision Il sait gérer les conflits internes avec diplomatie, préserver la cohésion des équipes et prendre des décisions éclairées en s’appuyant sur une connaissance fine du contexte local et des réglementations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le management est la capacité à piloter une équipe pour atteindre des objectifs collectifs en mobilisant les compétences, la motivation et les moyens à disposition.
+Il combine stratégie, organisation, communication et exemplarité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un bon manager territorial doit être à l’écoute, équitable, pédagogue et exemplaire.
+Il sait décider dans le respect du cadre réglementaire, valoriser ses agents, fixer des priorités claires et porter les valeurs du service public.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un management situationnel, adapté aux contextes et aux profils. Participatif quand les agents sont autonomes, plus directif en situation de crise, toujours respectueux et orienté résultats et bien-être collectif.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le management repose sur l’organisation et la coordination hiérarchique d’une équipe, tandis que le leadership relève de l’influence personnelle et de la capacité à mobiliser autour d’une vision partagée et inspirante.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Par :
+- La transparence,
+- La parole tenue,
+- La reconnaissance du travail accompli et
+- Un climat d’écoute réciproque. 
+La confiance s’alimente dans la cohérence entre les paroles et les actes du manager.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je fixe des objectifs clairs et atteignables, 
+- Je reconnais les efforts, 
+- Je favorise l’autonomie
+- Je donne du sens au travail. 
+La motivation repose sur la reconnaissance et la participation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- J’écoute les causes, 
+- Je favorise le dialogue et la médiation avec impartialité. 
+- Si nécessaire, je propose un accompagnement (formation, repositionnement, clarification du rôle) pour restaurer la coopération.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je rappelle calmement le cadre hiérarchique et la finalité de la consigne.
+- J’écoute les objections, puis réaffirme l’obligation de l’exécution. 
+- Si le refus persiste, je formalise par écrit et engage la chaîne RH si besoin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je valorise la complémentarité des compétences, 
+- Je favorise la coopération plutôt que la compétition, 
+- J'adapte ma communication selon les profils pour fédérer sur des objectifs communs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- J’analyse le contexte, 
+- J’apprends à connaître chacun, 
+- J’organise un cadre collectif d’échange pour redéfinir les règles de fonctionnement, les objectifs partagés et restaurer la confiance en valorisant les réussites communes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- J'explique les raisons et les bénéfices attendus du changement, 
+- J'implique les agents dans la démarche, et 
+- J'offre un accompagnement adapté. 
+L’écoute et la formation sont essentielles pour l’adhésion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je comprends les craintes,
+- Je communique de façon claire,
+- Je démontre les avantages et 
+- J'accompagne progressivement la transition. 
+L’objectif est de transformer la résistance en participation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le dialogue social garantit la légitimité et l’acceptation du changement. 
+Il permet de co-construire les solutions avec les représentants du personnel et d’anticiper les tensions liées à la transformation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Elle est essentielle à la performance d’un service.
+Une communication claire et régulière évite les rumeurs, renforce la cohésion et aligne les agents sur les objectifs territoriaux.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je maintiens un climat serein, 
+- Je reformule pour apaiser les émotions et recentrer sur les faits.
+Les divergences sont considérées comme des sources d’amélioration plutôt que des oppositions personnelles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je précise la finalité,
+- J'explique le pourquoi et le comment,
+- Je reconnais les contraintes de l’agent. 
+Le ton doit être respectueux et engageant pour assurer compréhension et implication.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- En sachant alterner empathie et fermeté selon la situation.
+- Être à l’écoute sans renoncer à ses responsabilités permet d’incarner une autorité bienveillante et crédible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Il a un devoir d’encadrement, de sécurité et d’exemplarité.
+- Il garantit le respect du droit, des règles d’hygiène et de sécurité, du code de déontologie et de la qualité du service public rendu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+J'explique calmement l’illégalité ou l’incompatibilité de la demande avec les règles publiques. 
+En cas d’insistance, je consigne les échanges et j'alerte ma hiérarchie pour protéger l’intérêt de la collectivité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- J'intervient immédiatement,
+- J'écoute les faits, 
+- Je rappelle les règles et 
+- Je formalise un avertissement si nécessaire. 
+- En cas de gravité, je mobilise la procédure disciplinaire et accompagne la prévention à long terme.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le management territorial repose sur des valeurs de continuité, d’égalité et d’intérêt général. 
+Il s’exerce sous contrôle démocratique, avec des agents de statuts variés et dans un cadre réglementaire strict.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Il place l’intérêt collectif avant ses intérêts personnels, 
+- Il respecte la neutralité, la probité (intégrité, honnêteté, rectitude) et l’exemplarité dans la gestion des projets
+- Il veille à la qualité du service rendu à l’usager.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Par :
+- une gestion orientée usager, 
+- une démarche qualité continue 
+- un pilotage par les objectifs. 
+L’innovation, la formation et l’évaluation permettent de concilier efficacité et humanité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je garde mon calme, 
+- J'écoute publiquement puis
+- Je déplace la discussion en entretien individuel. 
+L’objectif est de restaurer la confiance et de rappeler les règles de fonctionnement hiérarchique.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- J'identifie les blocages,
+- J'explique les enjeux, 
+- J'implique les agents dans certaines décisions
+En rendant le projet collectif, j’obtiens la participation progressive par le dialogue et les résultats concrets.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Je rappelle objectivement les critères d’intérêt général et de légalité.
+Si la pression persiste, je sollicite un arbitrage formel par écrit et je m’appuie sur le code de déontologie pour protéger ma responsabilité professionnelle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Assurer la sécurité immédiate :
 Protéger l’agent, ses collègues et le public en l’éloignant de tout poste à risque. Si besoin, organiser son accompagnement hors du site (par exemple, appel d’un proche), ne jamais laisser l’agent seul si son état paraît dégradé.​
-Observer et recueillir des éléments objectifs :
+- Observer et recueillir des éléments objectifs :
 Noter les signes constatés (comportement, odorat, incohérences…). Il est possible de proposer un test d’alcoolémie si le règlement intérieur le prévoit et si l’agent occupe un poste à risque. Le test doit être pratiqué par une personne autorisée et l’agent peut être assisté par un témoin.​
-Entretien avec l’agent :
+- Entretien avec l’agent :
 Organiser un échange avec l’agent pour expliquer les observations, l’écouter, rappeler les règles de sécurité et responsabilités, et l’informer des risques (notamment disciplinaire). Fixer un cadre clair et, si possible, proposer un accompagnement (médecin, association).​
-Rédiger un rapport :
+- Rédiger un rapport :
 Consigner par écrit les faits, les observations, les entretiens et mesures prises, pour assurer la traçabilité et la transparence de la démarche.​
-Prendre les mesures administratives :
+- Prendre les mesures administratives :
 Si l’agent est absent ou éloigné pour cause d’ébriété, la rémunération peut être suspendue pour absence de service fait. Des sanctions disciplinaires peuvent être envisagées en cas de récidive ou faute grave, toujours dans le respect de la procédure disciplinaire.​
-Suivi et prévention :
+- Suivi et prévention :
 Proposer un suivi médical ou social, engager une démarche de prévention et d’aide à l’agent, tout en maintenant la sécurité et l’ordre dans le service.
-Surtout ne jamais restée seule dans cette situaiton (hiérarchie) !</t>
-  </si>
-  <si>
-    <t>Fournitures et services :
-&lt; 40 000 € : procédure négociée, publicité non obligatoire
-40 000 € - 221 000 €  (collectivités) / 143 000 € (État) / 443 000 € (autres) € : Marché à Procédure Adaptée (MAPA) / Appel d’offres, dialogue compétitif /  Publicité adaptée : BOAMP, journaux habilités (Shal)
-&gt; 221 000 € : procédure formalisée stricte / publicité obligatoire : BOAMP + JOUE
-Travaux :
-&lt; 100 000 € : publicité non obligatoire / ou publicité adaptée
-&lt; 5 538 000 € : MAPA avec publicité proportionnée / publication BOAMP et/ou JAL
-&gt; 5 538 000 € : procédure formaliséestricte /  BOAMP + JOUE
-BOAMP (Bulletin Officiel des Annonces des Marchés Publics)
-JAL (Journal d’Annonces Légales)
-JOUE (Journal Officiel de l'Union Européénne)</t>
-  </si>
-  <si>
-    <t>Pour gérer un conflit entre agents territoriaux et élus d’une collectivité, il faut adopter une démarche équilibrée, constructive et respectueuse des rôles de chacun. Voici les étapes et principes clés à suivre :
+Surtout ne jamais restée seule dans cette situaiton (hiérarchie) !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pour gérer un conflit entre agents territoriaux et élus d’une collectivité, il faut adopter une démarche équilibrée, constructive et respectueuse des rôles de chacun. Voici les étapes et principes clés à suivre :
 1. Écoute et compréhension : Recueillir les points de vue de chaque partie séparément pour comprendre les causes du conflit, qu’elles soient organisationnelles, relationnelles ou liées à des malentendus.​
 2. Respect des rôles : Rappeler clairement les rôles et prérogatives respectives
 Les élus définissent les orientations politiques et budgétaires.
@@ -705,139 +809,12 @@
 4. Recours à la médiation : Faire appel à un tiers neutre, interne ou externe, pour assurer un dialogue constructif et trouver des solutions acceptables par tous, parfois en impliquant les représentants du personnel (CST) ou une cellule RH.​
 5. Prévention : Mettre en place des outils comme un règlement intérieur clair, des règles pour la tenue des réunions, et des formations pour élus et agents à la gestion des conflits et la communication.​
 6. Respect des procédures : Si le conflit est lié à une situation particulière (sanction, comportement, organisation), appliquer les procédures disciplinaires ou administratives prévues, en garantissant la transparence et les droits des agents.​
-7. Suivi et évaluation : Assurer un suivi régulier des relations après résolution pour prévenir la réapparition du conflit et maintenir un climat de travail serein.</t>
-  </si>
-  <si>
-    <t>Mettre mes compétences au service de l’intérêt général et du développement local
-La FPT offre des opportunités d’évolution et de mobilité, tant au sein d’une même collectivité qu’entre différentes collectivités territoriales
-Cette dynamique permet d’acquérir des expériences variées et d’enrichir mes compétences tout en contribuant concrètement à la qualité de vie des citoyens
-Être agent territorial représente pour moi un engagement fort au service de la collectivité, du bien commun et de la cohésion territoriale</t>
-  </si>
-  <si>
-    <t>Qui suis-je ? (présentation professionnelle)</t>
-  </si>
-  <si>
-    <t>État civil, poste actuel, cursus scolaire et professionnel
-Parcours scolaire
-Technicien assistance (2 ans) : Poste de proximité, technicien de déploiement, hotline, écoute, gestion incidents, priorités
-GAI : incidents niveau 2, gestion projets, cyberattaque 2021
-DBA : gestion en mode projet des migrations, scripting, partie technique et gestionnaire d'infra ++</t>
-  </si>
-  <si>
-    <t>Qui est le ministre délégué chargé de la Fonction publique et de la Réforme de l'État ?</t>
-  </si>
-  <si>
-    <t>David Amiel</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le budget communal ?</t>
-  </si>
-  <si>
-    <t>Le budget communal est un acte essentiel de gestion qui prévoit et autorise, pour une année, toutes les recettes et dépenses d'une commune ou d'une collectivité territoriale. 
-Il constitue à la fois un outil de prévision, de gestion et de contrôle financier.</t>
-  </si>
-  <si>
-    <t>Quelles sont les grandes étapes de l'élaboration et de la gestion du budget communal ?</t>
-  </si>
-  <si>
-    <t>1. Le débat d’orientation budgétaire (DOB)
-Il s’agit d’un rapport présenté par l’exécutif local à l’assemblée délibérante.
-Il analyse la situation financière, l’environnement économique et fixe les grandes orientations pour l’année à venir.
-Il précède le vote du budget primitif et doit se tenir au moins deux mois avant celui-ci.​
-2. Le vote du budget primitif
-C’est le document fondamental qui prévoit les recettes et dépenses.
-Il doit être voté par le conseil municipal avant le 15 avril, dans le respect des principes d’équilibre entre recettes et dépenses, section de fonctionnement et section d’investissement.​
-3. La mise en œuvre et le suivi
-Après vote, le budget est exécuté par le maire, qui doit respecter l’équilibre budgétaire.
-Des décisions modificatives peuvent être prises pour ajuster le budget en cours d’année.
-À la fin de l’année, le contrôle et la validation se font à travers le compte administratif et le compte de gestion</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que la règle d'or en terme de budget ?</t>
-  </si>
-  <si>
-    <t>La règle d’or budgétaire impose que les dépenses de fonctionnement soient intégralement couvertes par les recettes de fonctionnement. 
-Autrement dit: Recettes de fonctionnement ≥ Dépenses de fonctionnement
-Cette règle garantit que la commune ne finance pas ses dépenses courantes par de l’emprunt, ce qui assure une gestion financière saine et responsable. Les emprunts doivent exclusivement financer les dépenses d’investissement.</t>
-  </si>
-  <si>
-    <t>Recettes :
-Les recettes correspondent aux ressources financières dont dispose la commune pour financer ses activités et investissements. 
-Elles proviennent principalement de :
-Impôts locaux (taxe foncière, taxe d’habitation, contribution économique territoriale) ;
-Dotations et transferts de l’État (dotation globale de fonctionnement, subventions) ;
-Recettes tarifaires provenant des services publics locaux (transports, eau, cantine) ;
-Autres produits comme les droits de mutation sur les transactions immobilières, les recettes provenant du patrimoine communal, etc..​
-Dépenses :
-Les dépenses sont les sommes engagées pour faire fonctionner la commune (section de fonctionnement) et pour réaliser des investissements (section d’investissement).
-Elles se répartissent en :
-Dépenses de fonctionnement, qui incluent les dépenses courantes comme les salaires du personnel, les charges de fonctionnement, les intérêts de la dette, les subventions aux associations, etc. ;
-Dépenses d’investissement, qui concernent l’achat ou la création d’immobilisations (réalisations d’infrastructures, achats de matériel), ainsi que le remboursement du capital des emprunts.</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que sont les recettes et les dépenses d'un budget ?</t>
-  </si>
-  <si>
-    <t>A combien correspond la dépense de fonctionnement pour les salaires du personnel dans une CT ?</t>
-  </si>
-  <si>
-    <t>Quel est le premier poste de dépense des CT ?</t>
-  </si>
-  <si>
-    <t>La masse salariale est le premier poste de dépenses des collectivités territoriales, notamment dans le bloc communal (communes et intercommunalités)</t>
-  </si>
-  <si>
-    <t>La dépense de fonctionnement pour les salaires du personnel dans une collectivité territoriale représente environ 37% des dépenses de fonctionnement totales des collectivités territoriales.</t>
-  </si>
-  <si>
-    <t>Quelle est la différence entre Droit de réserve et discrétion dans la FPT ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le droit de réserve et la discrétion professionnelle sont deux notions distinctes mais complémentaires dans la fonction publique territoriale
-Le droit de réserve porte sur l’expression publique des opinions personnelles.
-La discrétion professionnelle concerne la non-divulgation des informations confidentielles ou sensibles relatives à la collectivité ou à son fonctionnement.
-Les deux visent à protéger la crédibilité, la neutralité, et le bon fonctionnement du service public territorial, en encadrant la conduite des agents.
-</t>
-  </si>
-  <si>
-    <t>Quels sont les principes généraux liés au MP et à la commande publique ?</t>
-  </si>
-  <si>
-    <t>Comment vous voyez-vous dans 5 ans ?</t>
-  </si>
-  <si>
-    <t>Un élu ne veut pas te nommer Ingénieur Territorial alors que le poste est fléché pour. Est-il obligé ? Si oui, quelle réglementation?</t>
-  </si>
-  <si>
-    <t>Comment se déroulent les élections dans un EPCI ?</t>
-  </si>
-  <si>
-    <t>Les élections dans un Établissement Public de Coopération Intercommunale (EPCI) se déroulent par élection indirecte des conseillers communautaires issus des conseils municipaux des communes membres. 
-Voici les grandes étapes et règles principales :
-Les membres du conseil communautaire de l’EPCI sont désignés parmi les conseillers municipaux élus lors des élections municipales dans chaque commune membre.​
-La répartition des sièges entre communes se fait proportionnellement à la population, selon des règles fixées par le Code Général des Collectivités Territoriales (CGCT).​
-La liste des candidats au conseil communautaire est établie en respectant des règles précises de composition :
-Le nombre de candidats doit correspondre au nombre de sièges attribués plus un ou deux supplémentaires selon la taille de la délégation ;
-Les candidats doivent être choisis parmi les premiers noms de la liste municipale avec respect de la parité homme/femme.
-Le renouvellement des conseils communautaires des EPCI est lié directement au calendrier des élections municipales, garantissant une cohérence institutionnelle loc</t>
-  </si>
-  <si>
-    <t>Qu'est ce que l'accessibilité pour une CT ?</t>
-  </si>
-  <si>
-    <t>L'accessibilité pour une collectivité territoriale (CT) désigne l'ensemble des mesures et aménagements permettant à toutes les personnes, notamment celles en situation de handicap ou à mobilité réduite, d'accéder facilement et de façon autonome aux bâtiments publics, aux équipements, aux transports, à la voirie et aux services proposés par la commune ou l'intercommunalité.</t>
-  </si>
-  <si>
-    <t>Le poste fléché oblige la nomination du fonctionnaire inscrit sur la liste d’aptitude.
-Cette nomination est une obligation légale découlant du cadre d’emplois et de la loi sur la fonction publique territoriale.
-Le refus arbitraire par un élu d’une nomination ne respectant pas la réglementation pourrait être contesté juridiquement.
-Décret n° 2016-201 du 26 février 2016 portant statut du cadre d’emplois des ingénieurs territoriaux + loi n° 84-53 du 26 janvier 1984 relative à la fonction publique territoriale</t>
-  </si>
-  <si>
-    <t>Comment gèreriez-vous un agent qui arrive en retard régulièrement ?</t>
-  </si>
-  <si>
-    <t>Pour gérer un agent territorial qui arrive régulièrement en retard, voici une démarche recommandée :
+7. Suivi et évaluation : Assurer un suivi régulier des relations après résolution pour prévenir la réapparition du conflit et maintenir un climat de travail serein.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pour gérer un agent territorial qui arrive régulièrement en retard, voici une démarche recommandée :
 1. Dialogue et rappel à l’ordre
 Rencontrer l’agent en entretien pour discuter des retards constatés, écouter ses explications et rappeler les obligations liées aux horaires de travail.
 Souligner l’importance du respect des horaires pour le bon fonctionnement du service et la cohésion d’équipe.​
@@ -850,7 +827,355 @@
 La sanction peut aller de l’avertissement au blâme, voire à des sanctions plus sévères (mise à pied, exclusion temporaire de fonctions) suivant la gravité et la récidive.​
 Un cumul important d’heures de retard peut même justifier un licenciement.​
 5. Respect de la procédure disciplinaire
-Toute sanction doit respecter la procédure contradictoire, avec notification écrite, possibilité pour l’agent de se défendre et, le cas échéant, consultation du conseil de discipline.</t>
+Toute sanction doit respecter la procédure contradictoire, avec notification écrite, possibilité pour l’agent de se défendre et, le cas échéant, consultation du conseil de discipline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Principes essentiels de la commande publique :
+- Liberté d’accès à la commande publique : toute entreprise ou opérateur économique doit pouvoir présenter une offre sur un marché public, sans discrimination injustifiée.​
+- Égalité de traitement des candidats : toutes les candidatures et offres doivent être examinées selon les mêmes règles et critères, sans favoritisme ou discrimination.​
+- Transparence des procédures : les conditions d’attribution du marché ainsi que l’ensemble des modalités procédurales doivent être claires, objectives, et connues à l’avance des candidats.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Fournitures et services :
+&lt; 40 000 € : procédure négociée, publicité non obligatoire
+40 000 € - 221 000 €  (collectivités) / 143 000 € (État) / 443 000 € (autres) € : Marché à Procédure Adaptée (MAPA) / Appel d’offres, dialogue compétitif /  Publicité adaptée : BOAMP, journaux habilités (Shal)
+&gt; 221 000 € : procédure formalisée stricte / publicité obligatoire : BOAMP + JOUE
+- Travaux :
+&lt; 100 000 € : publicité non obligatoire / ou publicité adaptée
+&lt; 5 538 000 € : MAPA avec publicité proportionnée / publication BOAMP et/ou JAL
+&gt; 5 538 000 € : procédure formaliséestricte /  BOAMP + JOUE
+BOAMP (Bulletin Officiel des Annonces des Marchés Publics)
+JAL (Journal d’Annonces Légales)
+JOUE (Journal Officiel de l'Union Européénne)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un système d’information est un ensemble organisé de ressources et de moyens (logiciels, matériel informatique, données, procédures, personnels) destinés à collecter, traiter, stocker et diffuser des informations afin de soutenir les activités et la prise de décision au sein d’une organisation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- SI de conception
+- SI industriel
+- SI d'information et de gestion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La CNIL, ou Commission Nationale de l’Informatique et des Libertés, est l’autorité administrative indépendante française chargée de veiller à la protection des données personnelles et au respect de la vie privée dans le cadre des traitements informatiques et papiers.
+Créée par la loi « Informatique et Libertés » de 1978, la CNIL s’assure que l’usage de l’informatique serve le citoyen sans porter atteinte aux libertés individuelles, à la vie privée ou aux droits fondamentaux. Elle joue un rôle central dans l’application du RGPD en France.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un DPO (Data Protection Officer, ou Délégué à la Protection des Données en français) est le professionnel chargé de veiller à la conformité d’un organisme avec le RGPD et les lois relatives à la protection des données personnelles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+En appliquant une politique de sécurité complète : 
+- contrôle des accès, 
+- sauvegardes régulières, 
+- mises à jour des systèmes, 
+- protection des réseaux (firewall, antivirus), 
+- formation des agents. 
+La résilience repose aussi sur des plans de continuité d’activité et de reprise après sinistre adaptés.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La résilience d'un système d'information (SI) est la capacité de ce dernier à maintenir ou à restaurer rapidement ses fonctions et services essentiels face à des perturbations, incidents ou attaques (pannes matérielles, cyberattaques, catastrophes)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Continuité de service : maintenir les opérations malgré les événements perturbateurs.
+- Adaptabilité : s'ajuster rapidement à des situations ciblées telles que des pics d’activité ou des changements imprévus.
+- Récupération rapide : capacité à restaurer les données et systèmes rapidement après une panne ou un incident.
+- Prévention et anticipation : mise en place de plans de continuité, sauvegardes régulières, sécurité, monitoring et procédures d'intervention
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La mise en place d’un SIG territorial intégré pour la gestion de l’urbanisme, combinant données cadastrales, infrastructures, risques naturels et services techniques.
+Ce projet mobilise plusieurs directions et facilite la décision et la communication vers les élus et citoyens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les avantages sont :
+- la maîtrise des coûts, 
+- l’adaptabilité, 
+- la transparence du code et 
+- l’indépendance vis-à-vis des fournisseurs. 
+Les risques incluent :
+- un support moins formel, 
+- des nécessités de compétences internes accrues, et
+- des questions de compatibilité ou de sécurité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Je vulgarise les bénéfices concrets, 
+- Je propose des formations pratiques et accompagnées, 
+- J'instaure une écoute active pour collecter et intégrer les retours.
+- L’adhésion passe par la simplicité d’usage et la valorisation des gains de temps ou de qualité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les actions immédiates et coordonnées doivent suivre une démarche structurée de gestion de crise et de continuité :
+- Détecter et isoler l’attaque : Identifier rapidement les systèmes touchés, isoler les réseaux compromis pour éviter la propagation, et couper les accès suspectés de faciliter l’attaque.​
+- Activer la cellule de crise cyber : Informer la direction, les responsables sécurité et la cellule de gestion de crise afin d’orchestrer la réponse dans un cadre structuré.​
+- Informer les autorités compétentes : Contacter l’ANSSI, les CSIRT  (Computer Security Incident Response Team) régionaux et nationaux pour signaler l’incident, bénéficier d’un accompagnement et coordonner la réponse technique et juridique.​
+- Mettre en œuvre les procédures de réponse : Appliquer les plans de continuité et de reprise d’activité (PCA/ PRA), restituer les sauvegardes, remédier aux vulnérabilités exploitées, renforcer les défenses.​
+- Communiquer avec les utilisateurs et parties prenantes : Informer de la situation, rassurer mais aussi sensibiliser aux mesures de sécurité renforcées et aux éventuelles restrictions temporaires.​
+- Audit et analyse post-incident : Examiner les causes, évaluer les dommages, rédiger un retour d’expérience pour améliorer la résilience et prévenir les risques futurs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le budget communal est un acte essentiel de gestion qui prévoit et autorise, pour une année, toutes les recettes et dépenses d'une commune ou d'une collectivité territoriale. 
+Il constitue à la fois un outil de prévision, de gestion et de contrôle financier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Recettes :
+Les recettes correspondent aux ressources financières dont dispose la commune pour financer ses activités et investissements. 
+Elles proviennent principalement de :
+Impôts locaux (taxe foncière, taxe d’habitation, contribution économique territoriale) ;
+Dotations et transferts de l’État (dotation globale de fonctionnement, subventions) ;
+Recettes tarifaires provenant des services publics locaux (transports, eau, cantine) ;
+Autres produits comme les droits de mutation sur les transactions immobilières, les recettes provenant du patrimoine communal, etc..​
+- Dépenses :
+Les dépenses sont les sommes engagées pour faire fonctionner la commune (section de fonctionnement) et pour réaliser des investissements (section d’investissement).
+Elles se répartissent en :
+Dépenses de fonctionnement, qui incluent les dépenses courantes comme les salaires du personnel, les charges de fonctionnement, les intérêts de la dette, les subventions aux associations, etc. ;
+Dépenses d’investissement, qui concernent l’achat ou la création d’immobilisations (réalisations d’infrastructures, achats de matériel), ainsi que le remboursement du capital des emprunts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La règle d’or budgétaire impose que les dépenses de fonctionnement soient intégralement couvertes par les recettes de fonctionnement. 
+Autrement dit: Recettes de fonctionnement ≥ Dépenses de fonctionnement
+Cette règle garantit que la commune ne finance pas ses dépenses courantes par de l’emprunt, ce qui assure une gestion financière saine et responsable. Les emprunts doivent exclusivement financer les dépenses d’investissement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La dépense de fonctionnement pour les salaires du personnel dans une collectivité territoriale représente environ 37% des dépenses de fonctionnement totales des collectivités territoriales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La masse salariale est le premier poste de dépenses des collectivités territoriales, notamment dans le bloc communal (communes et intercommunalités)
+</t>
+  </si>
+  <si>
+    <t>Comment est constitué un budget ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. La section de fonctionnement
+Elle regroupe :
+- Les dépenses courantes nécessaires au fonctionnement quotidien de la collectivité : charges de personnel, achat de fournitures, prestations, indemnités, subventions, intérêts de la dette, entretien…
+- Les recettes de fonctionnement proviennent principalement des impôts locaux (taxe foncière, taxe d'habitation), des dotations de l'État et des services payants.
+La section de fonctionnement doit toujours être équilibrée, c’est-à-dire que les recettes doivent au moins couvrir les dépenses.​
+2. La section d’investissement
+Elle comprend :
+- Les dépenses d’équipement, de construction, d’acquisition de biens durables, ainsi que le remboursement du capital de la dette.
+- Les recettes d’investissement sont composées des subventions, emprunts, ventes d’actifs ou autofinancement provenant de l’excédent de fonctionnement.
+Cette section peut être en déficit si les recettes d’investissement ne sont pas suffisantes pour couvrir les dépenses, mais l’endettement doit respecter les règles de gestion financière.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Le débat d’orientation budgétaire (DOB)
+Il s’agit d’un rapport présenté par l’exécutif local à l’assemblée délibérante.
+Il analyse la situation financière, l’environnement économique et fixe les grandes orientations pour l’année à venir.
+Il précède le vote du budget primitif et doit se tenir au moins deux mois avant celui-ci.​
+2. Le vote du budget primitif
+C’est le document fondamental qui prévoit les recettes et dépenses.
+Il doit être voté par le conseil municipal avant le 15 avril, dans le respect des principes d’équilibre entre recettes et dépenses, section de fonctionnement et section d’investissement.​
+3. La mise en œuvre et le suivi
+Après vote, le budget est exécuté par le maire, qui doit respecter l’équilibre budgétaire.
+Des décisions modificatives peuvent être prises pour ajuster le budget en cours d’année.
+À la fin de l’année, le contrôle et la validation se font à travers le compte administratif et le compte de gestion
+Principes à respecter :
+- Le budget doit respecter les principes d’annualité, d’équilibre réel, d’unité, d’universalité et de spécialité des dépenses.
+- Il doit refléter fidèlement les recettes prévisionnelles et les dépenses autorisées, garantissant la bonne gestion financière de la collectivité
+</t>
+  </si>
+  <si>
+    <t>Vous êtes encadrant dans une collectivité et plusieurs agents veulent prendre des congés en même temps, comment faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Vérification de la réglementation interne
+Consulter le règlement intérieur ou la charte des congés pour connaître les conditions de prise simultanée (délais de préavis, priorité, etc.).​
+2. Analyse de l’impact sur le service
+Évaluer l’impact de ces départs simultanés sur le fonctionnement du service : missions essentielles, effectifs minimum, continuité de service.
+Identifier les périodes critiques, dates de forte activité, ou obligations légales de permanence.​
+3. Dialogue avec les agents
+Organiser une réunion ou échanger individuellement pour expliquer la nécessité de la gestion collective des congés, en cherchant à satisfaire autant que possible leurs demandes dans le cadre de l’organisation du service.​
+4. Mise en place d’un planning
+Élaborer un calendrier de congés, en respectant l’ordre de priorité, les contraintes légales et conventionnelles, et en veillant à répartir équitablement les périodes de congé.
+Si nécessaire, limiter le nombre d’agents en congé simultanément pour assurer la continuité du service.​
+5. Prise de décision et communication
+Valider le planning avec la hiérarchie et informer formellement les agents.
+Rappeler que la priorité est la continuité du service public, tout en conciliant au maximum les demandes des agents.​
+6. Suivi et adaptation
+Réaliser un suivi régulier de la planification et ajuster si besoin en fonction des absences imprévues ou des urgences.
+En résumé
+Il s’agit d’un équilibre entre le respect des droits des agents à leurs congés et la nécessité de garantir la continuité du service, en adoptant une gestion collaborative, transparente et équitable
+</t>
+  </si>
+  <si>
+    <t>Quelle est la plus grosse dépense pour un Département ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La plus grosse dépense pour un Département en France est liée à la santé et à l’action sociale, qui représente environ 70% des dépenses de fonctionnement totales. 
+</t>
+  </si>
+  <si>
+    <t>Vous arrivez comme Ingénieur dans une commune de 10000 habitants comment vous y prenez-vous pour mettre à jour le Document Unique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pour mettre à jour le Document Unique d'Évaluation des Risques Professionnels (DUERP) dans une commune de 10 000 habitants en tant qu’ingénieur territorial, voici les étapes à suivre :
+1. Prise de connaissance du document existant
+Récupérer la dernière version du DUERP, s’assurer de son exhaustivité et de sa conformité aux normes réglementaires.
+Vérifier la date de la dernière mise à jour (la mise à jour est obligatoire au minimum une fois par an).​
+2. Identification et analyse des risques professionnels
+Réaliser un bilan des risques identifiés dans les différents services et unités de travail : chaque poste, équipement, environnement, procédure doit être examiné.
+Recueillir les remontées d’information issues du terrain, des agents, du comité social territorial (CST), et du service de prévention ou médecine du travail.​
+3. Prise en compte des évolutions
+Intégrer dans le DUERP les nouveaux risques apparus liés à la modification de l’organisation, des locaux, des matériels, des conditions de travail ou aux retours d’accidents ou d’incidents.
+Prendre en compte la législation récente et les recommandations des services spécialisés.​
+4. Actualisation formelle
+Mettre à jour le document lui-même (tableaux, fiches d’évaluation, plan d’actions).
+Notifier la date de mise à jour et décrire les modifications effectuées dans le document.
+S’assurer qu’il reste accessible aux agents et aux membres des instances représentatives du personnel.​
+5. Communication et suivi
+Informer les agents et les encadrants des évolutions du DUERP.
+Intégrer les actions de prévention décidées dans le programme annuel de prévention des risques professionnels (PAPRIPACT).
+Prévoir un calendrier de révision et un suivi des actions menées.​
+Cette démarche garantit la conformité réglementaire, la sécurité des agents et une démarche proactive de prévention dans la collectivité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+les Comités d'Hygiène, de Sécurité et des Conditions de Travail (CHSCT) dans la fonction publique territoriale ont été supprimés et remplacés par une nouvelle instance unique de dialogue social appelée Comité Social Territorial (CST)
+Les CHSCT fusionnent avec les Comités Techniques (CT) 
+</t>
+  </si>
+  <si>
+    <t>Qu'est ce qui a changé à partir du 08/12/2022 pour les CHSCT ?</t>
+  </si>
+  <si>
+    <t>Comment s'appelle la commission d'hygiène et sécurité pour les CST de plus de 300 agents ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pour un Comité Social Territorial (CST) dans une collectivité territoriale de plus de 300 agents, la commission d’hygiène et de sécurité s’appelle la Formation Spécialisée en Santé, Sécurité et Conditions de Travail (FSSCT)
+Elle est une formation spécialisée au sein du CST, dédiée aux questions de santé, sécurité et conditions de travail.
+</t>
+  </si>
+  <si>
+    <t>Quelles sont les grandes étapes d'un projet ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. L’initiation ou cadrage du projet
+Identification du besoin ou du problème à résoudre.
+Définition des objectifs, de la portée, des ressources nécessaires et des parties prenantes.
+Élaboration d’un cahier des charges ou d’une note de cadrage.
+Analyse de la faisabilité (technique, juridique, financière).​
+2. La planification
+Développement d’un plan de projet détaillé incluant les tâches, les délais, les budgets, les ressources et les risques.
+Mise en place d’une gouvernance avec les instances décisionnelles et de pilotage (comité de pilotage, comité technique).
+Organisation de l’équipe projet et définition du rôle de chacun.​
+3. La conception et développement
+Conception des solutions ou produits attendus (ex : études, prototypes, plans).
+Coordination entre les équipes techniques, les fournisseurs et les partenaires.
+Validation progressive des résultats intermédiaires, ajustement en fonction des retours.​
+4. La réalisation ou mise en œuvre
+Exécution des tâches prévues, suivi de l’avancement selon le planning.
+Gestion des ressources, résolution des problèmes rencontrés.
+Contrôle qualité pour assurer la conformité aux exigences.​
+5. Le suivi et évaluation
+Suivi continu des indicateurs de performance, des coûts, des délais et de la qualité.
+Communication régulière avec les parties prenantes.
+Réalisation de points d’étape, ajustements nécessaires.​
+6. La clôture
+Vérification finale des résultats obtenus.
+Bilan complet du projet (technique, financier, humain).
+Archivage des documents et retour d’expérience pour capitaliser sur la démarche.
+</t>
+  </si>
+  <si>
+    <t>Quel est l'organisme chargé des formations ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L’organisme chargé des formations pour les agents de la fonction publique territoriale est le Centre National de la Fonction Publique Territoriale (CNFPT)
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le CDG ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le CDG, ou Centre de Gestion de la Fonction Publique Territoriale, est un établissement public local à caractère administratif qui accompagne les collectivités territoriales, notamment les communes, dans la gestion de leurs personnels territoriaux.
+</t>
+  </si>
+  <si>
+    <t>1 mot pour qualifier un bon ingénieur territorial ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un mot qui qualifie bien un bon ingénieur territorial est rigoureux.
+Cette qualité est essentielle car l’ingénieur territorial doit traiter des dossiers complexes, respecter les normes et les réglementations, analyser les risques et assurer la conformité des projets dans un cadre souvent contraint. La rigueur permet aussi de garantir la qualité et la sécurité des infrastructures et services publics gérés.
+D’autres qualités clés sont l’esprit d’analyse, la capacité d’adaptation, la communication et le sens du service public, mais rigoureux reste un terme central pour ce métier de haute responsabilité technique et administrative
+</t>
+  </si>
+  <si>
+    <t>Un agent peut-il refuser d'aller en formation ?</t>
+  </si>
+  <si>
+    <t>Un agent n'a pas été en formation depuis 10 ans que faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un agent de la fonction publique territoriale ne peut pas refuser de suivre une formation lorsqu'elle lui est imposée par l’autorité territoriale, notamment si elle est liée à ses obligations professionnelles, à sa sécurité, ou à l’évolution des compétences nécessaires à son poste.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Si un agent n'a pas été en formation depuis 10 ans, il convient d'agir pour garantir le respect du droit à la formation professionnelle tout au long de la vie, qui est un droit fondamental des agents de la fonction publique territoriale :
+- Examiner le Plan de Formation
+Vérifier que l'agent a bien été intégré au plan de formation de la collectivité, qui doit prévoir des formations d'intégration, de professionnalisation et de perfectionnement.
+Dans le cas contraire, il faut planifier immédiatement une formation adaptée.​
+- Entretien annuel d’évaluation et de formation
+Organiser un entretien avec l’agent pour identifier ses besoins en formation, ses projets professionnels, et les compétences à développer.
+Cet entretien permet de définir des actions concrètes à inscrire au plan de formation.​
+- Prioriser la formation statutaire obligatoire
+Rappeler que les formations d’intégration (essentielles lors de la prise de poste) et les formations statutaires obligatoires doivent être suivies dans les délais réglementaires, sous peine de voir retarder sa carrière ou sa titularisation.
+Si l'agent est stagiaire, une formation d’intégration est obligatoire.​
+- Proposer un parcours de formation personnalisé
+En fonction des besoins identifiés, proposer un plan de professionnalisation tout au long de la carrière permettant de développer les compétences de l’agent.
+Valoriser aussi la reconnaissance des acquis de l’expérience (VAE) et la Validation des Expériences Professionnelles (REP).​
+- Informer sur les droits et obligations
+Informer l’agent que le refus répété de formation obligatoire peut entraîner des conséquences disciplinaires.
+Favoriser le dialogue et l’accompagnement pour lever les éventuelles résistances.
+</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -925,11 +1250,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,7 +1615,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,26 +1632,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,13 +1663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="152.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,217 +1705,243 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="229.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,260 +2468,284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="B30" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="B31" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="357" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2367,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED40F83-BD2A-4A1A-8B76-25576411D2F3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,58 +2777,58 @@
     </row>
     <row r="2" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2450,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,100 +2858,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="96" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,53 +3361,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3029,12 +3430,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3046,9 +3447,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF612FE5-7068-40B1-9B96-4C71D696B812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8D8C1-700B-4DD9-8F53-B0DCB152FA4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="2" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="5" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
   <si>
     <t>Questions</t>
   </si>
@@ -102,43 +102,10 @@
     <t>Quelles sont les règlementaiton en vigueur pour les MP ?</t>
   </si>
   <si>
-    <t>Les réglementations en vigueur pour les marchés publics (MP) en France en 2025 reposent principalement sur le Code de la commande publique, avec des dispositions actualisées par plusieurs décrets récents, notamment ceux publiés fin décembre 2024 et entrés en vigueur au 1er janvier 2025.
-Le nouveau Code de la commande publique (CCP) en France date de la fin 2018. Il a été publié au Journal Officiel le 5 décembre 2018 et est entré en vigueur le 1er avril 2019.</t>
-  </si>
-  <si>
     <t>Comment prépare-t-on un MP ?</t>
   </si>
   <si>
-    <t>Recensement et définition des besoins : analyser et préciser la nature du besoin, le périmètre, les quantités, les contraintes techniques et logistiques.​
-Choix du mode de dévolution : décider si le marché doit être alloti (lot unique ou plusieurs lots séparés).​
-Évaluation du montant du marché : estimer la valeur financière du besoin afin de déterminer la procédure applicable (procédure adaptée ou formalisée).​
-Choix de la procédure de passation : sélectionner la procédure en fonction des seuils et de la nature du marché (MAPA, appel d'offres, dialogue compétitif, etc.).​
-Rédaction des documents du marché : préparer le dossier de consultation, le règlement de consultation, le cahier des charges et les critères de sélection des candidats.​
-Publicité du marché : organiser la publicité selon les règles applicables (BOAMP, JOUE, journaux habilités, plateforme dématérialisée).​
-Anticipation de la gestion des questions et des variantes : prévoir la gestion des questions des entreprises potentiellement candidates et envisager si des variantes sont acceptées.​
-Mise à disposition des documents : transmettre les pièces, souvent de manière dématérialisée, pour permettre aux opérateurs économiques de déposer une offre dans de bonnes conditions</t>
-  </si>
-  <si>
     <t>Quels sont les documents constitutifs d'un MP ?</t>
-  </si>
-  <si>
-    <t>Règlement de la consultation (RC) ou lettre de consultation : précise les règles de la procédure, les modalités de remise des offres, la décomposition en lots, les critères de sélection et la méthode de jugement.​
-Acte d'engagement (AE) : pièce centrale du marché, il doit être signé par le titulaire retenu et formalise les engagements (prix, délais, conditions).​
-Cahier des Clauses Administratives Particulières (CCAP) : précise les aspects administratifs du marché (modalités de paiement, pénalités, délais…).​
-Cahier des Clauses Techniques Particulières (CCTP) : décrit précisément la nature et la qualité des prestations attendues.​
-Bordereau de prix (BPU/DQE/DPGF) : détaille les prix unitaires ou globaux des prestations.​
-Mémoire technique : explicite la méthodologie, les moyens humains et matériels, la prise en compte du développement durable, etc..​
-Déclarations et attestations diverses : déclare sur l’honneur que l’entreprise respecte les obligations légales et sociales, atteste des capacités financières, techniques ou professionnelles.​
-Pièces complémentaires : attestations de visite, échantillons, certificats, ou garanties exigées selon la nature du marché.</t>
-  </si>
-  <si>
-    <t>Un marché public est un contrat conclu à titre onéreux entre une personne publique (appelée « acheteur public ») et une personne publique ou privée (appelée « opérateur économique ») pour répondre à des besoins en matière de travaux, fournitures ou services
-Contrat écrit : Le marché public formalise l’accord entre les parties.
-Caractère onéreux : L’acheteur public paie un prix en échange des travaux, fournitures ou services fournis.
-Objet précis : Répondre à un besoin clairement défini, tel que des travaux de construction, l’achat de matériel ou la réalisation de prestations de services.
-Classement par type : Marchés de travaux, marchés de fournitures et marchés de services.
-Selon le montant, différentes procédures sont applicables, avec des seuils européens fixant les règles à suivre pour la publicité et la mise en concurrence.​
-Le marché public vise à garantir un usage efficace et transparent des fonds publics, en assurant la meilleure réponse au besoin de la collectivité.</t>
   </si>
   <si>
     <t>Qu'est-ce qu'un SI ?</t>
@@ -828,14 +795,6 @@
 Un cumul important d’heures de retard peut même justifier un licenciement.​
 5. Respect de la procédure disciplinaire
 Toute sanction doit respecter la procédure contradictoire, avec notification écrite, possibilité pour l’agent de se défendre et, le cas échéant, consultation du conseil de discipline.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Principes essentiels de la commande publique :
-- Liberté d’accès à la commande publique : toute entreprise ou opérateur économique doit pouvoir présenter une offre sur un marché public, sans discrimination injustifiée.​
-- Égalité de traitement des candidats : toutes les candidatures et offres doivent être examinées selon les mêmes règles et critères, sans favoritisme ou discrimination.​
-- Transparence des procédures : les conditions d’attribution du marché ainsi que l’ensemble des modalités procédurales doivent être claires, objectives, et connues à l’avance des candidats.
 </t>
   </si>
   <si>
@@ -1171,10 +1130,295 @@
 Si l'agent est stagiaire, une formation d’intégration est obligatoire.​
 - Proposer un parcours de formation personnalisé
 En fonction des besoins identifiés, proposer un plan de professionnalisation tout au long de la carrière permettant de développer les compétences de l’agent.
-Valoriser aussi la reconnaissance des acquis de l’expérience (VAE) et la Validation des Expériences Professionnelles (REP).​
 - Informer sur les droits et obligations
 Informer l’agent que le refus répété de formation obligatoire peut entraîner des conséquences disciplinaires.
 Favoriser le dialogue et l’accompagnement pour lever les éventuelles résistances.
+</t>
+  </si>
+  <si>
+    <t>Quels sont les différents grades de la filière technique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Catégorie A : Ingénieurs
+Ingénieur territorial
+Ingénieur principal territorial
+Ingénieur hors classe territorial
+- Catégorie B : Techniciens
+Technicien territorial
+Technicien principal territorial de 2ème classe
+Technicien principal territorial de 1ère classe
+- Catégorie C : Agents de maîtrise et adjoints techniques
+Agent de maîtrise territorial
+Agent de maîtrise principal territorial
+Adjoint technique territorial
+Adjoint technique principal territorial de 2ème classe
+Adjoint technique principal territorial de 1ère classe
+</t>
+  </si>
+  <si>
+    <t>Pourquoi se présenter au concours d'Ingénieur Territorial ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que sont les cadres d'emploi dans la FPT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les cadres d'emploi dans la fonction publique territoriale regroupent des agents publics soumis à un même statut particulier, ayant des missions, des conditions de recrutement, des droits et obligations, ainsi que des parcours professionnels similaires.
+Exemples : Ingénieurs Territoriaux, Adjoints techniques, Techniciens Territoriaux etc.
+Un cadre d'emploi regroupe plusieurs agents exerçant des emplois proches et soumis à des règles statutaires communes fixées par décret.
+Chaque cadre d'emploi comprend plusieurs grades, eux-mêmes subdivisés en échelons qui déterminent la progression de carrière et la rémunération.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un budget annexe ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un budget annexe est un budget spécifique, distinct du budget principal d’une collectivité territoriale, qui retrace les recettes et les dépenses liées à une activité ou un service particulier.
+Le budget annexe est voté par l’assemblée délibérante de la collectivité, mais de manière indépendante par rapport au budget principal.
+Il est généralement utilisé pour les services publics industriels et commerciaux (SPIC) comme la gestion de l’eau, de l’assainissement, des déchets, des transports urbains, ou des équipements spécifiques (piscines, campings, téléphériques).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le télétravail est généralement considéré comme intéressant pour une collectivité territoriale car :
+- Il améliore la qualité de vie au travail des agents, 
+- Il favorise la santé, 
+- Il peut générer des économies (réduction des espaces de bureau, déplacements, etc.)
+- Il contribue aussi à un meilleur équilibre vie professionnelle/vie personnelle, ce qui peut accroître la motivation et la productivité des agents
+</t>
+  </si>
+  <si>
+    <t>Le télétravail est-il intéressant pour la collectivité ?</t>
+  </si>
+  <si>
+    <t>Quel serait le nombre de jours optimum de télétravail ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La réglementation fixe un maximum de 3 jours de télétravail par semaine pour un agent à temps plein, avec un minimum de 2 jours de présence sur site.
+Ce cadre assure un bon équilibre entre travail à distance et maintien du lien social et collectif dans les services.
+Des dérogations sont possibles pour raisons de santé, handicap, grossesse ou circonstances exceptionnelles.​
+En pratique, un rythme de 2 à 3 jours par semaine est souvent considéré comme optimum, permettant aux agents de bénéficier des avantages du télétravail sans nuire à la cohésion et au bon fonctionnement du service public territorial.
+</t>
+  </si>
+  <si>
+    <t>Quelle réglementation fixe le nombre de jours de télétravail ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La réglementation qui fixe le nombre de jours de télétravail dans la fonction publique territoriale est principalement le décret n° 2016-151 du 11 février 2016
+</t>
+  </si>
+  <si>
+    <t>Les collectivités peuvent-elles avoir leur propre règle sur ce sujet du télétravail ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Oui, les collectivités territoriales ont la possibilité d’établir leurs propres règles concernant le télétravail, tant que celles-ci respectent le cadre légal national
+Les collectivités peuvent définir des modalités spécifiques adaptées à leurs besoins organisationnels et aux nécessités du service
+</t>
+  </si>
+  <si>
+    <t>Un marché public est un contrat conclu à titre onéreux entre une personne publique (appelée « acheteur public ») et une personne publique ou privée (appelée « opérateur économique ») pour répondre à des besoins en matière de travaux, fournitures ou services
+Contrat écrit : Le marché public formalise l’accord entre les parties.
+Caractère onéreux : L’acheteur public paie un prix en échange des travaux, fournitures ou services fournis.
+Objet précis : Répondre à un besoin clairement défini, tel que des travaux de construction, l’achat de matériel ou la réalisation de prestations de services.
+Classement par type : Marchés de travaux, marchés de fournitures et marchés de services.
+Selon le montant, différentes procédures sont applicables, avec des seuils européens fixant les règles à suivre pour la publicité et la mise en concurrence.​
+Le marché public vise à garantir un usage efficace et transparent des fonds publics, en assurant la meilleure réponse au besoin de la collectivité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Règlement de la consultation (RC) ou lettre de consultation : précise les règles de la procédure, les modalités de remise des offres, la décomposition en lots, les critères de sélection et la méthode de jugement.​
+- Acte d'engagement (AE) : pièce centrale du marché, il doit être signé par le titulaire retenu et formalise les engagements (prix, délais, conditions).​
+- Cahier des Clauses Administratives Particulières (CCAP) : précise les aspects administratifs du marché (modalités de paiement, pénalités, délais…).​
+- Cahier des Clauses Techniques Particulières (CCTP) : décrit précisément la nature et la qualité des prestations attendues.​
+- Bordereau de prix (BPU/DQE/DPGF) : détaille les prix unitaires ou globaux des prestations.​
+- Mémoire technique : explicite la méthodologie, les moyens humains et matériels, la prise en compte du développement durable, etc..​
+- Déclarations et attestations diverses : déclare sur l’honneur que l’entreprise respecte les obligations légales et sociales, atteste des capacités financières, techniques ou professionnelles.​
+- Pièces complémentaires : attestations de visite, échantillons, certificats, ou garanties exigées selon la nature du marché.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Recensement et définition des besoins : analyser et préciser la nature du besoin, le périmètre, les quantités, les contraintes techniques et logistiques.​
+- Choix du mode de dévolution : décider si le marché doit être alloti (lot unique ou plusieurs lots séparés).​
+- Évaluation du montant du marché : estimer la valeur financière du besoin afin de déterminer la procédure applicable (procédure adaptée ou formalisée).​
+- Choix de la procédure de passation : sélectionner la procédure en fonction des seuils et de la nature du marché (MAPA, appel d'offres, dialogue compétitif, etc.).​
+- Rédaction des documents du marché : préparer le dossier de consultation, le règlement de consultation, le cahier des charges et les critères de sélection des candidats.​
+- Publicité du marché : organiser la publicité selon les règles applicables (BOAMP, JOUE, journaux habilités, plateforme dématérialisée).​
+- Anticipation de la gestion des questions et des variantes : prévoir la gestion des questions des entreprises potentiellement candidates et envisager si des variantes sont acceptées.​
+- Mise à disposition des documents : transmettre les pièces, souvent de manière dématérialisée, pour permettre aux opérateurs économiques de déposer une offre dans de bonnes conditions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les réglementations en vigueur pour les marchés publics (MP) en France en 2025 reposent principalement sur le Code de la commande publique, avec des dispositions actualisées par plusieurs décrets récents, notamment ceux publiés fin décembre 2024 et entrés en vigueur au 1er janvier 2025.
+Le nouveau Code de la commande publique (CCP) en France date de la fin 2018. Il a été publié au Journal Officiel le 5 décembre 2018 et est entré en vigueur le 1er avril 2019.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Principes essentiels de la commande publique :
+- Liberté d’accès à la commande publique : toute entreprise ou opérateur économique doit pouvoir présenter une offre sur un marché public, sans discrimination injustifiée.​
+- Égalité de traitement des candidats : toutes les candidatures et offres doivent être examinées selon les mêmes règles et critères, sans favoritisme ou discrimination.​
+- Transparence des procédures : les conditions d’attribution du marché ainsi que l’ensemble des modalités procédurales doivent être claires, objectives, et connues à l’avance des candidats.
+</t>
+  </si>
+  <si>
+    <t>Comment évolue les seuils des Marchés Publics ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les seuils des marchés publics évoluent régulièrement, généralement tous les deux ans, pour s’adapter aux évolutions monétaires et réglementaires au niveau européen et national
+</t>
+  </si>
+  <si>
+    <t>Qui fixe les nouvelles valeurs des seuils des Marchés Publics ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les nouvelles valeurs des seuils des marchés publics sont fixées par la Commission européenne.
+Une fois fixés au niveau européen, ces seuils sont transposés dans le droit français via des arrêtés ministériels publiés au Journal Officiel.
+</t>
+  </si>
+  <si>
+    <t>Qui a la compétence d'Autorité Organisatrice des Mobilités ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La compétence d'AOM est décentralisée, principalement exercée par les EPCI à fiscalité propre de taille importante et la région, avec des possibilités de transferts et de substitution selon les dispositifs de la LOM
+</t>
+  </si>
+  <si>
+    <t>Quel est le contenu des Lignes Directrices de Gestion ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les lignes directrices de gestion (LDG) dans la fonction publique territoriale sont un document-cadre qui formalise la politique de gestion des ressources humaines d’une collectivité sur la durée d’un mandat
+- Stratégie pluriannuelle de pilotage des ressources humaines
+Définition des enjeux et des objectifs en matière de gestion prévisionnelle des emplois, des effectifs et des compétences (GPEEC).
+Analyse de la situation démographique, des métiers, des compétences et des besoins futurs.
+Orientation des politiques de recrutement, de mobilité, de formation.​
+- Promotion et valorisation des parcours professionnels
+Définition des critères, règles et procédures applicables à la promotion interne, à l’avancement de grade et à l’avancement d’échelon.
+Modalités de valorisation des parcours professionnels, des mobilités, des formations et des compétences.​
+- Dialogue social et transparence
+Élaboration en concertation avec le Comité Social Territorial (CST) ou comité technique.
+Obligation de publicité et communication aux agents.
+Document opposable aux agents, qui peuvent s’en prévaloir en cas de recours.​
+- Adaptation locale
+Les LDG sont adaptées à la taille, aux enjeux, aux politiques propres de chaque collectivité ou établissement public territorial.
+Elles doivent tenir compte des évolutions législatives, réglementaires et des politiques publiques locales
+</t>
+  </si>
+  <si>
+    <t>Un Maire peut-il délégué ses fonctions à un agent territorial ?</t>
+  </si>
+  <si>
+    <t>Comment est élu le préfet ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le Document Unique ?</t>
+  </si>
+  <si>
+    <t>Qui participe à la rédaction du Document Unique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- La délégation de fonctions au sens propre (transfert de compétences) est possible uniquement aux membres élus (adjoints, conseillers municipaux).
+Cette délégation de fonction aux élus est limitée, précise, et respecte le contrôle du maire.
+- La délégation de signature (actes matériels) est possible aux agents territoriaux selon des conditions strictes (DGS, DGA,DST)
+- Le maire ne peut jamais se dessaisir de ses fonctions régaliennes (état civil, police administrative) ni confier les fonctions complètes de maire à un agent public.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le préfet n’est pas élu par un vote populaire ni par un scrutin quelconque :
+Le préfet est un haut fonctionnaire nommé par décret du Président de la République sur proposition du Premier ministre et du ministre de l’Intérieur.
+Il appartient au corps préfectoral, composé de fonctionnaires d’État choisis parmi les administrateurs civils et d’autres corps administratifs.
+Sa nomination n’implique donc aucune élection démocratique : c’est un poste de fonctionnaire d’État placé sous l’autorité du gouvernement.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qui apparaît sur la fiche de paie d'un Ingénieur Territorial ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La fiche de paie d’un ingénieur territorial comprend plusieurs éléments spécifiques en plus des mentions obligatoires que l’on trouve sur toute fiche de paie.
+- Identification
+Nom, prénom, grade (ex : ingénieur territorial, ingénieur principal, ingénieur hors classe).
+Échelon et indice majoré qui déterminent la rémunération de base.
+- Traitement indiciaire
+Salaire de base calculé à partir de la grille indiciaire propre aux ingénieurs territoriaux (indices brut et majoré).
+Indication de la valeur du point d’indice pour le calcul du traitement brut.
+- Primes et indemnités
+Primes spécifiques à la fonction d’ingénieur territorial (prime de technicité, indemnité de sujétion, supplément familial, indemnité de résidence, GIPA…).
+Indemnités pouvant être attribuées pour particuliers cas de service (astreintes, heures supplémentaires).
+- Cotisations sociales
+Cotisations salariales et patronales détaillées (sécurité sociale, retraite, chômage, CSG, CRDS).
+- Net à payer
+Salaire net imposable et net à payer, avec dates de paiement.
+- Informations complémentaires
+Ancienneté, service d’affectation, éventuelles absences ou congés.
+Rappel des droits à congés et autres avantages.
+</t>
+  </si>
+  <si>
+    <t>Comment est calculée la paie d'un fonctionnaire Territorial ?</t>
+  </si>
+  <si>
+    <t>Quelle la valeur du point d'indice de la FT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La valeur mensuelle du point d'indice est de 4,92 euros depuis le 1er juillet 2023.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités - Cotisations sociales
+L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
+Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L’IFSE, ou Indemnité de Fonctions, de Sujétions et d’Expertise, est une indemnité principale versée mensuellement aux fonctionnaires territoriaux dans le cadre du régime indemnitaire RIFSEEP
+L’IFSE est une indemnité clé qui valorise la nature et la complexité des fonctions exercées par les agents territoriaux, tenant compte des responsabilités, compétences et contraintes liées à leur poste
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'IFSE ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le RIFSEEP ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le RIFSEEP (Régime Indemnitaire tenant compte des Fonctions, des Sujétions, de l’Expertise et de l’Engagement Professionnel) est un régime indemnitaire qui vise à simplifier et rationaliser les primes et indemnités versées aux fonctionnaires, notamment dans la fonction publique territoriale.
+Il regroupe 2 parties complémentaires :
+L’IFSE (indemnité de fonctions, de sujétions et d’expertise), qui valorise les responsabilités, l’expertise et les contraintes du poste,
+Le CIA (complément indemnitaire annuel), qui dépend de l’engagement professionnel et de la manière de servir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le Document Unique d'Évaluation des Risques Professionnels (DUERP) est un document obligatoire pour toutes les collectivités territoriales et établissements publics employant au moins un agent.
+Il répertorie de manière exhaustive tous les risques professionnels auxquels les agents sont exposés dans leurs différents lieux et postes de travail.
+Il comporte une évaluation des risques identifiés, une hiérarchisation de ces risques selon leur gravité et leur fréquence, et un plan d’actions de prévention visant à réduire ou éliminer ces risques.
+Le document est évolutif et doit être mis à jour régulièrement, notamment lors de changements importants (nouveaux services, équipements, réglementations).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le Document Unique d'Évaluation des Risques Professionnels (DUERP) est élaboré principalement par l'employeur ou le responsable de la prévention dans la collectivité, avec la participation :
+des responsables de santé et de sécurité au travail,
+des membres du comité social territorial ou du comité technique,
+des représentants du personnel,
+des agents directement concernés par les risques.
+La rédaction du DUERP est une démarche collaborative, sous la responsabilité juridique de l’employeur, impliquant tous les acteurs concernés par la sécurité et la santé au travail.
 </t>
   </si>
 </sst>
@@ -1227,7 +1471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1250,22 +1494,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1294,9 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE927FB-F99A-425F-8754-9B8DF9BAFA05}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,25 +1864,31 @@
     </row>
     <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,286 +1943,340 @@
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B34" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -2439,6 +2729,22 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,279 +2779,279 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="357" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2755,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED40F83-BD2A-4A1A-8B76-25576411D2F3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,20 +3081,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
@@ -2796,7 +3102,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
@@ -2807,28 +3113,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2840,13 +3162,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="186.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2860,18 +3182,18 @@
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" x14ac:dyDescent="0.25">
@@ -2879,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -2895,80 +3217,96 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -3343,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,62 +3701,67 @@
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3449,10 +3792,10 @@
     </row>
     <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8D8C1-700B-4DD9-8F53-B0DCB152FA4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B15436-651A-4307-9234-0C85DC020631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="5" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="2" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="253">
   <si>
     <t>Questions</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Quelles sont les grandes catégories de SI, selon le type d'application ?</t>
-  </si>
-  <si>
-    <t>Pourquoi souhaitez-vous rejoindre la fonction publique territoriale ?</t>
   </si>
   <si>
     <t>Comment gèreriez-vous un conflit entre agents et élus ?</t>
@@ -420,14 +417,6 @@
 Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
 Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- L’enquête préalable : menée par l’autorité hiérarchique ou un organisme désigné, pour rassembler les preuves.
-- Notification à l’agent : il doit être informé par écrit des faits qui lui sont reprochés et de la sanction envisagée.
-- Entretien préalable : l’agent peut s’exprimer avant toute décision.
-- Décision : l’autorité compétente (maire, président de l’EPCI) statue après examen du dossier. La décision doit être motivée et notifiée par écrit.
-- Recours : l’agent peut saisir la commission administrative paritaire ou saisir le tribunal administratif si la sanction lui paraît injustifiée ou abusive.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1420,6 +1409,134 @@
 des agents directement concernés par les risques.
 La rédaction du DUERP est une démarche collaborative, sous la responsabilité juridique de l’employeur, impliquant tous les acteurs concernés par la sécurité et la santé au travail.
 </t>
+  </si>
+  <si>
+    <t>Pourquoi avez-vous rejoint la fonction publique territoriale ?</t>
+  </si>
+  <si>
+    <t>Vous avez un projet qui coûte plus cher que prévu, comment faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Analyser les causes du dépassement
+Identifier précisément les raisons de l’augmentation des coûts (hausse des prix, difficultés techniques, erreurs de prévision, etc.).
+Évaluer l’impact financier global et la marge de manœuvre restante dans le budget primitif.
+2. Informer les autorités compétentes
+Informer le maire, le président de l’exécutif, et l’assemblée délibérante (conseil municipal, conseil communautaire) de la situation.
+Consulter le comptable public pour étude de la faisabilité financière.
+3. Rechercher des solutions financières
+Budget supplémentaire : préparation d’un budget supplémentaire ou modification du budget primitif pour augmenter les crédits disponibles.
+Réallocation interne : arbitrage sur d’autres postes budgétaires pour dégager des marges.
+Recherche de financements externes : subventions, aides, emprunts complémentaires.
+4. Adapter la gestion du projet
+Révision du périmètre ou du calendrier du projet pour limiter les surcoûts.
+Négociation avec les fournisseurs ou prestataires pour réduire les dépenses supplémentaires.
+Mise en place d’un suivi rigoureux pour éviter d’autres dépassements.
+5. Procédures obligatoires
+En cas de dépassement significatif et non prévu, un nouveau vote budgétaire est nécessaire pour valider les crédits supplémentaires.
+La chambre régionale des comptes peut être saisie en cas de déséquilibre budgétaire important.
+</t>
+  </si>
+  <si>
+    <t>Vous êtes promu sur votre poste et votre collègue souhaitait votre place, cela ne se passe pas bien, que faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Rester professionnel et respectueux
+Garder une attitude calme et respectueuse malgré les difficultés relationnelles.
+Éviter les conflits ouverts ou les comportements qui pourraient nuire à l’ambiance de travail.
+2. Dialoguer pour apaiser
+Proposer un échange en privé avec le collègue pour écouter ses ressentis et expliquer votre position.
+Chercher à comprendre ses attentes et frustrations pour éviter les malentendus.
+3. Impliquer la hiérarchie ou un tiers si nécessaire
+Si le conflit perdure, solliciter l’aide d’un supérieur hiérarchique ou d’un médiateur interne (par exemple, au sein du comité social territorial ou via le centre de gestion).
+La médiation peut faciliter un accord ou une meilleure cohabitation.
+4. Focus sur l’intérêt collectif et l’engagement
+Rappeler l’importance du travail d’équipe et de l’intérêt de la collectivité.
+Montrer votre volonté de collaborer positivement malgré les différends.
+5. Adopter une posture de gestion des conflits
+Utiliser des outils de gestion des conflits : écoute active, reformulation, proposition de solutions équilibrées.
+Proposer des aménagements pour éviter les situations tendues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- L’enquête préalable : menée par l’autorité hiérarchique ou un organisme désigné, pour rassembler les preuves.
+- Notification à l’agent : il doit être informé par écrit des faits qui lui sont reprochés et de la sanction envisagée.
+- Entretien préalable : l’agent peut s’exprimer avant toute décision.
+- Décision : l’autorité compétente (maire, président de l’EPCI) statue après examen du dossier. La décision doit être motivée et notifiée par écrit.
+- Recours : l’agent peut saisir la commission administrative paritaire ou saisir le tribunal administratif si la sanction lui paraît injustifiée ou abusive.
+</t>
+  </si>
+  <si>
+    <t>Comment déléguez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La délégation est un acte de management qui consiste à confier à un collaborateur une partie de ses responsabilités tout en conservant la responsabilité globale.
+Comment déléguer ?
+- Identifier les tâches à déléguer : activités répétitives, opérationnelles, ou qui peuvent être réalisées par un collaborateur compétent.
+- Choisir la bonne personne : suivant ses compétences, son expérience, sa charge de travail et son intérêt pour la mission.
+- Donner des objectifs clairs : définir précisément les résultats attendus, les délais, les moyens mis à disposition.
+- Assurer le suivi et le soutien : accompagner, guider et être disponible, tout en laissant de l’autonomie.
+- Encourager la responsabilité : responsabiliser la personne déléguée pour favoriser son implication et sa montée en compétence.
+</t>
+  </si>
+  <si>
+    <t>Vous êtes manager et lun de vos agents est invité au restaurant, que faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dans une collectivité territoriale, si un agent est invité au restaurant par un tiers, le manager doit faire preuve de vigilance en raison des règles déontologiques et des risques liés à la fonction publique territoriale.
+- Le manager doit s'assurer que l'agent respecte ces principes déontologiques, notamment en lui rappelant les règles et la nécessité d'informer la hiérarchie.
+- Le manager peut aussi avoir à valider formellement une invitation si elle s'inscrit dans le cadre d'une mission officielle.
+- En cas de doute ou si l'invitation ne relève pas d'une mission publique, le manager doit conseiller l'agent à refuser l'invitation afin de préserver la probité et l'image de la collectivité.
+</t>
+  </si>
+  <si>
+    <t>La loi NOTRE a redistribué les compétences, est-ce suffisant ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La loi NOTRe (Nouvelle Organisation Territoriale de la République) a largement redéfini et redistribué les compétences entre collectivités territoriales pour clarifier l'organisation territoriale, renforcer les régions et intercommunalités, et simplifier l'action publique. Cependant, cette redistribution n'est pas toujours jugée suffisante.
+Les limites et critiques :
+- Malgré ces avancées, la loi NOTRe est critiquée pour des chevauchements et enchevêtrements de compétences complexes à gérer, notamment en milieu rural où le transfert complet des compétences n'est pas toujours réalisé.
+- L'articulation des compétences reste problématique entre régions, départements, communes et EPCI, ce qui peut entraîner des conflits et de la confusion.
+Certains rapports pointent une diminution de l'influence des maires et une certaine rigidité dans la théorie des blocs de compétences qui ne s'adapte pas toujours bien aux réalités territoriales.
+- Il est reconnu que la loi a amélioré la structuration, mais pas assez pour répondre aux défis concrets d'efficacité et de coordination locale.
+</t>
+  </si>
+  <si>
+    <t>Si demain les départements étaient supprimés, comment seraient réparties les compétences ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+En cas de disparition des départements, la majorité des compétences de ces derniers serait transférée aux régions et aux communes/EPCI. Toutefois, ce transfert doit être accompagné d’une réflexion approfondie sur l’adaptation organisationnelle, le financement, et la continuité des services aux citoyens.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la décentralisation ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La décentralisation est un processus par lequel l'État transfère certaines compétences administratives et pouvoirs de décision aux collectivités territoriales, distinctes juridiquement et politiquement de l'État central. En France, cela signifie notamment que les régions, départements, communes et leurs groupements (EPCI) disposent d'une autonomie juridique, financière et organique pour gérer les affaires relevant de leur territoire.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la déconcentration ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La déconcentration est un mode d'organisation administrative par lequel l'État unitaire transfère certaines compétences et pouvoirs de décision à des autorités administratives locales qui lui sont subordonnées, comme les préfets, recteurs ou directeurs de services régionaux ou départementaux. Ces autorités déconcentrées représentent l'État sur le territoire et exercent localement des missions définies par l'administration centrale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+la déconcentration est une délégation interne de pouvoirs de l'État vers ses services locaux, distincte de la décentralisation qui transfère des compétences à des collectivités territoriales autonomes
+</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre décentralisation et déconcentration ?</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1962,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,29 +1981,29 @@
     </row>
     <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6"/>
     </row>
@@ -1897,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +2050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1943,360 +2060,380 @@
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -2745,6 +2882,10 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2754,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,279 +2920,303 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="357" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>188</v>
+    </row>
+    <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3063,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED40F83-BD2A-4A1A-8B76-25576411D2F3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,15 +3251,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
@@ -3102,10 +3267,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3283,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
@@ -3126,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.25">
@@ -3134,23 +3299,23 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3185,7 +3350,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3193,7 +3358,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84" x14ac:dyDescent="0.25">
@@ -3201,7 +3366,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3217,95 +3382,95 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,10 +3844,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,66 +3866,74 @@
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3792,10 +3965,10 @@
     </row>
     <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B15436-651A-4307-9234-0C85DC020631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1E023-6B36-4047-A787-138FE035BB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="2" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="330">
   <si>
     <t>Questions</t>
   </si>
@@ -76,10 +76,6 @@
     <t>Qu'est-ce que le RGPD ?</t>
   </si>
   <si>
-    <t>Le RGPD (Règlement Général sur la Protection des Données) est une réglementation européenne, entrée en vigueur en mai 2018.
-Il vise à protéger les données personnelles des citoyens de l’Union européenne et à garantir leur confidentialité.</t>
-  </si>
-  <si>
     <t>Qu'est-ce qu'un DPO ?</t>
   </si>
   <si>
@@ -90,16 +86,6 @@
   </si>
   <si>
     <t>Qu'est-ce qu'un pouvoir adjudicateur ?</t>
-  </si>
-  <si>
-    <t>Un pouvoir adjudicateur est une personne morale, de droit public ou privé, qui a la compétence pour passer des marchés publics ou des contrats de concession en appliquant les règles de publicité et de mise en concurrence prévues par le Code de la commande publique.
-Exemples de pouvoirs adjudicateurs
-L’État, les ministères, les collectivités territoriales (communes, départements, régions) et leurs établissements publics.​
-Les organismes de droit privé remplissant des missions d’intérêt général, financés ou contrôlés par des entités publiques.​
-Certaines banques publiques ou autres entités dotées de la personnalité juridique dans le cadre d’activités spécifiques.​</t>
-  </si>
-  <si>
-    <t>Quelles sont les règlementaiton en vigueur pour les MP ?</t>
   </si>
   <si>
     <t>Comment prépare-t-on un MP ?</t>
@@ -409,16 +395,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Les différentes santions sont :
-- Avertissement, blâme, exclusion 1-3 jours
-- Radiation, abaissement d’échelon, exclusion 4-15 jours
-- Rétrogradation, exclusion 16 jours à 2 ans
-- Mise à la retraite, révocation
-Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
-Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Le Tribunal Administratif (TA) est une juridiction de première instance de l'ordre administratif en France. 
 Il juge les litiges qui opposent les particuliers, les agents publics, ou les collectivités territoriales à l'administration ou à toute autre personne publique.
@@ -734,23 +710,6 @@
     <t xml:space="preserve"> 
 Je rappelle objectivement les critères d’intérêt général et de légalité.
 Si la pression persiste, je sollicite un arbitrage formel par écrit et je m’appuie sur le code de déontologie pour protéger ma responsabilité professionnelle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Assurer la sécurité immédiate :
-Protéger l’agent, ses collègues et le public en l’éloignant de tout poste à risque. Si besoin, organiser son accompagnement hors du site (par exemple, appel d’un proche), ne jamais laisser l’agent seul si son état paraît dégradé.​
-- Observer et recueillir des éléments objectifs :
-Noter les signes constatés (comportement, odorat, incohérences…). Il est possible de proposer un test d’alcoolémie si le règlement intérieur le prévoit et si l’agent occupe un poste à risque. Le test doit être pratiqué par une personne autorisée et l’agent peut être assisté par un témoin.​
-- Entretien avec l’agent :
-Organiser un échange avec l’agent pour expliquer les observations, l’écouter, rappeler les règles de sécurité et responsabilités, et l’informer des risques (notamment disciplinaire). Fixer un cadre clair et, si possible, proposer un accompagnement (médecin, association).​
-- Rédiger un rapport :
-Consigner par écrit les faits, les observations, les entretiens et mesures prises, pour assurer la traçabilité et la transparence de la démarche.​
-- Prendre les mesures administratives :
-Si l’agent est absent ou éloigné pour cause d’ébriété, la rémunération peut être suspendue pour absence de service fait. Des sanctions disciplinaires peuvent être envisagées en cas de récidive ou faute grave, toujours dans le respect de la procédure disciplinaire.​
-- Suivi et prévention :
-Proposer un suivi médical ou social, engager une démarche de prévention et d’aide à l’agent, tout en maintenant la sécurité et l’ordre dans le service.
-Surtout ne jamais restée seule dans cette situaiton (hiérarchie) !
 </t>
   </si>
   <si>
@@ -784,21 +743,6 @@
 Un cumul important d’heures de retard peut même justifier un licenciement.​
 5. Respect de la procédure disciplinaire
 Toute sanction doit respecter la procédure contradictoire, avec notification écrite, possibilité pour l’agent de se défendre et, le cas échéant, consultation du conseil de discipline.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Fournitures et services :
-&lt; 40 000 € : procédure négociée, publicité non obligatoire
-40 000 € - 221 000 €  (collectivités) / 143 000 € (État) / 443 000 € (autres) € : Marché à Procédure Adaptée (MAPA) / Appel d’offres, dialogue compétitif /  Publicité adaptée : BOAMP, journaux habilités (Shal)
-&gt; 221 000 € : procédure formalisée stricte / publicité obligatoire : BOAMP + JOUE
-- Travaux :
-&lt; 100 000 € : publicité non obligatoire / ou publicité adaptée
-&lt; 5 538 000 € : MAPA avec publicité proportionnée / publication BOAMP et/ou JAL
-&gt; 5 538 000 € : procédure formaliséestricte /  BOAMP + JOUE
-BOAMP (Bulletin Officiel des Annonces des Marchés Publics)
-JAL (Journal d’Annonces Légales)
-JOUE (Journal Officiel de l'Union Européénne)
 </t>
   </si>
   <si>
@@ -1209,15 +1153,6 @@
 </t>
   </si>
   <si>
-    <t>Un marché public est un contrat conclu à titre onéreux entre une personne publique (appelée « acheteur public ») et une personne publique ou privée (appelée « opérateur économique ») pour répondre à des besoins en matière de travaux, fournitures ou services
-Contrat écrit : Le marché public formalise l’accord entre les parties.
-Caractère onéreux : L’acheteur public paie un prix en échange des travaux, fournitures ou services fournis.
-Objet précis : Répondre à un besoin clairement défini, tel que des travaux de construction, l’achat de matériel ou la réalisation de prestations de services.
-Classement par type : Marchés de travaux, marchés de fournitures et marchés de services.
-Selon le montant, différentes procédures sont applicables, avec des seuils européens fixant les règles à suivre pour la publicité et la mise en concurrence.​
-Le marché public vise à garantir un usage efficace et transparent des fonds publics, en assurant la meilleure réponse au besoin de la collectivité.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 - Règlement de la consultation (RC) ou lettre de consultation : précise les règles de la procédure, les modalités de remise des offres, la décomposition en lots, les critères de sélection et la méthode de jugement.​
 - Acte d'engagement (AE) : pièce centrale du marché, il doit être signé par le titulaire retenu et formalise les engagements (prix, délais, conditions).​
@@ -1483,18 +1418,12 @@
 </t>
   </si>
   <si>
-    <t>Vous êtes manager et lun de vos agents est invité au restaurant, que faites-vous ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Dans une collectivité territoriale, si un agent est invité au restaurant par un tiers, le manager doit faire preuve de vigilance en raison des règles déontologiques et des risques liés à la fonction publique territoriale.
 - Le manager doit s'assurer que l'agent respecte ces principes déontologiques, notamment en lui rappelant les règles et la nécessité d'informer la hiérarchie.
 - Le manager peut aussi avoir à valider formellement une invitation si elle s'inscrit dans le cadre d'une mission officielle.
 - En cas de doute ou si l'invitation ne relève pas d'une mission publique, le manager doit conseiller l'agent à refuser l'invitation afin de préserver la probité et l'image de la collectivité.
 </t>
-  </si>
-  <si>
-    <t>La loi NOTRE a redistribué les compétences, est-ce suffisant ?</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1538,12 +1467,629 @@
   <si>
     <t>Quelle est la différence entre décentralisation et déconcentration ?</t>
   </si>
+  <si>
+    <t>Combien de communes y a-t-il en France ?</t>
+  </si>
+  <si>
+    <t>Combien de départements y a-t-il en France ?</t>
+  </si>
+  <si>
+    <t>Combien de régions y a-t-il en France ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total : ≈ 34 955
+Métropole: ≈ 34 839
+Outre-mer : 116
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total : 101
+Métropole: 96
+Outre-mer DROM : 5  (Guadeloupe, Martinique, Guyane, La Réunion, Mayotte) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total : 18
+Métropole: 13
+Outre-mer DROM : 5 (Guadeloupe, Martinique, Guyane, La Réunion, Mayotte)
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un EPCI ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Etablissements publics de coopération intercommunale, on distingue : 
+- EPCI à fiscalité propre : 
+Communauté de communes : &gt; 15 000 habitants (CC du Pays de Lourdes)
+Communauté d’agglomération : &gt; 50 000 habitants (Grand Angoulême)
+Communauté urbaine : &gt; 250 000 habitants (Bordeaux Métropole)
+Métropole : &gt; 400 000 habitants (Métropole de Lyon)
+- EPCI sans fiscalité propre : 
+Syndicat intercommunal à vocation unique (SIVU)
+Syndicat intercommunal à vocations multiples (SIVOM)
+Syndicat mixte (regroupant communes et autres partenaires publics)
+</t>
+  </si>
+  <si>
+    <t>La loi NOTRe a redistribué les compétences, est-ce suffisant ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les compétences des EPCI à fiscalité propre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Collecte et traitement des déchets
+- Gestion de l’eau et assainissement
+- Voirie d’intérêt communautaire
+- Aménagement de zones d’activité économique
+- Plan urbanisme intercommunal (PLUi)
+- Transport urbain, mobilités
+- Habitat, logement social
+</t>
+  </si>
+  <si>
+    <t>Quelles sont les compétences des EPCI sans fiscalité propre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Gestion d’un service technique ou d’utilité spécifique
+- Eau, assainissement, électricité, piscines intercommunales
+- Transports scolaires
+- Syndicat d’énergie, SIVU/SIVOM, syndicat mixte
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Assurer la sécurité immédiate :
+Protéger l’agent, ses collègues et le public en l’éloignant de tout poste à risque. Si besoin, organiser son accompagnement hors du site (par exemple, appel d’un proche), ne jamais laisser l’agent seul si son état paraît dégradé.​
+- Observer et recueillir des éléments objectifs :
+Noter les signes constatés (comportement, odorat, incohérences…). Il est possible de proposer un test d’alcoolémie si le règlement intérieur le prévoit et si l’agent occupe un poste à risque. Le test doit être pratiqué par une personne autorisée et l’agent peut être assisté par un témoin.​
+- Entretien avec l’agent :
+Organiser un échange avec l’agent pour expliquer les observations, l’écouter, rappeler les règles de sécurité et responsabilités, et l’informer des risques (notamment disciplinaire). Fixer un cadre clair et, si possible, proposer un accompagnement (médecin, association).​
+- Rédiger un rapport :
+Consigner par écrit les faits, les observations, les entretiens et mesures prises, pour assurer la traçabilité et la transparence de la démarche.​
+- Prendre les mesures administratives :
+Si l’agent est absent ou éloigné pour cause d’ébriété, la rémunération peut être suspendue pour absence de service fait. Des sanctions disciplinaires peuvent être envisagées en cas de récidive ou faute grave, toujours dans le respect de la procédure disciplinaire.​
+- Suivi et prévention :
+Proposer un suivi médical ou social, engager une démarche de prévention et d’aide à l’agent, tout en maintenant la sécurité et l’ordre dans le service.
+Surtout ne jamais restée seule dans cette situation (hiérarchie) !
+</t>
+  </si>
+  <si>
+    <t>Vous êtes manager et l'un de vos agents est invité au restaurant, que faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les différentes sanctions sont :
+- Avertissement, blâme, exclusion 1-3 jours
+- Radiation, abaissement d’échelon, exclusion 4-15 jours
+- Rétrogradation, exclusion 16 jours à 2 ans
+- Mise à la retraite, révocation
+Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
+Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
+</t>
+  </si>
+  <si>
+    <t>Quelles sont les règlementations en vigueur pour les MP ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Fournitures et services :
+&lt; 40 000 € : procédure négociée, publicité non obligatoire
+40 000 € - 221 000 €  (collectivités) / 143 000 € (État) / 443 000 € (autres) € : Marché à Procédure Adaptée (MAPA) / Appel d’offres, dialogue compétitif /  Publicité adaptée : BOAMP, journaux habilités (Shal)
+&gt; 221 000 € : procédure formalisée stricte / publicité obligatoire : BOAMP + JOUE
+- Travaux :
+&lt; 100 000 € : publicité non obligatoire / ou publicité adaptée
+&lt; 5 538 000 € : MAPA avec publicité proportionnée / publication BOAMP et/ou JAL
+&gt; 5 538 000 € : procédure formaliséestricte /  BOAMP + JOUE
+BOAMP (Bulletin Officiel des Annonces des Marchés Publics)
+JAL (Journal d’Annonces Légales)
+JOUE (Journal Officiel de l'Union Européenne)
+</t>
+  </si>
+  <si>
+    <t>Comment trouver des subventions pour un projet dans une collectivité Territoriale ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Identifier les dispositifs existants
+L’État propose des dotations comme la DETR (Dotation d’Équipement des Territoires Ruraux), DSIL (Dotation de Soutien à l’Investissement Local) ou DSID (Dotation de Soutien à l’Investissement Départemental).
+Les régions et départements ont aussi leurs propres aides et contrats territoriaux.
+L’Union européenne propose des fonds comme le FEDER, FSE+, FEADER, ciblant notamment la transition énergétique, le numérique et la cohésion territoriale.
+Des agences spécialisées (ADEME, Agence Nationale du Sport, ANAH, etc.) octroient des aides selon les domaines.
+2. Procéder à une veille active
+Utiliser des portails comme « Aides-territoires » qui centralisent les appels à projets et subventions.
+Vérifier régulièrement les sites des collectivités, ministères et structures spécialisées.
+3. Vérifier l’éligibilité du projet
+S’assurer que la collectivité bénéficiaire et le type de projet correspondent aux critères (zone géographique, nature du projet, objectifs environnementaux, sociaux, etc.).
+Respecter règles de cumul et plafonds des aides.
+4. Monter un dossier rigoureux
+Fournir des études, indicateurs, chiffrages précis et planifier les échéances.
+Démontrer l’intérêt général, l’impact social/environnemental et la faisabilité.
+5. Suivi et coordination
+Assurer la gestion administrative, la communication avec l’organisme financeur et le suivi des indicateurs.
+Mettre en place un plan de cofinancement équilibré (financements complémentaires).
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'AP/CP ? Comment s'articulent-ils entre eux ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Articulation AP / CP :
+AP (Autorisation de Programme) : C’est la limite maximale d’engagement des dépenses sur un programme d’investissement. Elle fixe un plafond global, souvent pluriannuel, pour autoriser la collectivité à engager juridiquement un projet ou un ensemble de projets. L’AP ne constitue pas une dépense immédiate mais une enveloppe d’engagement.
+CP (Crédit de Paiement) : Ce sont les crédits effectivement disponibles pour couvrir les dépenses de paiement de l’investissement chaque année budgétaire. Ils correspondent aux sommes que la collectivité peut dépenser réellement sur l’exercice.
+- Mise en œuvre pratique
+Lors du vote du budget pluriannuel, la collectivité fixe les AP pour chaque programme. Cela lui permet de s’engager sur la totalité du montant du projet, même si les dépenses seront étalées dans le temps.
+Chaque année, le budget annuel ouvre les CP, qui doivent être inférieurs ou égaux à l’AP restante disponible, ce qui évite de dépenser au-delà de l’enveloppe vote.
+La consommation des CP peut s’étaler sur plusieurs années jusqu’à épuisement de l’AP.
+Si des équipements ou investissements sont réalisés sur plusieurs années, le différé entre AP et CP permet une gestion plus souple et réaliste des crédits.
+Si besoin, l’AP peut être révisée ou annulée selon les décisions de la collectivité.
+</t>
+  </si>
+  <si>
+    <t>Votre responsable vous donne une consigne, l'élu vous en donne une qui va à l'encontre de la première, que faites-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Rappel du cadre légal et hiérarchique :
+Dans la fonction territoriale, vous êtes soumis au principe de responsabilité hiérarchique. En principe, les consignes du responsable hiérarchique (votre supérieur) doivent être suivies, sauf si elles sont illégales ou contraires à l’intérêt général.
+2. Dialogue et clarification :
+Informez immédiatement votre responsable hiérarchique de la consigne contraire donnée par l’élu.
+N’exécutez pas la consigne contradictoire sans en avoir discuté, afin d’éviter un éventuel manquement professionnel.
+Cherchez à clarifier la situation avec le responsable et, si possible, avec l’élu, pour trouver une solution concertée.
+3. Respect des obligations déontologiques :
+Votre devoir est de respecter les règles de déontologie, notamment le principe de neutralité et d’obéissance hiérarchique dans le cadre légal. Agir sans clarification peut vous mettre en cause sur le plan disciplinaire.
+4. Cas spécifique des élus :
+Les élus ne sont pas vos supérieurs hiérarchiques directs, mais ils détiennent un mandat démocratique et des pouvoirs politiques.
+Il est important de respecter leurs demandes tout en les signalant à votre hiérarchie.
+En cas de conflit persistant, la responsabilité de trancher revient souvent aux autorités administratives supérieures (préfet, DGCL).
+5. Documenter et signaler :
+Tenez un écrit (courriel, note) qui relate les consignes reçues et votre démarche de clarification. Cela protège votre situation en cas de litige.
+Il faut éviter d’exécuter une consigne conflictuelle sans accord clair. Préférez la transparence, l’information de votre hiérarchie et la recherche d’une résolution respectueuse du cadre légal et des rôles. Cette approche protège à la fois la collectivité, l’élu et vous-même en tant que fonctionnaire.
+Cette recommandation s’appuie sur les principes généraux du statut de la fonction publique territoriale et les bonnes pratiques de gestion des relations entre agents et élus locaux.
+</t>
+  </si>
+  <si>
+    <t>Avec quels élus êtes-vous en lien pour la construction d'un collège ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Le Président du Conseil départemental : décisionnaire majeur, il valide les projets, les budgets et les orientations stratégiques liées à la construction et à l’équipement des collèges.
+- Les conseillers départementaux : élus représentants les cantons, ils sont impliqués dans la définition des besoins, la validation des projets et le vote des budgets.
+- L’élu en charge des collèges, de l'éducation ou des infrastructures : il pilote souvent la politique liée aux établissements scolaires et suit les projets de construction.
+- Les élus municipaux concernés : puisque le collège se situe sur un territoire communal, les maires ou élus locaux sont associés à la concertation locale, particulièrement pour l’emplacement, accès et intégration dans le tissu urbain.
+- Les représentants des commissions ou comités techniques départementaux : dans lesquels siègent parfois des élus spécialisés contribuant à l’expertise et au suivi des projets.
+Par ailleurs, vous devez aussi coordonner des échanges avec les services de l’Éducation nationale (DASEN, rectorat) pour assurer la cohérence pédagogique et administrative.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la maîtrise d'œuvre dans le domaine informatique d'une collectivité territoriale ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la maîtrise d'ouvrage dans le domaine informatique d'une collectivité territoriale ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La maîtrise d'œuvre (MOE) désigne l’ensemble des missions techniques et de gestion liées à la conception, la réalisation, la coordination et le déploiement effectif des systèmes d’information et solutions numériques.
+Les acteurs possibles en maîtrise d'œuvre (MOE) dans le domaine informatique d’une collectivité territoriale sont :
+Le chef de projet MOE : responsable du pilotage technique du projet, coordonne les équipes, planifie et suit l’avancement.
+L’architecte technique : conçoit l’architecture du système d’information, les solutions matérielles et logicielles.
+Les ingénieurs et techniciens informatiques : développent les applications, paramètrent les systèmes, font les tests techniques.
+Les prestataires externes et sous-traitants : sociétés spécialisées engagées pour des compétences spécifiques (développement, infrastructure, sécurité).
+Le contrôleur qualité : vérifie la conformité des livrables techniques au cahier des charges.
+Le coordinateur sécurité informatique : garantit la mise en œuvre des règles de sécurité, de confidentialité et de protection des données.
+Le responsable de la recette technique : organise les tests et la validation technique des solutions mises en production.
+Les équipes de support informatique : participent à la maintenance et la gestion post-déploiement.
+La MOA exprime le « quoi faire » (besoin métier et fonctionnel).
+La MOE traduit cela en « comment faire » techniquement (architecture, développement, déploiement).
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le droit d'auteur ?</t>
+  </si>
+  <si>
+    <t>Qu'est ce que la propriété intellectuelle ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La maîtrise d'ouvrage (MOA) représente l'ensemble des activités et responsabilités liées à la définition, au pilotage et à la supervision globale d’un projet informatique.
+Acteurs possibles en MOA :
+Agents de la collectivité, chefs de projet SI, directions métiers, élus responsables.
+Maîtrise d’ouvrage stratégique (MOS), maîtrise d’ouvrage déléguée (MOD).
+Assistant à maîtrise d’ouvrage (AMOA) qui accompagne la MOA dans ses missions.
+La MOA exprime le « quoi faire » (besoin métier et fonctionnel).
+La MOE traduit cela en « comment faire » techniquement (architecture, développement, déploiement).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le droit d’auteur est l’ensemble des droits dont dispose un créateur sur ses œuvres originales, qu’elles soient littéraires, artistiques, musicales, audiovisuelles, informatiques (logiciels), ou autres créations intellectuelles (logiciels, bases de données etc.)
+Le droit d’auteur est une protection juridique essentielle pour la créativité intellectuelle, encadrant la manière dont une œuvre peut être utilisée, diffusée, et rémunérée.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La propriété intellectuelle (PI) regroupe l’ensemble des droits accordés sur les créations de l’esprit afin d’en protéger la paternité, l’intégrité et l’exploitation économique. Elle couvre aussi bien les œuvres artistiques et littéraires que les innovations techniques et les signes distinctifs utilisés dans le commerce.
+En résumé, la PI est un cadre juridique qui protège et valorise les créations et innovations, en conciliant les intérêts des auteurs/inventeurs avec l’intérêt général
+</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre logiciel, progiciel et applicatif ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un ERP ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un ERP, ou Enterprise Resource Planning (en français, Progiciel de Gestion Intégré - PGI), est un logiciel de gestion conçu pour centraliser et automatiser les processus métiers d’une organisation. Il intègre plusieurs modules fonctionnels qui couvrent différents domaines clés : gestion des ressources humaines, comptabilité, gestion des stocks, production, ventes, achats, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Logiciel : Programme informatique pour exécuter une fonction (Traitement de texte)
+Progiciel : Logiciel professionnel standardisé, multi-modules, commercialisé (ERP, suite comptable)
+Applicatif : Logiciel destiné à une fonction ou application particulière (Application mobile de commandes)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le RGPD (Règlement Général sur la Protection des Données) est une réglementation européenne, entrée en vigueur en mai 2018.
+Il vise à protéger les données personnelles des citoyens de l’Union européenne et à garantir leur confidentialité.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un PRA ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un PCA ?</t>
+  </si>
+  <si>
+    <t>Décrire l'informatique au service de l'usager/citoyen</t>
+  </si>
+  <si>
+    <t>Expliquer ce qu'est un internet, intranet et extranet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décrire l'informatique individuelle, collaborative/coopérative </t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'aide à la décision au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Qu'est ce qu'un réseau au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'une architecture au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les langages les plus connus au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Quels sont les systèmes de gestion de bases de données les plus connus au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Comment assure-t-on la sécurité de l'information au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Comment assure-t-on la sécurité des systèmes au sein d'un SI ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un Budget Supplémentaire (BS) ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'une Décision Modificative (DM) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Une DM (Décision Modificative) est un acte budgétaire voté par l'assemblée délibérante d'une collectivité territoriale (conseil municipal, départemental, régional) qui modifie ponctuellement les autorisations budgétaires inscrites dans le budget primitif.
+Caractéristiques principales d'une Décision Modificative (DM) :
+Elle permet d’intégrer des dépenses ou recettes nouvelles ou de supprimer des crédits initialement prévus.
+Elle peut intervenir à tout moment après le vote du budget primitif, jusqu’à la fin de l’exercice.
+Contrairement au budget supplémentaire (BS), une DM ne permet pas de reporter les résultats de l’exercice précédent.
+Elle doit respecter les règles d’équilibre budgétaire et de sincérité.
+Elle est soumise à un vote spécifique et à transmission obligatoire au représentant de l’État (préfet).
+Elle peut concerner une ou plusieurs sections ou chapitres du budget
+Exemple : 
+Lorsqu’un Conseil municipal constate en cours d’année qu’un certain poste de dépense est insuffisamment doté dans le budget primitif, tout en ayant des crédits excédentaires sur un autre poste, il peut voter une décision modificative pour réaffecter des crédits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C’est un document budgétaire adopté en cours d’année pour ajuster, modifier et compléter le budget primitif initial.
+Fonctions principales du Budget Supplémentaire (BS) :
+Permettre à la collectivité de corriger les prévisions faites dans le budget primitif lorsque des dépenses ou recettes non prévues surviennent.
+Intégrer les résultats de l’exercice précédent (excédents ou déficits) qui n’étaient pas connus au moment du vote du budget primitif.
+Adapter le budget pour tenir compte des évolutions économiques, juridiques ou politiques survenues après l’adoption du budget initial.
+Mode d’élaboration et de vote :
+Le BS reprend la structure du budget primitif (section fonctionnement, section investissement) et doit être voté en équilibre.
+Il est généralement voté après le compte administratif, souvent en fin d’année (vers octobre ou novembre).
+Comme pour le budget primitif, le BS doit être adopté par une délibération de l’organe délibérant (conseil municipal, conseil départemental, etc.).
+Le BS doit être transmis au représentant de l’État (préfet) pour contrôle.
+Exemple :
+En fin d’exercice, après vote du compte administratif, la collectivité constate un excédent en section de fonctionnement de 5,2 millions d’euros non prévu au moment du vote du budget primitif.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un pouvoir adjudicateur est une personne morale, de droit public ou privé, qui a la compétence pour passer des marchés publics ou des contrats de concession en appliquant les règles de publicité et de mise en concurrence prévues par le Code de la commande publique.
+Exemples de pouvoirs adjudicateurs
+L’État, les ministères, les collectivités territoriales (communes, départements, régions) et leurs établissements publics.​
+Les organismes de droit privé remplissant des missions d’intérêt général, financés ou contrôlés par des entités publiques.​
+Certaines banques publiques ou autres entités dotées de la personnalité juridique dans le cadre d’activités spécifiques.​
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un marché public est un contrat conclu à titre onéreux entre une personne publique (appelée « acheteur public ») et une personne publique ou privée (appelée « opérateur économique ») pour répondre à des besoins en matière de travaux, fournitures ou services
+Contrat écrit : Le marché public formalise l’accord entre les parties.
+Caractère onéreux : L’acheteur public paie un prix en échange des travaux, fournitures ou services fournis.
+Objet précis : Répondre à un besoin clairement défini, tel que des travaux de construction, l’achat de matériel ou la réalisation de prestations de services.
+Classement par type : Marchés de travaux, marchés de fournitures et marchés de services.
+Selon le montant, différentes procédures sont applicables, avec des seuils européens fixant les règles à suivre pour la publicité et la mise en concurrence.​
+Le marché public vise à garantir un usage efficace et transparent des fonds publics, en assurant la meilleure réponse au besoin de la collectivité.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un système de gestion ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le PCA (Plan de Continuité d'Activité) d'une collectivité territoriale est un outil d'organisation et de gestion de crise qui vise à assurer le maintien des missions essentielles du service public local en cas de crise majeure (ex : pandémie, sinistre, attaque, intempérie). Il définit les moyens et les procédures pour permettre la continuité des services indispensables comme l'état civil, l'eau, la sécurité, l'assistance, etc., même en situation dégradée.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le PRA (Plan de Reprise d’Activité) d’une collectivité territoriale est un ensemble de procédures documentées permettant de restaurer et de reprendre les activités et services essentiels après un incident majeur ou une crise qui a perturbé le fonctionnement normal. Contrairement au PCA, qui organise la continuité des services en mode dégradé pendant la crise, le PRA se concentre sur la phase de reprise après sinistre, notamment la remise en état des systèmes informatiques, la restauration des données et le rétablissement des services à un niveau opérationnel acceptable.
+</t>
+  </si>
+  <si>
+    <t>Qu'est qu'un schéma directeur au sein d'un SI d'une CT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un schéma directeur au sein d’un système d’information (SI) d’une collectivité territoriale est un document stratégique et pluriannuel (généralement sur 3 à 5 ans) qui définit la vision, les objectifs et la feuille de route pour le développement, la modernisation, la sécurité et l’évolutivité du SI. Il vise à aligner l’infrastructure informatique, les applications, les données et les ressources humaines avec les priorités politiques et les besoins des services publics locaux.
+Ce schéma directeur informatique (SDI) sert à :
+- anticiper les évolutions technologiques, 
+- garantir l’interopérabilité des systèmes, 
+- optimiser les coûts, tout en améliorant la qualité de service aux usagers et agents. 
+Il prend en compte les spécificités métiers des collectivités, les contraintes réglementaires et les enjeux de cybersécurité. En plus de planifier les investissements et les projets SI, il facilite la cohérence entre les différents acteurs et services de la collectivité.
+Dans une collectivité territoriale, le schéma directeur est renouvelé à chaque nouveau mandat pour s’adapter aux orientations politiques et technologiques changeantes.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la conduite du changement au sein d'un SI d'une CT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La conduite du changement au sein d’un système d’information (SI) d’une collectivité territoriale est un processus structuré visant à accompagner les agents, les élus et l’ensemble des parties prenantes dans la transition liée à l’évolution ou à la transformation des outils, des méthodes, ou des organisations numériques. 
+Elle vise à faciliter l’acceptation, l’appropriation et l’intégration des nouvelles technologies ou pratiques informatiques dans le fonctionnement quotidien des services, afin d’assurer la réussite des projets numériques.
+</t>
+  </si>
+  <si>
+    <t>Comment se fait la modélisation des données et des échanges au sein d'un SI d'une CT ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les différentes méthodes de développement au sein d'un SI d'une CT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La modélisation des données et des échanges au sein d’un système d’information (SI) d’une collectivité territoriale vise à structurer, organiser et représenter les données territoriales ainsi que les flux d’information échangés entre les services, partenaires et usagers. Elle comprend plusieurs étapes clés, incluant la collecte, la modélisation conceptuelle des données, leur cartographie, et la définition des règles de gestion et d’échange.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Méthodes Agile : prisée pour sa flexibilité et sa capacité à s’adapter rapidement aux changements, adaptée aux projets où les besoins évoluent ou ne sont pas parfaitement définis dès le départ
+- Cycle en V : méthode traditionnelle structurée, décomposée en phases successives : analyse, conception, développement, tests, déploiement, et maintenance, privilégiée pour des projets avec des exigences strictes ou réglementaires.
+- Méthodes Hybrides : combinent des éléments agiles et classiques pour tirer parti de leur complémentarité, permettent d’optimiser la prévisibilité tout en restant flexible face aux évolutions 
+Le développement d’un SI dans une collectivité territoriale peut suivre différentes méthodes, adaptées aux besoins spécifiques du projet et à la gestion des enjeux liés à la modernisation et à la conduite du changement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Internet est un réseau mondial public accessible à tous. C’est l’univers du web, permettant d’accéder à des sites, envoyer des emails, partager des fichiers, etc., via des protocoles standards comme le TCP/IP. Il est ouvert et disponible pour toute personne connectée.
+- Intranet est un réseau privé interne à une organisation, comme une collectivité territoriale. Il utilise les technologies internet (Web, messagerie, partage de fichiers) mais reste cloisonné et confidentiel, accessible uniquement aux membres internes de l’organisation. Il sert à faciliter la communication, la collaboration et le partage d’informations sécurisées en interne.
+- Extranet est une extension sécurisée de l’intranet qui permet à des utilisateurs externes, comme des partenaires, clients ou fournisseurs, d’accéder à certaines ressources privées via un accès contrôlé (identifiant, mot de passe). Il utilise l’internet comme support mais limite l’accès aux seules personnes autorisées pour collaborer ou partager des données spécifiques.
+En résumé : Internet est ouvert au public, l’intranet est interne à une organisation, et l’extranet étend l’accès de l’intranet aux partenaires externes de manière sécurisée
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L’informatique au service de l’usager citoyen vise à rapprocher les services publics des habitants, rendre l’administration plus efficace et transparente, tout en répondant aux enjeux sociétaux actuels de digitalisation et d’inclusion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- L'informatique individuelle désigne l'utilisation d'outils informatiques par une seule personne pour accomplir ses tâches personnelles ou professionnelles
+- L'informatique collaborative ou coopérative, en revanche, concerne l'utilisation de technologies et de systèmes permettant à un groupe d'utilisateurs de travailler ensemble, de partager des informations et de coordonner leurs efforts. 
+Ainsi, l'informatique individuelle favorise l'efficacité personnelle tandis que l'informatique collaborative/coopérative optimise l'intelligence collective et la synergie des équipes, particulièrement utile dans les collectivités territoriales pour améliorer les services publics et les processus internes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un système de gestion est un ensemble organisé de processus, procédures et outils mis en place pour garantir le bon fonctionnement, la coordination et l’optimisation des activités au sein d’une organisation.
+Dans le contexte informatique, un système de gestion peut aussi désigner un logiciel ou une plateforme dédiée à la gestion spécifique d’un domaine.
+Par exemple : 
+un système de gestion de base de données (SGBD) qui organise, stocke et contrôle l’accès aux données, ou 
+un système de gestion d’entreprise (Enterprise Resource Planning, Customer Relationship Management) qui centralise et pilote les processus métiers (finances, ressources humaines, relation client, etc.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L'aide à la décision au sein d'un système d'information (SI) est un ensemble de moyens, outils et méthodes destinés à collecter, analyser, consolider et présenter les données pour faciliter la prise de décisions éclairées par les responsables et décideurs. Ce système, aussi appelé système d'information d'aide à la décision (SIAD) ou système décisionnel, permet de transformer des données brutes en informations synthétiques, claires et exploitables, souvent via des tableaux de bord, rapports, graphiques ou simulations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un réseau au sein d’un système d’information (SI) est un ensemble d’ordinateurs, serveurs, périphériques et autres équipements interconnectés qui communiquent entre eux pour échanger des données et partager des ressources. 
+Ce réseau permet aux utilisateurs et aux applications de collaborer, de transférer des informations, et d’accéder à des services communs, qu’ils soient situés dans la même organisation ou géographiquement répartis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Une architecture au sein d’un système d’information (SI) désigne l’organisation globale et structurée des différents composants du SI, qu’ils soient matériels, logiciels, humains ou informationnels, ainsi que les relations entre eux.
+Cette architecture se décline en plusieurs couches ou strates : 
+- la couche métier (processus et besoins fonctionnels), 
+- la couche fonctionnelle (services et fonctions du SI), 
+- la couche applicative (logiciels et applications), et 
+- la couche technique ou physique (infrastructure matérielle, réseaux, sécurité). 
+L’architecte SI conçoit et pilote cette structure pour assurer cohérence, performance, évolutivité et sécurité du SI dans le temps.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les langages dominants en 2025 dans les SI sont : 
+- Python,
+- Powershell 
+- Java, 
+- C/C++, 
+- JavaScript et
+- SQL, chacun ayant un rôle spécifique selon la couche technique et métier du système.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Oracle Database : Leader historique, très utilisé pour ses performances, sa sécurité et son évolutivité. Adapté aux grandes entreprises avec des besoins complexes.
+- MySQL : Base open source très répandue pour sa simplicité et sa robustesse. Souvent utilisée pour des applications web, PME et startups.
+- PostgreSQL : SGBD open source avancé, reconnu pour sa conformité aux standards SQL et ses fonctionnalités étendues.
+- Microsoft SQL Server : Très intégré dans les environnements Microsoft, apprécié pour ses outils analytiques et de gestion.
+- MongoDB : Système NoSQL orienté document, utilisé pour la gestion de données non structurées ou semi-structurées.
+- IBM Db2 : Solution robuste pour les environnements critiques, souvent dans les grandes organisations.
+- SQLite : Base légère, intégrée dans de nombreuses applications mobiles et systèmes embarqués.
+- MariaDB : Fork de MySQL, populaire dans l’open source, avec une communauté active
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La sécurité des systèmes au sein d’un système d’information (SI) est essentielle pour protéger les données, les infrastructures et garantir la disponibilité et l’intégrité des services. 
+Elle repose sur une approche globale combinant plusieurs mesures techniques, organisationnelles et humaines.
+1. Les mesures techniques
+Pare-feu : filtrent le trafic réseau entrant et sortant pour empêcher les accès non autorisés.
+Systèmes de détection et de prévention d’intrusions (IDS/IPS) : monitorent le réseau ou les systèmes pour détecter et bloquer des activités suspectes.
+Chiffrement : protège les données sensibles en transit (SSL/TLS) ou stockées (cryptographie).
+Authentification forte : utilisation de mots de passe complexes, double facteur d’authentification, certificats numériques.
+Mises à jour régulières : application de correctifs logiciels pour combler les vulnérabilités.
+Segmentation du réseau : isoler certains segments pour limiter la propagation d’une attaque.
+2. Les mesures organisationnelles
+Politiques de sécurité : définition de règles claires pour l’utilisation, la gestion et la protection des systèmes.
+Gestion des accès : contrôle strict des droits d’accès selon le principe du moindre privilège.
+Plan de reprise d’activité (PRA) et plan de continuité d’activité (PCA) : préparer des stratégies pour assurer la reprise rapide en cas d’incident.
+Audits et contrôles réguliers : vérifier la conformité, l’efficacité et la détection de failles.
+3. Les mesures humaines
+Sensibilisation : former les utilisateurs aux bonnes pratiques (mots de passe, phishing, manipulation des données).
+Gestion des incidents : établissement de procédures d’alerte et de gestion d’incidents de sécurité.
+Rôles et responsabilités : définir clairement qui fait quoi en matière de sécurité.
+4. Conformité et réglementations
+Respecter les normes et réglementations applicables (RGPD, PCI-DSS, ISO/IEC 27001) pour assurer une conformité légale et réglementaire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La sécurité de l’information au sein d’un système d’information (SI) vise à protéger la confidentialité, l’intégrité et la disponibilité des données tout au long de leur cycle de vie. Pour assurer cette sécurité, plusieurs axes complémentaires sont mis en œuvre.
+1. Confidentialité
+Restreindre l’accès aux informations sensibles uniquement aux personnes autorisées.
+Utilisation de mécanismes d’authentification forte (mots de passe robustes, biométrie, authentification multifactorielle).
+Chiffrement des données, qu’elles soient stockées ou en transit (par exemple TLS pour les échanges réseau).
+2. Intégrité
+Garantir que les données ne soient pas modifiées de manière non autorisée.
+Utilisation de signatures numériques, fonctions de hachage, et contrôles d’accès rigoureux.
+Mises à jour régulières des systèmes pour corriger les vulnérabilités.
+3. Disponibilité
+Assurer un accès continu et fiable aux informations et services.
+Mise en place de sauvegardes régulières, redondances, plans de continuité et reprise d’activité (PCA/PRA).
+Protection contre les attaques par déni de service (DDoS).
+4. Traçabilité et audit
+Mise en place de journaux de logs et systèmes de surveillance pour détecter les anomalies et suivre les accès.
+Audits réguliers pour vérifier la conformité aux politiques de sécurité.
+5. Sensibilisation et formation
+Former les utilisateurs aux bonnes pratiques (phishing, partage sécurisé, gestion des mots de passe).
+Établir des politiques de sécurité claires et les faire respecter.
+6. Conformité réglementaire
+Respect des normes et réglementations (RGPD, ISO 27001, normes sectorielles).
+</t>
+  </si>
+  <si>
+    <t>Quelles sont les principales normes et réglementations en matière de sécurité ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Directive NIS2 (Network and Information Security 2)
+Application dans l'Union européenne pour améliorer la résilience des infrastructures critiques (énergie, santé, télécom).
+Renforce les obligations des organisations en matière d’analyse des risques, gouvernance et formation.
+Elargit le périmètre des entités concernées avec des exigences strictes de sécurité.
+2. Digital Operational Resilience Act (DORA)
+Spécifique au secteur financier.
+Imposée depuis 2025, elle vise la continuité opérationnelle et la résistance face aux cyberattaques.
+Accent sur la gestion des risques liés aux technologies de l’information.
+3. Cyber Resilience Act (CRA)
+Entrée en vigueur en 2025.
+Vise à garantir la cybersécurité des produits numériques, logiciels et objets connectés.
+4. Norme ISO/IEC 27001:2022 et mises à jour 2025
+Norme internationale de référence pour le management de la sécurité de l’information (SMSI).
+En 2025, intégration de contrôles avancés comme la Threat Intelligence et la prévention des fuites.
+Mise à jour pour une meilleure harmonisation avec d’autres normes sectorielles et exigences dynamiques.
+Nécessité d’audits réguliers, amélioration continue et adaptation aux nouvelles menaces.
+5. Impact des normes américaines et internationales
+Réglementation CIRCIA pour les infrastructures américaines critiques.
+Adoption croissante des standards NIST impactant internationalement les pratiques de cybersécurité.
+</t>
+  </si>
+  <si>
+    <t>ITIL</t>
+  </si>
+  <si>
+    <t>Axes actuels des politiques publiques territoriales</t>
+  </si>
+  <si>
+    <t>Enjeux et réformes récentes ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Développement durable :
+Mise en œuvre de politiques locales de transition écologique
+Lutte contre le changement climatique
+Gestion durable des ressources : eau, déchets
+Promotion des énergies renouvelables
+- Transformation numérique :
+Digitalisation des services publics
+Modernisation des systèmes d’information
+Dématérialisation des démarches administratives
+Faciliter l’accès des citoyens
+- Mobilité et infrastructures :
+Développement des transports publics
+Modes alternatifs : vélo, covoiturage
+Aménagement des territoires pour la mobilité durable
+- Inclusion sociale :
+Accès égal aux services
+Lutte contre les fractures territoriales et numériques
+Inclusion des populations vulnérables et personnes en situation de handicap
+- Aménagement du territoire :
+Gestion équilibrée zones urbaines/périurbaines/rurales
+Cohésion territoriale
+Préservation du patrimoine naturel et culturel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Réforme territoriale
+- Mutualisation des services
+- Marchés publics
+- Directive NIS2
+- RGPD
+- Cybersécurité
+- Transition écologique
+- Participation citoyenne
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +2114,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1615,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1644,6 +2197,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,7 +2518,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,29 +2537,29 @@
     </row>
     <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B5" s="6"/>
     </row>
@@ -2016,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,416 +2616,452 @@
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+    <row r="56" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2895,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,303 +3512,311 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="357" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3228,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED40F83-BD2A-4A1A-8B76-25576411D2F3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,76 +3846,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3325,19 +3925,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="186.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3345,232 +3946,321 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="13" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="168" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="96" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,29 +4515,18 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,74 +4545,98 @@
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3943,16 +4646,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45802699-F981-43C2-8352-C149655BABD5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.28515625" customWidth="1"/>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="176.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,10 +4668,34 @@
     </row>
     <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="331.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1E023-6B36-4047-A787-138FE035BB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F8A11-234D-4611-B675-E48BC3A1720A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="5" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="334">
   <si>
     <t>Questions</t>
   </si>
@@ -2082,6 +2082,33 @@
 - Cybersécurité
 - Transition écologique
 - Participation citoyenne
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un compte de gestion établi par le comptable de la commune ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un compte administratif établi par l'ordonnateur de la commune ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Établi par l’ordonnateur (le maire ou le président de l’EPCI).
+- Présente les mandats de dépenses et les titres de recettes émis sur l’exercice, y compris les engagements juridiques (restes à réaliser).
+- Sert de bilan financier de l’exécution du budget, confronté aux prévisions du budget primitif.
+- Présenté au vote de l’assemblée délibérante qui l’arrête définitivement après examen.
+- Il exprime le résultat de l’exercice (excédent/déficit).
+En résumé, le compte de gestion est le document officiel et détaillé du comptable vérifiant la régularité des opérations, tandis que le compte administratif est le bilan financier synthétique arrêté par le maire. Les deux doivent être en parfaite concordance et sont soumis au vote du conseil municipal pour valider la gestion financière de l’exercice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Établi par le comptable public (le trésorier de la commune).
+- Il retrace toutes les opérations budgétaires (dépenses et recettes) réalisées pendant l’exercice.
+- Présente une balance générale des comptes gérés par le trésorier et un bilan comptable synthétique avec l’actif et le passif.
+- Il assure la régularité et la conformité des opérations financières.
+- Doit être soumis au vote de l’assemblée délibérante avant le compte administratif.
+- Constitue la restitution des comptes du comptable à l’ordonnateur.
+En résumé, le compte de gestion est le document officiel et détaillé du comptable vérifiant la régularité des opérations, tandis que le compte administratif est le bilan financier synthétique arrêté par le maire. Les deux doivent être en parfaite concordance et sont soumis au vote du conseil municipal pour valider la gestion financière de l’exercice
 </t>
   </si>
 </sst>
@@ -2572,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -4523,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,6 +4664,22 @@
       </c>
       <c r="B13" s="6" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +4717,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>262</v>
       </c>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F8A11-234D-4611-B675-E48BC3A1720A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A04B41-C7F9-4CA6-BCA4-41D028A30CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="5" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="366">
   <si>
     <t>Questions</t>
   </si>
@@ -42,34 +42,12 @@
     <t>Quelles sont les missions du cadre d'emploi catégorie A d'Ingénieur Territorial (Filière Technique)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- Missions de conception (projets, études techniques, propositions innovantes)
-- Encadrement des équipes et coordination des services techniques
-- Missions d’expertise et de conseil auprès des autorités territoriales
-- Gestion de services techniques, laboratoires ou groupes de services
-- Conduite de projets et réalisation de chantiers pour la collectivité
-- Organisation des travaux courants et maintenance des infrastructures territoriales</t>
-  </si>
-  <si>
     <t>Qu'est ce que le service public ?</t>
   </si>
   <si>
-    <t>Le service public désigne une activité exercée par une autorité publique ou sous son contrôle, ayant pour but principal de satisfaire un besoin d'intérêt général</t>
-  </si>
-  <si>
     <t>Quels sont les grands principes du service public ?</t>
   </si>
   <si>
-    <t>Les trois principes fondamentaux (Lois de Rolland) :
-- Continuité : Le service public doit fonctionner sans interruption afin de satisfaire les besoins collectifs.​
-- Égalité : Tous les usagers doivent être traités de la même manière, sans distinction ou discrimination.​
-- Mutabilité (Adaptabilité) : Le service public doit s’adapter en permanence aux évolutions des besoins, des techniques et de la société.​
-Principes complémentaires :
-- Neutralité : Les agents du service public doivent rester impartiaux et ne pas exprimer d’opinions politiques, religieuses ou syndicales dans l’exercice de leurs fonctions.​
-- Transparence : Le fonctionnement du service public doit être compréhensible et contrôlable par les usagers, avec accès à l’information et aux documents administratifs.​
-- Accessibilité : Chacun doit pouvoir accéder au service public, y compris les personnes en situation de handicap ou socialement marginalisées.​</t>
-  </si>
-  <si>
     <t>Qu'est-ce que la CNIL ?</t>
   </si>
   <si>
@@ -91,9 +69,6 @@
     <t>Comment prépare-t-on un MP ?</t>
   </si>
   <si>
-    <t>Quels sont les documents constitutifs d'un MP ?</t>
-  </si>
-  <si>
     <t>Qu'est-ce qu'un SI ?</t>
   </si>
   <si>
@@ -232,9 +207,6 @@
     <t>Quelles sont les différentes sanctions disciplinaires ?</t>
   </si>
   <si>
-    <t>En cas de danger grave et imminent.</t>
-  </si>
-  <si>
     <t>Comment se déroule la procédure disciplinaire ?</t>
   </si>
   <si>
@@ -266,13 +238,6 @@
   </si>
   <si>
     <t>Qui suis-je ? (présentation professionnelle)</t>
-  </si>
-  <si>
-    <t>État civil, poste actuel, cursus scolaire et professionnel
-Parcours scolaire
-Technicien assistance (2 ans) : Poste de proximité, technicien de déploiement, hotline, écoute, gestion incidents, priorités
-GAI : incidents niveau 2, gestion projets, cyberattaque 2021
-DBA : gestion en mode projet des migrations, scripting, partie technique et gestionnaire d'infra ++</t>
   </si>
   <si>
     <t>Qui est le ministre délégué chargé de la Fonction publique et de la Réforme de l'État ?</t>
@@ -325,16 +290,6 @@
 - La durée du mandat est de 6 ans.
 - Chaque binôme élu représente un canton selon une carte cantonale redessinée pour équilibrer la population représentée
 Les prochaines élections départementales sont normalement prévues en Mars 2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Action sociale (RSA, aide handicap, personnes âgées)
-- Collèges et transports scolaires
-- Routes départementales
-- Sapeurs-pompiers (SDIS)
-- Protection de l’enfance (ASE)
-- Bibliothèques départementales
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -344,16 +299,6 @@
 - Les candidats se présentent sur des listes complètes et paritaires (homme/femme).
 - L’élection du président du conseil régional se fait en séance, à la majorité absolue par les conseillers régionaux élus à la première réunion.
 Les prochaines élections régionales sont normalement prévues en Mars 2028
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Développement économique régional
-- Gestion et financement des lycées
-- Transports régionaux (trains, cars)
-- Orientation et formation professionnelle
-- Aménagement du territoire
-- Cultures et patrimoine régional
 </t>
   </si>
   <si>
@@ -366,17 +311,6 @@
 - Mode de scrutin de liste à deux tours avec prime majoritaire.
 - Les électeurs votent pour une liste complète et paritaire (hommes/femmes).
 Les prochaines élections régionales sont normalement prévues en Mars 2026
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- État civil (naissances, mariages, décès)
-- Écoles maternelles et primaires
-- Urbanisme (PLU)
-- Voirie communale
-- Action sociale locale
-- Police municipale
-- Eau potable, assainissement
 </t>
   </si>
   <si>
@@ -445,19 +379,6 @@
 - Fonction publique d’État (FPE) : concerne les agents civils et militaires employés par l’État. Elle comprend plusieurs corps et cadres d’emploi avec un statut spécifique.
 - Fonction publique territoriale (FPT) : concerne les agents employés par les CT (communes, départements, régions). Elle est organisée en corps ou cadres d’emplois avec leur propre statut.
 - Fonction publique hospitalière (FPH) : concerne le personnel des établissements de santé publics (hôpitaux, cliniques, centres de lutte contre le cancer, etc.) qui disposent aussi de leur propre cadre réglementaire.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Catégorie A : 
-- Cadre d’emplois : Ingénieurs Territoriaux / Grades : Ingénieur territorial principal, Ingénieur territorial hors classe
-- Cadre d’emplois  : Attachés Territoriaux / Grades : Attaché principal, Attaché hors classe
-Catégorie B :
-- Cadre d’emplois : Techniciens Territoriaux / Grades : Technicien principal, Technicien territorial supérieur
-- Cadre d’emplois :  Rédacteurs Territoriaux / Grades : Rédacteur principal, Rédacteur territorial
-Catégorie C :
-- Cadre d’emplois : Agents Administratifs / Grades : Agent territorial principal, Agent territorial
-- Cadre d’emplois  : Adjoints Techniques / Grades : Adjoint technique territorial principal, Adjoint technique territorial
 </t>
   </si>
   <si>
@@ -961,15 +882,6 @@
 Prévoir un calendrier de révision et un suivi des actions menées.​
 Cette démarche garantit la conformité réglementaire, la sécurité des agents et une démarche proactive de prévention dans la collectivité.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-les Comités d'Hygiène, de Sécurité et des Conditions de Travail (CHSCT) dans la fonction publique territoriale ont été supprimés et remplacés par une nouvelle instance unique de dialogue social appelée Comité Social Territorial (CST)
-Les CHSCT fusionnent avec les Comités Techniques (CT) 
-</t>
-  </si>
-  <si>
-    <t>Qu'est ce qui a changé à partir du 08/12/2022 pour les CHSCT ?</t>
   </si>
   <si>
     <t>Comment s'appelle la commission d'hygiène et sécurité pour les CST de plus de 300 agents ?</t>
@@ -1154,18 +1066,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-- Règlement de la consultation (RC) ou lettre de consultation : précise les règles de la procédure, les modalités de remise des offres, la décomposition en lots, les critères de sélection et la méthode de jugement.​
-- Acte d'engagement (AE) : pièce centrale du marché, il doit être signé par le titulaire retenu et formalise les engagements (prix, délais, conditions).​
-- Cahier des Clauses Administratives Particulières (CCAP) : précise les aspects administratifs du marché (modalités de paiement, pénalités, délais…).​
-- Cahier des Clauses Techniques Particulières (CCTP) : décrit précisément la nature et la qualité des prestations attendues.​
-- Bordereau de prix (BPU/DQE/DPGF) : détaille les prix unitaires ou globaux des prestations.​
-- Mémoire technique : explicite la méthodologie, les moyens humains et matériels, la prise en compte du développement durable, etc..​
-- Déclarations et attestations diverses : déclare sur l’honneur que l’entreprise respecte les obligations légales et sociales, atteste des capacités financières, techniques ou professionnelles.​
-- Pièces complémentaires : attestations de visite, échantillons, certificats, ou garanties exigées selon la nature du marché.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 - Recensement et définition des besoins : analyser et préciser la nature du besoin, le périmètre, les quantités, les contraintes techniques et logistiques.​
 - Choix du mode de dévolution : décider si le marché doit être alloti (lot unique ou plusieurs lots séparés).​
 - Évaluation du montant du marché : estimer la valeur financière du besoin afin de déterminer la procédure applicable (procédure adaptée ou formalisée).​
@@ -1302,13 +1202,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités - Cotisations sociales
-L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
-Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 L’IFSE, ou Indemnité de Fonctions, de Sujétions et d’Expertise, est une indemnité principale versée mensuellement aux fonctionnaires territoriaux dans le cadre du régime indemnitaire RIFSEEP
 L’IFSE est une indemnité clé qui valorise la nature et la complexité des fonctions exercées par les agents territoriaux, tenant compte des responsabilités, compétences et contraintes liées à leur poste
 </t>
@@ -1563,16 +1456,6 @@
     <t>Vous êtes manager et l'un de vos agents est invité au restaurant, que faites-vous ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Les différentes sanctions sont :
-- Avertissement, blâme, exclusion 1-3 jours
-- Radiation, abaissement d’échelon, exclusion 4-15 jours
-- Rétrogradation, exclusion 16 jours à 2 ans
-- Mise à la retraite, révocation
-Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
-Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
-</t>
-  </si>
-  <si>
     <t>Quelles sont les règlementations en vigueur pour les MP ?</t>
   </si>
   <si>
@@ -1719,9 +1602,6 @@
   </si>
   <si>
     <t>Quelle est la différence entre logiciel, progiciel et applicatif ?</t>
-  </si>
-  <si>
-    <t>Qu'est-ce qu'un ERP ?</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2109,6 +1989,365 @@
 - Doit être soumis au vote de l’assemblée délibérante avant le compte administratif.
 - Constitue la restitution des comptes du comptable à l’ordonnateur.
 En résumé, le compte de gestion est le document officiel et détaillé du comptable vérifiant la régularité des opérations, tandis que le compte administratif est le bilan financier synthétique arrêté par le maire. Les deux doivent être en parfaite concordance et sont soumis au vote du conseil municipal pour valider la gestion financière de l’exercice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dans la Fonction Publique Territoriale, le droit de grève est-il compatible avec le devoir de continuité de service ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Oui, dans la Fonction Publique Territoriale (FPT), le droit de grève est compatible avec le devoir de continuité du service public, mais cette compatibilité repose sur une conciliation entre ces deux principes à valeur constitutionnelle.
+- Aucune catégorie d’agents de la FPT ne se voit interdire le droit de grève, contrairement à d’autres fonctions comme les militaires, policiers ou magistrats.​
+- Le droit de grève peut cependant faire l’objet de restrictions pour assurer le service minimum dans certains services essentiels (état civil, médiathèques, transports publics, crèches, etc.), par exemple en utilisant des “assignations” ou désignations d’agents afin d’éviter une rupture totale du service.​
+- Depuis la loi n°2019-828, il est possible de négocier des accords locaux pour définir les modalités garantissant la continuité en cas de grève (déclarations préalables, durée, effectifs minimaux).
+La mise en place des restrictions relève donc principalement de l'autorité territoriale, en lien avec les instances délibérantes et en négociation éventuelle avec les syndicats, sous le contrôle de la légalité par le juge administratif.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un PPI au sein de la FPT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un PPI au sein de la Fonction Publique Territoriale désigne un Plan Pluriannuel d’Investissement. C’est un outil stratégique et financier qui permet à une collectivité territoriale de planifier ses investissements sur le moyen à long terme, généralement sur une période d’au moins 5 ans.
+</t>
+  </si>
+  <si>
+    <t>Quelles sont les conditions de réussite d'une réunion ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Conditions préalables
+Objectif clair et précis : La réunion doit avoir un but défini, connu de tous les participants, avec un ordre du jour établi et communiqué en amont pour permettre une préparation adaptée.
+Participants pertinents : Inviter uniquement les personnes concernées et décisionnaires pour éviter les pertes de temps et favoriser la participation active.
+Support et outils adaptés : Utilisation de documents, supports visuels, outils numériques ou plateformes collaboratives qui facilitent la compréhension et la prise de notes.
+- Pendant la réunion
+Animation dynamique : Un animateur ou président de séance doit gérer les temps de parole, encourager les échanges constructifs, recentrer les débats en cas de digression, et veiller au respect du cadre temporel.
+Participation équilibrée : Favoriser l’expression de tous les participants, éviter les monopoles de parole, et valoriser les apports de chacun.
+Prise de décisions claires : Chaque point débattu doit aboutir à une conclusion, une décision ou une action à entreprendre, avec des responsabilités attribuées.
+- Après la réunion
+Compte rendu précis : Rédaction et diffusion rapide d’un procès-verbal ou d’un relevé de décisions listant les décisions prises, les actions à mener, les responsables et les échéances.
+Suivi des actions : Contrôle de la mise en œuvre des décisions, avec éventuellement des points de suivi lors des réunions suivantes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un Maire non salarié ne bénéficie pas de congés payés au sens strict, car le droit aux congés payés s'applique aux salariés relevant du Code du travail ou d'un statut de fonctionnaire. En effet, les élus locaux, dont les maires, ne sont pas des salariés et ne disposent pas formellement de congés payés.
+</t>
+  </si>
+  <si>
+    <t>Un Maire non salarié bénéficie-t-il de congés payés (ou RTT) ?</t>
+  </si>
+  <si>
+    <t>Le préfet bénéficie-t-il de congés payés (ou RTT) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le préfet, en tant que fonctionnaire d'État, bénéficie de congés annuels payés et de droits au titre des RTT, comme tous les agents de la fonction publique.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la GPEEC ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Une GPEEC correspond à la Gestion Prévisionnelle des Emplois, des Effectifs et des Compétences.
+C’est une démarche stratégique utilisée notamment dans la Fonction Publique pour anticiper et organiser l’évolution des ressources humaines d’une organisation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le GVT signifie « Glissement Vieillesse Technicité ». 
+C’est une notion clé dans la gestion des ressources humaines, notamment dans la fonction publique, pour analyser l’évolution de la masse salariale à effectif constant.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le GVT ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le CFU ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le CFU signifie Compte Financier Unique. C’est un document budgétaire qui remplace à la fois le compte administratif et le compte de gestion dans les collectivités territoriales et certains établissements publics.
+le CFU est une réforme importante de la comptabilité publique visant à rationaliser et simplifier la reddition des comptes financiers des collectivités territoriales, renforçant ainsi leur transparence et leur gestion rigoureuse.
+Sa mise en œuvre est rendue obligatoire à compter des comptes 2026 pour toutes les communes, établissements publics de coopération intercommunale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités + Cotisations sociales
+L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
+Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
+</t>
+  </si>
+  <si>
+    <t>Que contient une fiche de poste dans la FPT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Intitulé du poste : Nom officiel du poste, sans se référer au grade.
+- Grade requis : Grade ou cadre d’emploi correspondant au poste.
+- Situation de travail : Affectation, localisation, service ou direction d’affectation.
+- Rattachement hiérarchique : Supérieur direct ou organisation hiérarchique.
+- Relations fonctionnelles : Interactions avec d’autres agents ou services.
+- Activités et missions principales : Tâches spécifiques, responsabilités, objectifs à atteindre.
+- Compétences requises : Savoirs, savoir-faire, savoir-être nécessaires.
+- Conditions d’exercice : Horaires, conditions matérielles, risques liés au poste.
+- Autonomie et responsabilités : Niveau d’indépendance et responsabilités juridiques ou réglementaires.
+- Évolution : La fiche peut évoluer en fonction des besoins et des changements organisationnels.
+Cette fiche sert à clarifier les attentes, à organiser la gestion des ressources humaines, à renforcer la transparence, et à préparer les entretiens professionnels ou évaluations annuelles.
+</t>
+  </si>
+  <si>
+    <t>Comment fait-on évoluer une fiche de poste dans FPT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Entretien d’évaluation annuel
+En amont de l’entretien, l’agent remplit un guide d’évaluation relatif à ses activités de l’année écoulée.
+L’entretien permet un échange entre l’agent et son responsable hiérarchique sur les missions réalisées, les difficultés rencontrées, les résultats obtenus et les objectifs futurs.
+- Actualisation de la fiche de poste
+À partir des informations issues de l’entretien, le responsable hiérarchique met à jour la fiche de poste pour prendre en compte l’évolution des missions, l’apparition de nouvelles tâches ou la modification des conditions d’exercice.
+La fiche de poste reste conforme au cadre réglementaire du grade, mais peut être révisée selon les nécessités du service.
+- Validation et signature
+La fiche mise à jour est soumise à la signature du responsable hiérarchique et de l’agent, marquant l’accord des deux parties.
+Une copie est transmise au service du personnel et reste accessible pour référence lors des entretiens et gestion de carrière.
+- Suivi et exploitation des informations
+Les éléments recueillis servent à définir les besoins en formation, accompagner l’évolution professionnelle de l’agent, et adapter l’organisation du service.
+L’autorité territoriale détient le pouvoir de modifier la fiche de poste, mais une modification écrite est préférable pour la concertation et la sécurité juridique.
+</t>
+  </si>
+  <si>
+    <t>Quel est le rôle du préfet dans les CT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Contrôle administratif de légalité : Le préfet examine les actes administratifs pris par les collectivités territoriales pour vérifier leur conformité au droit. 
+Il peut, en cas d’illégalité, saisir le juge administratif ou inviter la collectivité à modifier ou annuler l’acte.
+- Contrôle budgétaire : Il vérifie la régularité financière des budgets et comptes des collectivités, assurant ainsi une gestion rigoureuse et conforme aux règles publiques.
+- Conseil et appui technique : Le préfet peut assister et conseiller les élus locaux dans la mise en œuvre des politiques publiques et la gestion administrative et financière de leur collectivité.
+- Coordination des politiques publiques locales : Il assure la cohérence entre les initiatives locales et les objectifs nationaux, par exemple dans le cadre de la planification territoriale, développement économique, urbanisme, environnement, etc.
+- Gestion des crises locales : En cas de situation d’urgence ou de crise locale, le préfet coordonne l’intervention des services étatiques et assure la continuité du service public au niveau local.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le SDIS ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le SDIS, ou Service Départemental d’Incendie et de Secours, est un établissement public administratif autonome présent dans chaque département en France. Il est chargé de la prévention, de la protection et de la lutte contre les incendies, ainsi que des secours d’urgence.
+</t>
+  </si>
+  <si>
+    <t>Loi REEN</t>
+  </si>
+  <si>
+    <t>Quels sont les documents constitutifs d'un MP dans l'ordre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Acte d'engagement (AE) : pièce centrale du marché, il doit être signé par le titulaire retenu et formalise les engagements (prix, délais, conditions).​
+- Cahier des Clauses Administratives Particulières (CCAP) : précise les aspects administratifs du marché (modalités de paiement, pénalités, délais…).​
+- Cahier des Clauses Techniques Particulières (CCTP) : décrit précisément la nature et la qualité des prestations attendues.​
+- Bordereau de prix (BPU/DQE/DPGF) : détaille les prix unitaires ou globaux des prestations.​
+- Les cahiers des clauses générales : CCAG + CCTG
+- Programme ou calendrier d'exécution
+- Mémoire technique : explicite la méthodologie, les moyens humains et matériels, la prise en compte du développement durable, etc..​
+- Déclarations et attestations diverses : déclare sur l’honneur que l’entreprise respecte les obligations légales et sociales, atteste des capacités financières, techniques ou professionnelles.​
+- Pièces complémentaires : attestations de visite, échantillons, certificats, ou garanties exigées selon la nature du marché.
+NB :  Règlement de la consultation (RC) ou lettre de consultation : précise les règles de la procédure, les modalités de remise des offres, la décomposition en lots, les critères de sélection et la méthode de jugement.
+Il ne fait pas partie des pièces constitutives contractuelles du MP, essentiel en amont !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Obligatoires :
+- Action sociale : Aide sociale à l’enfance, aides aux personnes âgées (allocation personnalisée d’autonomie - APA), personnes handicapées (prestation de compensation du handicap - PCH), RSA et insertion sociale.
+- Éducation : Construction, entretien et fonctionnement des collèges.
+- Voirie départementale : Gestion, entretien et aménagement des routes départementales.
+- Transports scolaires : Organisation et financement des transports scolaires.
+- Sécurité civile : Gestion des Services Départementaux d’Incendie et de Secours (SDIS).
+- Aménagement du territoire : Planification, urbanisme, développement rural.
+- Protection maternelle et infantile (PMI).
+- Gestion des archives départementales et du patrimoine culturel départemental.
+2. Optionnelles :
+- Culture : Soutien à des manifestations culturelles, enseignements artistiques.
+- Tourisme : Promotion et développement touristique.
+- Environnement : Gestion des espaces naturels, protection de l’environnement.
+- Sport : Soutien aux équipements sportifs.
+- Développement économique : Aide aux entreprises, agriculture.
+- Soutien aux communes : Aides financières diverses, gestion de maisons de services au public.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Obligatoires :
+- Développement économique : Soutien aux entreprises, pôles de compétitivité, innovation, aides à l’investissement.
+- Formation professionnelle et apprentissage : Organisation, financement et orientation de la formation des demandeurs d’emploi, apprentissage, alternance.
+- Gestion des lycées : Construction, entretien, fonctionnement, restauration et hébergement dans les lycées publics.
+- Transports non urbains : Organisation des transports régionaux comme les TER, transports scolaires et interurbains.
+- Aménagement du territoire et environnement : Mise en place du Schéma régional d’aménagement, de développement durable et d’égalité des territoires (SRADDET), gestion des déchets, protection de l’environnement.
+- Gestion des fonds européens : Gestion des fonds structurels et d’investissement européens (FEDER, FEADER...).
+2. Optionnelles :
+- Culture, tourisme, sport : Soutien aux équipements culturels et sportifs, promotion touristique.
+- Enseignement supérieur et recherche : Soutien à l’université, recherche et innovation.
+- Numérique : Développement et aménagement numérique du territoire.
+- Jeunesse, international : Actions en faveur des jeunes, coopération internationale.
+- Langues régionales, éducation populaire : Promotion des langues et activités d’éducation populaire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Obligatoires : 
+- État civil (naissances, mariages, décès)
+- Écoles maternelles et primaires
+- Urbanisme (PLU)
+- Voirie communale
+- Action sociale locale
+- Police municipale
+- Eau potable, assainissement
+2. Optionnelles : 
+- Culture, sport, loisirs : gestion des équipements culturels et sportifs, organisation d'événements.
+- Développement économique local : soutien aux commerces, marchés locaux.
+- Tourisme : promotion touristique, développement d’infrastructures d’accueil.
+- Environnement : actions pour la protection de l’environnement, énergies renouvelables.
+- Participation à des actions intercommunales : transfert de compétences à des établissements publics de coopération intercommunale (EPCI) avec accord.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+En cas de danger grave et imminent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+les Comités d'Hygiène, de Sécurité et des Conditions de Travail (CHSCT) dans la fonction publique territoriale ont été supprimés et remplacés par une nouvelle instance unique de dialogue social appelée Comité Social Territorial (CST)
+Les CHSCT fusionnent avec les Comités Techniques (CT) en Janvier 2023
+</t>
+  </si>
+  <si>
+    <t>Qu'est ce qui a changé à partir du 08/12/2022 pour les CHSCT (mise en œuvre en Janvier 2023) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les différentes sanctions sont :
+- Avertissement, blâme, exclusion 1-3 jours
+- Radiation, abaissement d’échelon, exclusion 4-15 jours
+- Rétrogradation, exclusion 16 jours à 2 ans
+- Mise à la retraite, révocation
+Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
+Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le service public désigne une activité exercée par une autorité publique ou sous son contrôle, ayant pour but principal de satisfaire un besoin d'intérêt général
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les trois principes fondamentaux (Lois de Rolland) :
+- Continuité : Le service public doit fonctionner sans interruption afin de satisfaire les besoins collectifs.​
+- Égalité : Tous les usagers doivent être traités de la même manière, sans distinction ou discrimination.​
+- Mutabilité (Adaptabilité) : Le service public doit s’adapter en permanence aux évolutions des besoins, des techniques et de la société.​
+Principes complémentaires :
+- Neutralité : Les agents du service public doivent rester impartiaux et ne pas exprimer d’opinions politiques, religieuses ou syndicales dans l’exercice de leurs fonctions.​
+- Transparence : Le fonctionnement du service public doit être compréhensible et contrôlable par les usagers, avec accès à l’information et aux documents administratifs.​
+- Accessibilité : Chacun doit pouvoir accéder au service public, y compris les personnes en situation de handicap ou socialement marginalisées.​
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Catégorie A : 
+- Cadre d’emplois : Ingénieurs Territoriaux / Grades : Ingénieur territorial, Ingénieur territorial principal, Ingénieur territorial hors classe
+- Cadre d’emplois  : Attachés Territoriaux / Grades : Attaché territorial, Attaché principal territorial, Attaché hors classe
+Catégorie B :
+- Cadre d’emplois : Techniciens Territoriaux / Grades : Technicien territorial, Technicien principal 2ieme classe, Technicien principal 1ère classe
+- Cadre d’emplois :  Rédacteurs Territoriaux / Grades : Rédacteur territorial, Rédacteur principal 2ième classe, Rédacteur principal 1ère classe
+Catégorie C :
+- Cadre d’emplois : Agents Administratifs / Grades : Adjoint administratif territorial,  Adjoint administratif principal de 2ième classe, Adjoint administratif principal de 1ère classe
+- Cadre d’emplois  : Adjoints Techniques / Grades : Adjoint technique territorial, Adjoint technique principal 2ième classe , Adjoint technique principal de 1ère classe
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Je suis titulaire d'un DEUG de Mathématiques pures, d'une licence puis maîtrise informatique depuis 2003.
+Après l'obtention de mes diplômes j'ai travaillé dans le privé pendant 4 ans pour des Sociétés de Services en tant que technicien de support informatique, pour des entreprises de développement de logiciels de paie.
+Puis, j'ai eu l'opportunité d'intégrer la fonction publique territoriale en 2007 dans la communauté urbaine pour laquelle je travaille toujours aujourd'hui.
+Au sein de cette collectivité, j'ai été missionnée en tant que :
+Technicien assistance pendant (2 ans) : Poste de proximité, technicien de déploiement, hotline, écoute, gestion incidents, priorités
+Gestionnaire d'Application et d'Infrastructure (jusqu'à aujourd'hui) : maintien en condition opérationnel des applications, et de l'infrastructure, incidents niveau 2, gestion projets, gestion de la sécurité, gestion de portefeuille applicatifs etc.
+En 2021, La cyberattaque a bouleversé tout le système en place et il a fallu tout reconstruire.
+Cela a été une opprtunité de monter en compétences techniques,
+Aujourd'hui, je porte des missions d'administratrice de base de données: gestion en mode projet des migrations, scripting, partie technique et gestionnaire d'infra ++
+</t>
+  </si>
+  <si>
+    <t>Grandes étapes de la décentralisation de la FPT (avec lois principales et dates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Acte I : 1982–1986
+Loi Defferre 1982 «Droits et libertés des communes, des départements et des régions»
+Loi 1983 «Répartition de compétences entre les communes, départements, régions et État»
+Loi 1986 «Élection des conseillers régionaux»
+Transfert de compétences, création exécutifs locaux élus, suppression de la tutelle préfectorale : fondation de la décentralisation moderne.
+2. Acte II : 2003–2007
+Loi constitutionnelle du 28 mars 2003 «Organisation décentralisée de la République»
+Loi 2004 «Libertés et responsabilités locales»
+La Constitution consacre la décentralisation, principes nouveaux (expérimentation, subsidiarité), extension des compétences locales.
+3. Acte III : 2010–2015
+Loi 2010 «Réforme des collectivités territoriales »
+Loi MAPTAM 2014 «Modernisation de l’action publique territoriale et affirmation des métropoles»
+Loi NOTRe 2015 «Nouvelle Organisation Territoriale de la République»
+Création des métropoles, découpage régional modernisé, clarification et extension des compétences, intercommunalité renforcée.
+4. Acte IV : 2019–2022
+Loi Engagement et Proximité du 27 décembre 2019 «Engagement dans la vie locale et proximité de l’action publique»
+Loi 3DS du 21 février 2022
+«Différenciation, décentralisation, déconcentration, simplification de l’action locale»
+Adaptation, simplification, innovation dans la gouvernance locale : proximité, modularité des actions des collectivités.
+</t>
+  </si>
+  <si>
+    <t>Loi d'accessibilité dans la FTP ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La loi d’accessibilité de 2005 repose sur le principe d’une accessibilité universelle, impliquant une obligation progressive de mise en conformité des lieux, équipements, transports, et services accessibles à tous, dans une logique d’égalité et de participation active des personnes en situation de handicap.
+</t>
+  </si>
+  <si>
+    <t>Qu'est ce qu'un ERP ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un ERP, ou Établissement Recevant du Public, est défini par l'article R.143-2 du Code de la construction et de l'habitation comme « tous bâtiments, locaux et enceintes dans lesquels sont admises des personnes extérieures, soit librement, soit moyennant une rétribution ou une participation quelconque, ou dans lesquels sont tenues des réunions ouvertes à tout venant ou sur invitation, payantes ou non ».
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'un ERP en informatique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Je souhaite :
+- Conduire projets et études techniques
+- Pourquoi pas encadrement des équipes et coordination des services techniques
+- Apporter mon expertise aux autorités territoriales
+- Organiser des travaux courants et maintenir les infrastructures 
+- Continuer d'apprendre et me former afin d'évoluer et enrichir mes compétences professionnelles que je souhaite continuer de fournir à la collectivité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cela me permettrait de : 
+- Effectuer des missions de conception (projets, études techniques, propositions innovantes)
+- Encadrer des équipes et coordonner des services techniques
+- Effectuer des missions d’expertise et de conseil auprès des autorités territoriales
+- Gérer des services techniques,
+- Conduire de projets et réaliser des chantiers pour la collectivité
+- Organiser des travaux courants et être en responsabilité de la maintenance des infrastructures territoriales
 </t>
   </si>
 </sst>
@@ -2195,7 +2434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2227,6 +2466,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2544,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE927FB-F99A-425F-8754-9B8DF9BAFA05}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,31 +2806,35 @@
     </row>
     <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,526 +2863,574 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>91</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="8" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+    <row r="65" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="306" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -3514,16 +3808,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,311 +3833,319 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="357" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3855,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED40F83-BD2A-4A1A-8B76-25576411D2F3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,74 +4177,74 @@
     </row>
     <row r="2" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="204" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3954,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,316 +4277,319 @@
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="84" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="168" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4550,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,113 +4877,129 @@
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="204" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4692,7 +5013,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4711,34 +5032,34 @@
     </row>
     <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A04B41-C7F9-4CA6-BCA4-41D028A30CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185D196-0E2B-4A48-8D25-47CD0A285492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="4" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="368">
   <si>
     <t>Questions</t>
   </si>
@@ -1918,9 +1918,6 @@
 </t>
   </si>
   <si>
-    <t>ITIL</t>
-  </si>
-  <si>
     <t>Axes actuels des politiques publiques territoriales</t>
   </si>
   <si>
@@ -2141,9 +2138,6 @@
 </t>
   </si>
   <si>
-    <t>Loi REEN</t>
-  </si>
-  <si>
     <t>Quels sont les documents constitutifs d'un MP dans l'ordre ?</t>
   </si>
   <si>
@@ -2348,6 +2342,24 @@
 - Gérer des services techniques,
 - Conduire de projets et réaliser des chantiers pour la collectivité
 - Organiser des travaux courants et être en responsabilité de la maintenance des infrastructures territoriales
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que ITIL ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ITIL, ou Information Technology Infrastructure Library, est un cadre de référence international constitué de bonnes pratiques pour la gestion des services informatiques (ITSM)
+ITIL est le cadre méthodologique de référence pour organiser, optimiser et professionnaliser la gestion des services informatiques, en facilitant l’alignement de l’IT sur les besoins et enjeux de l’organisation
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce la Loi REEN ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La loi REEN, ou Loi du 15 novembre 2021 visant à réduire l'Empreinte Environnementale du Numérique, est une loi française qui vise à sensibiliser et responsabiliser tous les acteurs du numérique (entreprises, acteurs publics, consommateurs) afin de limiter l’impact environnemental croissant du numérique.
+La loi REEN est une réponse réglementaire majeure en France pour faire converger transition numérique et transition écologique
 </t>
   </si>
 </sst>
@@ -2434,7 +2446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2466,9 +2478,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2786,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE927FB-F99A-425F-8754-9B8DF9BAFA05}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2817,7 +2826,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.25">
@@ -2825,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
@@ -2833,7 +2842,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
@@ -2884,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -2900,7 +2909,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
@@ -2917,7 +2926,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
@@ -2933,7 +2942,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -2941,7 +2950,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="127.5" x14ac:dyDescent="0.25">
@@ -2949,7 +2958,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -3021,7 +3030,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,10 +3091,10 @@
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
@@ -3181,7 +3190,7 @@
         <v>203</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
@@ -3322,114 +3331,114 @@
     </row>
     <row r="59" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="306" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -3948,7 +3957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="357" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>166</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>218</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>244</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>251</v>
       </c>
@@ -4140,12 +4149,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4225,10 +4234,10 @@
     </row>
     <row r="8" spans="1:2" ht="204" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
@@ -4256,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,7 +4439,7 @@
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>264</v>
@@ -4580,17 +4589,21 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B41" s="1"/>
+    <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -4973,34 +4986,34 @@
     </row>
     <row r="14" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185D196-0E2B-4A48-8D25-47CD0A285492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A090DE-104C-4B1C-8C8B-DCAA78CB0AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="4" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -2226,17 +2226,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Les différentes sanctions sont :
-- Avertissement, blâme, exclusion 1-3 jours
-- Radiation, abaissement d’échelon, exclusion 4-15 jours
-- Rétrogradation, exclusion 16 jours à 2 ans
-- Mise à la retraite, révocation
-Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
-Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Le service public désigne une activité exercée par une autorité publique ou sous son contrôle, ayant pour but principal de satisfaire un besoin d'intérêt général
 </t>
   </si>
@@ -2360,6 +2349,30 @@
     <t xml:space="preserve">
 La loi REEN, ou Loi du 15 novembre 2021 visant à réduire l'Empreinte Environnementale du Numérique, est une loi française qui vise à sensibiliser et responsabiliser tous les acteurs du numérique (entreprises, acteurs publics, consommateurs) afin de limiter l’impact environnemental croissant du numérique.
 La loi REEN est une réponse réglementaire majeure en France pour faire converger transition numérique et transition écologique
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Voici la classification des sanctions dans la Fonction Publique Territoriale (FPT) par ordre croissant de gravité telle qu'établie par le droit disciplinaire :
+- 1er groupe (sanctions les moins graves, ne nécessitant pas l’avis préalable du conseil de discipline) :
+L’avertissement
+Le blâme (dans le Dossier Individuel pendant un certain temps)
+L’exclusion temporaire de fonctions pour une durée maximale de 3 jours (privative de salaire)
+Ces sanctions sont souvent destinées à sanctionner des fautes légères.
+- 2e groupe :
+L’abaissement d’échelon (diminution de rémunération et perte d’avancement)
+L’exclusion temporaire de fonctions pour une durée de 4 à 15 jours
+Ces sanctions sont plus graves et nécessitent une procédure plus formelle.
+- 3e groupe :
+La rétrogradation (refus d’un grade supérieur pour un ou plusieurs échelons)
+L’exclusion temporaire de fonctions pour une durée de 16 jours à 2 ans
+Ces sanctions affectent gravement la carrière et la position administrative de l’agent.
+- 4e groupe (sanctions les plus graves) :
+La mise à la retraite d’office (perte du statut de fonctionnaire)
+La révocation (licenciement, radiation du tableau)
+Ce sont des sanctions lourdes qui mettent fin à la carrière de l’agent.
+Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
+Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
 </t>
   </si>
 </sst>
@@ -2826,7 +2839,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.25">
@@ -2834,7 +2847,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
@@ -2842,7 +2855,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2854,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
@@ -2893,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -2953,12 +2966,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -3030,7 +3043,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,26 +3432,26 @@
     </row>
     <row r="70" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="306" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -4439,7 +4452,7 @@
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>264</v>
@@ -4591,18 +4604,18 @@
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A090DE-104C-4B1C-8C8B-DCAA78CB0AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75F44E-5421-4450-9E95-53563775A01F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="380">
   <si>
     <t>Questions</t>
   </si>
@@ -2212,11 +2212,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-En cas de danger grave et imminent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 les Comités d'Hygiène, de Sécurité et des Conditions de Travail (CHSCT) dans la fonction publique territoriale ont été supprimés et remplacés par une nouvelle instance unique de dialogue social appelée Comité Social Territorial (CST)
 Les CHSCT fusionnent avec les Comités Techniques (CT) en Janvier 2023
 </t>
@@ -2373,6 +2368,106 @@
 Ce sont des sanctions lourdes qui mettent fin à la carrière de l’agent.
 Toutes ces sanctions doivent respecter la procédure disciplinaire et offrir la possibilité à l’agent de se défendre.
 Les recours devant la commission administrative paritaire ou les tribunaux sont possibles en cas de contestation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+En cas de danger grave et imminent.
+Procédure typique de l’exercice du droit de retrait :
+- Identifier le danger grave et imminent (DGI).
+- Alerter sans délai la hiérarchie.
+- Quitter le poste si nécessaire.
+- Rester à disposition de l’organisme employeur.
+- Reprendre l’activité sur ordre de la hiérarchie, une fois le danger écarté.
+</t>
+  </si>
+  <si>
+    <t>Quels sont les documents d'orientation budgétaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Le Débat d’Orientation Budgétaire (DOB)
+Obligation légale pour les communes de plus de 3 500 habitants, les départements, les régions, les EPCI comportant une commune de cette taille.
+Le DOB doit se tenir deux mois avant le vote du budget.
+Il vise à présenter les grandes lignes de la politique budgétaire pour l’année à venir.
+Il inclut les prévisions d’évolution des dépenses et recettes, la gestion de la dette, les engagements pluriannuels, ainsi que l’évolution des effectifs et des dépenses de personnel dans les plus grandes collectivités.
+L’assemblée délibérante doit prendre acte de la tenue du DOB par une délibération.
+2. Le Rapport d’Orientation Budgétaire (ROB)
+Document préparatoire essentiel au DOB.
+Contient une analyse détaillée des finances, évolutions prévisionnelles des recettes et dépenses, gestion de la dette, investissement.
+Dans les collectivités de plus de 10 000 habitants, il intègre aussi la structure des dépenses de personnel et la durée effective du travail.
+Transmis au représentant de l’État et aux EPCI concernés.
+</t>
+  </si>
+  <si>
+    <t>Qu'est ce qu'une norme et à quoi elle sert ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Une norme est une règle, un ensemble de règles ou de critères établis pour régir, ordonner ou encadrer une activité, un produit, un service ou un comportement. 
+Elle vise à assurer la qualité, la sécurité, l’interopérabilité, la compatibilité ou encore la conformité à des exigences précises.
+À qui servent les normes ?
+Aux administrations et collectivités pour harmoniser leurs procédures et assurer la sécurité des usagers.
+Aux consommateurs et citoyens pour bénéficier de protections, qualité et sécurité.
+Aux organismes de contrôle pour vérifier la conformité.
+Aux acteurs économiques au sens large, nationaux et internationaux, pour faciliter la coopération et la compétition loyale.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qu'une étude d'impact ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Une étude d'impact est un processus systématique qui vise à identifier, prévoir et évaluer les conséquences potentielles d'un projet sur l'environnement et la santé humaine avant sa réalisation. 
+Elle sert à informer les décideurs et le public, afin de prévenir, réduire ou compenser les effets négatifs du projet.
+</t>
+  </si>
+  <si>
+    <t>Que ne doit-on pas faire en tant que manager ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Ne pas communiquer clairement : Évitez le flou ou le manque d’informations, car cela créé des incompréhensions et de la méfiance.
+- Ne pas écouter ni prendre en compte les remarques : Ignorer les feedbacks des collaborateurs diminue leur engagement et freine l’amélioration.
+- Ne pas fixer d’objectifs clairs ni mesurables : L’absence de direction rend l’équipe désorientée et improductive.
+- Ne pas déléguer correctement : Vouloir tout contrôler étouffe la responsabilisation et surcharge inutilement le manager.
+- Ne pas reconnaître les efforts et succès : Le manque de reconnaissance démotive et génère de la frustration.
+- Ne pas gérer les conflits : Les conflits non traités polluent les relations et l’efficacité collective.
+- Ne pas maîtriser son stress et ses émotions : Un manager qui perd son calme affecte négativement l’atmosphère de travail.
+- Ne pas développer les compétences de son équipe : Ignorer la formation et l’accompagnement limite la progression individuelle et collective.
+- Ne pas respecter l’équilibre entre vie professionnelle et personnelle : Exiger une disponibilité excessive entraîne un désengagement et un épuisement.
+Un bon manager sait éviter ces écueils pour créer un environnement de travail favorable, motivant et productif.
+</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'externalisation ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L'externalisation consiste à confier tout ou partie de la gestion, de l’exploitation, ou du pilotage de fonction à un prestataire externe spécialisé, plutôt que de gérer ces fonctions en interne.
+</t>
+  </si>
+  <si>
+    <t>Quel est le rôle d'un élu d'une CT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le rôle d’un élu dans une collectivité territoriale (CT) s’articule autour de plusieurs missions clés :
+- Représentation démocratique
+L’élu représente les habitants de la collectivité et leurs intérêts.
+Il participe aux décisions politiques qui orientent la gestion et le développement du territoire.
+- Participation aux décisions territoriales
+L’élu participe aux délibérations et votes du conseil municipal, départemental ou régional selon le cas.
+Il contribue à l’élaboration et au suivi des politiques publiques locales : urbanisme, voirie, environnement, action sociale, culture, etc.
+- Contrôle et suivi de l’administration locale
+L’élu exerce un rôle de contrôle sur la gestion administrative et financière de la collectivité.
+Il veille à la correcte utilisation des fonds publics et à la transparence de l’action locale.
+- Interface avec la population
+Il est un lien entre les citoyens et l’administration, recueillant les attentes, les réclamations et les besoins.
+Souvent, il organise ou participe à des réunions de quartier, permanences ou consultations publiques.
+- Implication dans les commissions et instances
+Les élus siègent dans diverses commissions spécialisées (finances, culture, environnement, etc.), où ils étudient plus finement certains dossiers.
+Ils peuvent représenter la collectivité dans des établissements publics locaux ou structures associatives.
 </t>
   </si>
 </sst>
@@ -2839,7 +2934,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.25">
@@ -2847,7 +2942,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
@@ -2855,7 +2950,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2867,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B72" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
@@ -2906,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -2958,12 +3053,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="344.25" x14ac:dyDescent="0.25">
@@ -2971,7 +3066,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
@@ -3043,7 +3138,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,10 +3199,10 @@
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
@@ -3432,31 +3527,35 @@
     </row>
     <row r="70" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="306" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -3830,10 +3929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08A9D-8970-4BF3-91D6-901BA406670D}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,6 +4267,14 @@
       </c>
       <c r="B41" s="6" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4278,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7586D-FBA9-44B9-A2E7-6106E8522EBB}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,7 +4559,7 @@
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>264</v>
@@ -4604,30 +4711,43 @@
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -4881,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02BB28D-4EFC-40B8-9AEB-C276B325248B}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,6 +5147,14 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75F44E-5421-4450-9E95-53563775A01F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F4DDC-8C88-4CD6-9DCF-7DB2F6AD59BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -2962,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F4DDC-8C88-4CD6-9DCF-7DB2F6AD59BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE26E8C-A694-4427-86C1-C56B49A7DF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7485" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7488" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
   <sheets>
     <sheet name="ParcoursPerso" sheetId="6" r:id="rId1"/>
@@ -2073,13 +2073,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités + Cotisations sociales
-L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
-Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
-</t>
-  </si>
-  <si>
     <t>Que contient une fiche de poste dans la FPT ?</t>
   </si>
   <si>
@@ -2468,6 +2461,13 @@
 - Implication dans les commissions et instances
 Les élus siègent dans diverses commissions spécialisées (finances, culture, environnement, etc.), où ils étudient plus finement certains dossiers.
 Ils peuvent représenter la collectivité dans des établissements publics locaux ou structures associatives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités - Cotisations sociales
+L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
+Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
 </t>
   </si>
 </sst>
@@ -2907,13 +2907,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -2929,28 +2929,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2962,17 +2962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="152.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="152.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2988,23 +2988,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
@@ -3012,15 +3012,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="276" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -3029,15 +3029,15 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="178.5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -3045,31 +3045,31 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="140.25" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="344.25" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="276" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>65</v>
       </c>
@@ -3133,15 +3133,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>153</v>
       </c>
@@ -3197,15 +3197,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>155</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>159</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>163</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>172</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>191</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>193</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>195</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="345" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>201</v>
       </c>
@@ -3293,15 +3293,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>204</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>207</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>208</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>197</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>198</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>238</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>224</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>226</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>222</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>229</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>230</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>231</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>232</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>236</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>239</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>241</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>253</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="400.2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>309</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>310</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>317</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>324</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>325</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>327</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>330</v>
       </c>
@@ -3493,431 +3493,431 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B66" s="8" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="262.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="8" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="8" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="306" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
@@ -3935,13 +3935,13 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="276" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="386.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>166</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>215</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>218</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>244</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>251</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>321</v>
       </c>
@@ -4269,12 +4269,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4290,13 +4290,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>245</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4352,15 +4352,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>187</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>189</v>
       </c>
@@ -4389,14 +4389,14 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="132.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="186.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>48</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>177</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>178</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>182</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>258</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>259</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>263</v>
       </c>
@@ -4557,15 +4557,15 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>268</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>267</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="168" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>288</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>290</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>292</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>293</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>269</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>270</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>271</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>285</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>272</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>273</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>274</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>275</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>276</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>278</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="348" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>277</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>307</v>
       </c>
@@ -4709,287 +4709,287 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="10" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
@@ -5007,13 +5007,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="276" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>146</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>174</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>213</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>249</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>279</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="204" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>280</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>314</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>313</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>319</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>331</v>
       </c>
@@ -5149,12 +5149,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5170,13 +5170,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="176.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="176.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>157</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>247</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>255</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>256</v>
       </c>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE26E8C-A694-4427-86C1-C56B49A7DF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E53FD7-905B-4E2F-A3A6-9B28A7C27520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7488" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -1111,11 +1111,6 @@
     <t>Qui a la compétence d'Autorité Organisatrice des Mobilités ?</t>
   </si>
   <si>
-    <t xml:space="preserve">
-La compétence d'AOM est décentralisée, principalement exercée par les EPCI à fiscalité propre de taille importante et la région, avec des possibilités de transferts et de substitution selon les dispositifs de la LOM
-</t>
-  </si>
-  <si>
     <t>Quel est le contenu des Lignes Directrices de Gestion ?</t>
   </si>
   <si>
@@ -2468,6 +2463,12 @@
 Paie = Indice majoré x Valeur du point d’indice + Primes et indemnités - Cotisations sociales
 L’indice majoré dépend du grade et de l’échelon de l’agent : plus on monte dans la hiérarchie, plus l’indice majoré est élevé
 Primes et indemnités (IFSE, Astreintes, supplément familial de traitement, indemnités liées aux fonctions ou sujétions spécifiques, GIPA, etc.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La compétence d'AOM est décentralisée, principalement exercée par les EPCI à fiscalité propre de taille importante et la région, avec des possibilités de transferts et de substitution selon les dispositifs de la LOM
+La LOM﻿ en mobilité désigne la Loi d'Orientation des Mobilités﻿, promulguée en 2019 en France. Cette loi vise à transformer profondément la politique des transports pour encourager des mobilités plus durables et accessibles
 </t>
   </si>
 </sst>
@@ -2923,7 +2924,7 @@
     </row>
     <row r="2" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -2934,7 +2935,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
@@ -2942,7 +2943,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -2950,7 +2951,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2962,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2993,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -3001,7 +3002,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
@@ -3017,7 +3018,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
@@ -3034,7 +3035,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
@@ -3050,7 +3051,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -3058,7 +3059,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="372.6" x14ac:dyDescent="0.3">
@@ -3066,7 +3067,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
@@ -3074,7 +3075,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="276" x14ac:dyDescent="0.3">
@@ -3138,7 +3139,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3199,10 +3200,10 @@
     </row>
     <row r="29" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="69" x14ac:dyDescent="0.3">
@@ -3253,308 +3254,308 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="345" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="400.2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4187,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="372.6" x14ac:dyDescent="0.3">
@@ -4231,50 +4232,50 @@
     </row>
     <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.3">
@@ -4325,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -4333,12 +4334,12 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>185</v>
@@ -4354,10 +4355,10 @@
     </row>
     <row r="8" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
@@ -4434,7 +4435,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.3">
@@ -4535,218 +4536,218 @@
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="348" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5087,74 +5088,74 @@
     </row>
     <row r="10" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5194,26 +5195,26 @@
     </row>
     <row r="3" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E53FD7-905B-4E2F-A3A6-9B28A7C27520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4EB5B-DE88-4310-B276-12D531225C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7488" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -1196,24 +1196,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-L’IFSE, ou Indemnité de Fonctions, de Sujétions et d’Expertise, est une indemnité principale versée mensuellement aux fonctionnaires territoriaux dans le cadre du régime indemnitaire RIFSEEP
-L’IFSE est une indemnité clé qui valorise la nature et la complexité des fonctions exercées par les agents territoriaux, tenant compte des responsabilités, compétences et contraintes liées à leur poste
-</t>
-  </si>
-  <si>
     <t>Qu'est-ce que l'IFSE ?</t>
   </si>
   <si>
     <t>Qu'est-ce que le RIFSEEP ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Le RIFSEEP (Régime Indemnitaire tenant compte des Fonctions, des Sujétions, de l’Expertise et de l’Engagement Professionnel) est un régime indemnitaire qui vise à simplifier et rationaliser les primes et indemnités versées aux fonctionnaires, notamment dans la fonction publique territoriale.
-Il regroupe 2 parties complémentaires :
-L’IFSE (indemnité de fonctions, de sujétions et d’expertise), qui valorise les responsabilités, l’expertise et les contraintes du poste,
-Le CIA (complément indemnitaire annuel), qui dépend de l’engagement professionnel et de la manière de servir.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2469,6 +2455,22 @@
     <t xml:space="preserve">
 La compétence d'AOM est décentralisée, principalement exercée par les EPCI à fiscalité propre de taille importante et la région, avec des possibilités de transferts et de substitution selon les dispositifs de la LOM
 La LOM﻿ en mobilité désigne la Loi d'Orientation des Mobilités﻿, promulguée en 2019 en France. Cette loi vise à transformer profondément la politique des transports pour encourager des mobilités plus durables et accessibles
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L’IFSE, ou Indemnité de Fonctions, de Sujétions et d’Expertise, est une indemnité principale versée mensuellement aux fonctionnaires territoriaux dans le cadre du régime indemnitaire RIFSEEP
+L’IFSE est une indemnité clé qui valorise la nature et la complexité des fonctions exercées par les agents territoriaux, tenant compte des responsabilités, compétences et contraintes liées à leur poste
+NB : la sujétion est une contrainte particulière liée au poste de travail qui peut entraîner des compensations spécifiques et qui est formellement définie dans la réglementation du travail
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Le RIFSEEP (Régime Indemnitaire tenant compte des Fonctions, des Sujétions, de l’Expertise et de l’Engagement Professionnel) est un régime indemnitaire qui vise à simplifier et rationaliser les primes et indemnités versées aux fonctionnaires, notamment dans la fonction publique territoriale.
+Il regroupe 2 parties complémentaires :
+L’IFSE (indemnité de fonctions, de sujétions et d’expertise), qui valorise les responsabilités, l’expertise et les contraintes du poste,
+Le CIA (complément indemnitaire annuel), qui dépend de l’engagement professionnel et de la manière de servir.
+NB : la sujétion est une contrainte particulière liée au poste de travail qui peut entraîner des compensations spécifiques et qui est formellement définie dans la réglementation du travail
 </t>
   </si>
 </sst>
@@ -2924,7 +2926,7 @@
     </row>
     <row r="2" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>98</v>
@@ -2935,7 +2937,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
@@ -2943,7 +2945,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -2951,7 +2953,7 @@
         <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2963,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -3002,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
@@ -3018,7 +3020,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
@@ -3035,7 +3037,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="193.2" x14ac:dyDescent="0.3">
@@ -3051,7 +3053,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -3059,7 +3061,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="372.6" x14ac:dyDescent="0.3">
@@ -3067,7 +3069,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
@@ -3075,7 +3077,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="276" x14ac:dyDescent="0.3">
@@ -3139,7 +3141,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3200,10 +3202,10 @@
     </row>
     <row r="29" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="69" x14ac:dyDescent="0.3">
@@ -3259,7 +3261,7 @@
         <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
@@ -3299,7 +3301,7 @@
         <v>202</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
@@ -3310,20 +3312,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="138" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="B44" s="8" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -3331,7 +3333,7 @@
         <v>196</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -3339,223 +3341,223 @@
         <v>197</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="400.2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4189,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="372.6" x14ac:dyDescent="0.3">
@@ -4232,50 +4234,50 @@
     </row>
     <row r="37" spans="1:2" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="138" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4312,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.3">
@@ -4326,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
@@ -4334,12 +4336,12 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>185</v>
@@ -4355,10 +4357,10 @@
     </row>
     <row r="8" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
@@ -4435,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.3">
@@ -4536,218 +4538,218 @@
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="312" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="348" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5088,74 +5090,74 @@
     </row>
     <row r="10" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="207" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5195,26 +5197,26 @@
     </row>
     <row r="3" spans="1:2" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/QR.xlsx
+++ b/QR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalDisk\Aurelie-Perso\Concours\2025\SiteWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4EB5B-DE88-4310-B276-12D531225C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF8FCD-CCBB-4F7A-A152-9F88E11E356D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7488" activeTab="1" xr2:uid="{B9FAED70-A88D-4535-8C1D-4C7031DDBDCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="382">
   <si>
     <t>Questions</t>
   </si>
@@ -2471,6 +2471,30 @@
 L’IFSE (indemnité de fonctions, de sujétions et d’expertise), qui valorise les responsabilités, l’expertise et les contraintes du poste,
 Le CIA (complément indemnitaire annuel), qui dépend de l’engagement professionnel et de la manière de servir.
 NB : la sujétion est une contrainte particulière liée au poste de travail qui peut entraîner des compensations spécifiques et qui est formellement définie dans la réglementation du travail
+</t>
+  </si>
+  <si>
+    <t>Quel est le rôle du Maire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Statut
+Élu par et parmi les conseillers municipaux, chef de l’exécutif local pour 6 ans.
+- Chef de l’administration communale
+Exécute les décisions du conseil municipal : prépare et ordonne le budget, dirige les services, gère le patrimoine, rend compte à l’assemblée.
+- Agent de l’État dans la commune
+Officier d’état civil : tient registres, célèbre mariages, délivre actes.
+Officier de police judiciaire : veille au respect des lois, applique des mesures réglementaires.
+Organise élections, recensement, publie lois et règlements.
+- Pouvoir de police administrative
+Assure le bon ordre, la sécurité, la salubrité publique.
+Prend des mesures (circulation, manifestations, événements, catastrophes).
+- Relations avec l’État/préfet
+Transmet actes de la commune au préfet pour contrôle de légalité.
+Dialogue pour subventions, conseils, autorisations.
+Informe et collabore lors d’incidents ou de crises locales.
+Exemples
+Organise les élections (mandat de l’État), signe actes officiels, informe le préfet lors de crise locale, dirige les opérations de secours (si le préfet ne prend pas la main).
 </t>
   </si>
 </sst>
@@ -2965,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016A828-0A78-4478-90E1-0A1BEC7EBEE3}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3560,9 +3584,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+    <row r="74" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
